--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ReachName</t>
+          <t>Reach Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>RM_Start</t>
+          <t>River Mile - Start</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RM_End</t>
+          <t>River Mile - End</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Assessment.Unit</t>
+          <t>Assessment Unit</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -385,12 +385,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Life_Stages</t>
+          <t>Life Stages</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Limiting Factors</t>
+          <t>Limiting Factor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.659388</v>
+        <v>0.66</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -444,10 +444,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>11.8521</v>
+        <v>11.85</v>
       </c>
       <c r="C3">
-        <v>13.3869</v>
+        <v>13.39</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>13.3869</v>
+        <v>13.39</v>
       </c>
       <c r="C4">
-        <v>14.3991</v>
+        <v>14.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>14.3991</v>
+        <v>14.4</v>
       </c>
       <c r="C5">
-        <v>14.7674</v>
+        <v>14.77</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>14.7674</v>
+        <v>14.77</v>
       </c>
       <c r="C6">
-        <v>16.1895</v>
+        <v>16.19</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>16.1895</v>
+        <v>16.19</v>
       </c>
       <c r="C7">
-        <v>18.447</v>
+        <v>18.45</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>18.447</v>
+        <v>18.45</v>
       </c>
       <c r="C8">
-        <v>20.3407</v>
+        <v>20.34</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>20.3407</v>
+        <v>20.34</v>
       </c>
       <c r="C9">
-        <v>21.1877</v>
+        <v>21.19</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>21.1877</v>
+        <v>21.19</v>
       </c>
       <c r="C10">
-        <v>23.3224</v>
+        <v>23.32</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>23.3224</v>
+        <v>23.32</v>
       </c>
       <c r="C11">
-        <v>24.2879</v>
+        <v>24.29</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.1389</v>
+        <v>1.14</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>1.1389</v>
+        <v>1.14</v>
       </c>
       <c r="C13">
-        <v>2.33753</v>
+        <v>2.34</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>2.33753</v>
+        <v>2.34</v>
       </c>
       <c r="C14">
-        <v>4.06948</v>
+        <v>4.07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>4.06948</v>
+        <v>4.07</v>
       </c>
       <c r="C15">
-        <v>5.73668</v>
+        <v>5.74</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>5.73668</v>
+        <v>5.74</v>
       </c>
       <c r="C16">
-        <v>7.05892</v>
+        <v>7.06</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>7.05892</v>
+        <v>7.06</v>
       </c>
       <c r="C17">
-        <v>7.43586</v>
+        <v>7.44</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>7.43586</v>
+        <v>7.44</v>
       </c>
       <c r="C18">
-        <v>8.635109999999999</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>8.635109999999999</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C19">
-        <v>9.50724</v>
+        <v>9.51</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>9.50724</v>
+        <v>9.51</v>
       </c>
       <c r="C20">
-        <v>9.971120000000001</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>9.971120000000001</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="C21">
-        <v>10.6495</v>
+        <v>10.65</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>10.6495</v>
+        <v>10.65</v>
       </c>
       <c r="C22">
-        <v>11.8521</v>
+        <v>11.85</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>24.2879</v>
+        <v>24.29</v>
       </c>
       <c r="C23">
-        <v>25.6372</v>
+        <v>25.64</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1242,10 +1242,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>25.6372</v>
+        <v>25.64</v>
       </c>
       <c r="C24">
-        <v>27.0652</v>
+        <v>27.07</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.89492</v>
+        <v>1.89</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>1.89492</v>
+        <v>1.89</v>
       </c>
       <c r="C26">
-        <v>2.92462</v>
+        <v>2.92</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="B27">
-        <v>2.92462</v>
+        <v>2.92</v>
       </c>
       <c r="C27">
-        <v>5.46548</v>
+        <v>5.47</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>5.46548</v>
+        <v>5.47</v>
       </c>
       <c r="C28">
-        <v>7.14957</v>
+        <v>7.15</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B29">
-        <v>7.14957</v>
+        <v>7.15</v>
       </c>
       <c r="C29">
-        <v>9.53525</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B30">
-        <v>9.53525</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C30">
-        <v>11.1735</v>
+        <v>11.17</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="B31">
-        <v>11.1735</v>
+        <v>11.17</v>
       </c>
       <c r="C31">
-        <v>13.101</v>
+        <v>13.1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B32">
-        <v>27.0223</v>
+        <v>27.02</v>
       </c>
       <c r="C32">
-        <v>27.469</v>
+        <v>27.47</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="B33">
-        <v>27.469</v>
+        <v>27.47</v>
       </c>
       <c r="C33">
-        <v>28.2527</v>
+        <v>28.25</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="B34">
-        <v>28.6932</v>
+        <v>28.69</v>
       </c>
       <c r="C34">
-        <v>29.2987</v>
+        <v>29.3</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B35">
-        <v>31.0893</v>
+        <v>31.09</v>
       </c>
       <c r="C35">
-        <v>31.5953</v>
+        <v>31.6</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1698,10 +1698,10 @@
         </is>
       </c>
       <c r="B36">
-        <v>31.5953</v>
+        <v>31.6</v>
       </c>
       <c r="C36">
-        <v>32.0922</v>
+        <v>32.09</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="B37">
-        <v>32.3712</v>
+        <v>32.37</v>
       </c>
       <c r="C37">
-        <v>33.1816</v>
+        <v>33.18</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.507941</v>
+        <v>0.51</v>
       </c>
       <c r="C38">
-        <v>1.30165</v>
+        <v>1.3</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1812,10 +1812,10 @@
         </is>
       </c>
       <c r="B39">
-        <v>1.30165</v>
+        <v>1.3</v>
       </c>
       <c r="C39">
-        <v>3.36657</v>
+        <v>3.37</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1850,10 +1850,10 @@
         </is>
       </c>
       <c r="B40">
-        <v>3.36657</v>
+        <v>3.37</v>
       </c>
       <c r="C40">
-        <v>4.01284</v>
+        <v>4.01</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="B41">
-        <v>4.01284</v>
+        <v>4.01</v>
       </c>
       <c r="C41">
-        <v>5.79279</v>
+        <v>5.79</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B42">
-        <v>5.79279</v>
+        <v>5.79</v>
       </c>
       <c r="C42">
-        <v>6.59941</v>
+        <v>6.6</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="B43">
-        <v>16.2977</v>
+        <v>16.3</v>
       </c>
       <c r="C43">
-        <v>18.7001</v>
+        <v>18.7</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="B44">
-        <v>18.7001</v>
+        <v>18.7</v>
       </c>
       <c r="C44">
-        <v>20.5033</v>
+        <v>20.5</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B45">
-        <v>20.5033</v>
+        <v>20.5</v>
       </c>
       <c r="C45">
-        <v>21.8268</v>
+        <v>21.83</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B46">
-        <v>21.8268</v>
+        <v>21.83</v>
       </c>
       <c r="C46">
-        <v>22.1291</v>
+        <v>22.13</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="B47">
-        <v>22.1291</v>
+        <v>22.13</v>
       </c>
       <c r="C47">
-        <v>23.8768</v>
+        <v>23.88</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B48">
-        <v>23.8768</v>
+        <v>23.88</v>
       </c>
       <c r="C48">
-        <v>24.5381</v>
+        <v>24.54</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2192,10 +2192,10 @@
         </is>
       </c>
       <c r="B49">
-        <v>24.5381</v>
+        <v>24.54</v>
       </c>
       <c r="C49">
-        <v>25.2848</v>
+        <v>25.28</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2230,10 +2230,10 @@
         </is>
       </c>
       <c r="B50">
-        <v>25.2848</v>
+        <v>25.28</v>
       </c>
       <c r="C50">
-        <v>26.3748</v>
+        <v>26.37</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B51">
-        <v>26.3748</v>
+        <v>26.37</v>
       </c>
       <c r="C51">
-        <v>27.0223</v>
+        <v>27.02</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="B52">
-        <v>3.7277</v>
+        <v>3.73</v>
       </c>
       <c r="C52">
-        <v>4.51119</v>
+        <v>4.51</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0.8270650000000001</v>
+        <v>0.83</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.8270650000000001</v>
+        <v>0.83</v>
       </c>
       <c r="C54">
-        <v>1.90929</v>
+        <v>1.91</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2420,10 +2420,10 @@
         </is>
       </c>
       <c r="B55">
-        <v>2.59519</v>
+        <v>2.6</v>
       </c>
       <c r="C55">
-        <v>4.93638</v>
+        <v>4.94</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2458,10 +2458,10 @@
         </is>
       </c>
       <c r="B56">
-        <v>4.93638</v>
+        <v>4.94</v>
       </c>
       <c r="C56">
-        <v>6.69039</v>
+        <v>6.69</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B57">
-        <v>6.69039</v>
+        <v>6.69</v>
       </c>
       <c r="C57">
-        <v>7.84324</v>
+        <v>7.84</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="B58">
-        <v>54.4957</v>
+        <v>54.5</v>
       </c>
       <c r="C58">
-        <v>55.4061</v>
+        <v>55.41</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="B59">
-        <v>55.4061</v>
+        <v>55.41</v>
       </c>
       <c r="C59">
-        <v>56.9966</v>
+        <v>57</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2610,10 +2610,10 @@
         </is>
       </c>
       <c r="B60">
-        <v>56.9966</v>
+        <v>57</v>
       </c>
       <c r="C60">
-        <v>59.3551</v>
+        <v>59.36</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         </is>
       </c>
       <c r="B61">
-        <v>60.5529</v>
+        <v>60.55</v>
       </c>
       <c r="C61">
-        <v>61.6703</v>
+        <v>61.67</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="B62">
-        <v>61.6703</v>
+        <v>61.67</v>
       </c>
       <c r="C62">
-        <v>62.2979</v>
+        <v>62.3</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2724,10 +2724,10 @@
         </is>
       </c>
       <c r="B63">
-        <v>62.2979</v>
+        <v>62.3</v>
       </c>
       <c r="C63">
-        <v>63.5317</v>
+        <v>63.53</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="B64">
-        <v>63.5317</v>
+        <v>63.53</v>
       </c>
       <c r="C64">
-        <v>66.0474</v>
+        <v>66.05</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="B65">
-        <v>66.0474</v>
+        <v>66.05</v>
       </c>
       <c r="C65">
-        <v>66.8323</v>
+        <v>66.83</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2838,10 +2838,10 @@
         </is>
       </c>
       <c r="B66">
-        <v>66.8323</v>
+        <v>66.83</v>
       </c>
       <c r="C66">
-        <v>67.9504</v>
+        <v>67.95</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B67">
-        <v>67.9504</v>
+        <v>67.95</v>
       </c>
       <c r="C67">
-        <v>69.9508</v>
+        <v>69.95</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B68">
-        <v>11.4693</v>
+        <v>11.47</v>
       </c>
       <c r="C68">
-        <v>13.943</v>
+        <v>13.94</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="B69">
-        <v>17.7471</v>
+        <v>17.75</v>
       </c>
       <c r="C69">
-        <v>19.8888</v>
+        <v>19.89</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B70">
-        <v>19.8888</v>
+        <v>19.89</v>
       </c>
       <c r="C70">
-        <v>21.5552</v>
+        <v>21.56</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B71">
-        <v>69.9508</v>
+        <v>69.95</v>
       </c>
       <c r="C71">
-        <v>72.2741</v>
+        <v>72.27</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="B72">
-        <v>72.2741</v>
+        <v>72.27</v>
       </c>
       <c r="C72">
-        <v>74.017</v>
+        <v>74.02</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="B73">
-        <v>74.017</v>
+        <v>74.02</v>
       </c>
       <c r="C73">
-        <v>75.93850000000001</v>
+        <v>75.94</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3142,10 +3142,10 @@
         </is>
       </c>
       <c r="B74">
-        <v>75.93850000000001</v>
+        <v>75.94</v>
       </c>
       <c r="C74">
-        <v>77.54470000000001</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3180,10 +3180,10 @@
         </is>
       </c>
       <c r="B75">
-        <v>77.54470000000001</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="C75">
-        <v>79.29989999999999</v>
+        <v>79.3</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0.745062</v>
+        <v>0.75</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3256,10 +3256,10 @@
         </is>
       </c>
       <c r="B77">
-        <v>0.745062</v>
+        <v>0.75</v>
       </c>
       <c r="C77">
-        <v>1.49499</v>
+        <v>1.49</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3294,10 +3294,10 @@
         </is>
       </c>
       <c r="B78">
-        <v>1.13489</v>
+        <v>1.13</v>
       </c>
       <c r="C78">
-        <v>2.49619</v>
+        <v>2.5</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3332,10 +3332,10 @@
         </is>
       </c>
       <c r="B79">
-        <v>4.98959</v>
+        <v>4.99</v>
       </c>
       <c r="C79">
-        <v>6.39975</v>
+        <v>6.4</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3370,10 +3370,10 @@
         </is>
       </c>
       <c r="B80">
-        <v>6.39975</v>
+        <v>6.4</v>
       </c>
       <c r="C80">
-        <v>7.5062</v>
+        <v>7.51</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="B81">
-        <v>7.5062</v>
+        <v>7.51</v>
       </c>
       <c r="C81">
-        <v>8.75653</v>
+        <v>8.76</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B82">
-        <v>8.75653</v>
+        <v>8.76</v>
       </c>
       <c r="C82">
-        <v>9.213150000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="B83">
-        <v>9.213150000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C83">
-        <v>10.3616</v>
+        <v>10.36</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3522,10 +3522,10 @@
         </is>
       </c>
       <c r="B84">
-        <v>10.3616</v>
+        <v>10.36</v>
       </c>
       <c r="C84">
-        <v>11.2025</v>
+        <v>11.2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>12.02</v>
       </c>
       <c r="C85">
-        <v>12.6533</v>
+        <v>12.65</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B86">
-        <v>12.6533</v>
+        <v>12.65</v>
       </c>
       <c r="C86">
-        <v>13.6217</v>
+        <v>13.62</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3636,10 +3636,10 @@
         </is>
       </c>
       <c r="B87">
-        <v>13.6217</v>
+        <v>13.62</v>
       </c>
       <c r="C87">
-        <v>14.9302</v>
+        <v>14.93</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B88">
-        <v>14.9302</v>
+        <v>14.93</v>
       </c>
       <c r="C88">
-        <v>15.9266</v>
+        <v>15.93</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0.682389</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3750,10 +3750,10 @@
         </is>
       </c>
       <c r="B90">
-        <v>0.682389</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="C90">
-        <v>1.69161</v>
+        <v>1.69</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3788,10 +3788,10 @@
         </is>
       </c>
       <c r="B91">
-        <v>1.69161</v>
+        <v>1.69</v>
       </c>
       <c r="C91">
-        <v>2.81973</v>
+        <v>2.82</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="B92">
-        <v>2.81973</v>
+        <v>2.82</v>
       </c>
       <c r="C92">
-        <v>4.37545</v>
+        <v>4.38</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3864,10 +3864,10 @@
         </is>
       </c>
       <c r="B93">
-        <v>4.37545</v>
+        <v>4.38</v>
       </c>
       <c r="C93">
-        <v>4.96852</v>
+        <v>4.97</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="B94">
-        <v>4.96852</v>
+        <v>4.97</v>
       </c>
       <c r="C94">
-        <v>6.62346</v>
+        <v>6.62</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3940,10 +3940,10 @@
         </is>
       </c>
       <c r="B95">
-        <v>6.62346</v>
+        <v>6.62</v>
       </c>
       <c r="C95">
-        <v>7.71025</v>
+        <v>7.71</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3978,10 +3978,10 @@
         </is>
       </c>
       <c r="B96">
-        <v>7.71025</v>
+        <v>7.71</v>
       </c>
       <c r="C96">
-        <v>9.03523</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -4016,10 +4016,10 @@
         </is>
       </c>
       <c r="B97">
-        <v>9.03523</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C97">
-        <v>9.624219999999999</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="B98">
-        <v>9.624219999999999</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C98">
-        <v>11.9348</v>
+        <v>11.93</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="B99">
-        <v>11.9348</v>
+        <v>11.93</v>
       </c>
       <c r="C99">
-        <v>13.2685</v>
+        <v>13.27</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -4130,10 +4130,10 @@
         </is>
       </c>
       <c r="B100">
-        <v>13.2685</v>
+        <v>13.27</v>
       </c>
       <c r="C100">
-        <v>14.2984</v>
+        <v>14.3</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="B101">
-        <v>14.2984</v>
+        <v>14.3</v>
       </c>
       <c r="C101">
-        <v>15.8551</v>
+        <v>15.86</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="B102">
-        <v>15.8551</v>
+        <v>15.86</v>
       </c>
       <c r="C102">
-        <v>16.7546</v>
+        <v>16.75</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="B103">
-        <v>16.7546</v>
+        <v>16.75</v>
       </c>
       <c r="C103">
-        <v>17.045</v>
+        <v>17.05</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -4282,10 +4282,10 @@
         </is>
       </c>
       <c r="B104">
-        <v>17.045</v>
+        <v>17.05</v>
       </c>
       <c r="C104">
-        <v>17.8823</v>
+        <v>17.88</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -4320,10 +4320,10 @@
         </is>
       </c>
       <c r="B105">
-        <v>19.8407</v>
+        <v>19.84</v>
       </c>
       <c r="C105">
-        <v>20.9447</v>
+        <v>20.94</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -4358,10 +4358,10 @@
         </is>
       </c>
       <c r="B106">
-        <v>20.9447</v>
+        <v>20.94</v>
       </c>
       <c r="C106">
-        <v>21.6862</v>
+        <v>21.69</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B107">
-        <v>38.3999</v>
+        <v>38.4</v>
       </c>
       <c r="C107">
-        <v>40.5561</v>
+        <v>40.56</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -4434,10 +4434,10 @@
         </is>
       </c>
       <c r="B108">
-        <v>40.5561</v>
+        <v>40.56</v>
       </c>
       <c r="C108">
-        <v>41.7027</v>
+        <v>41.7</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -4472,10 +4472,10 @@
         </is>
       </c>
       <c r="B109">
-        <v>41.7027</v>
+        <v>41.7</v>
       </c>
       <c r="C109">
-        <v>42.9198</v>
+        <v>42.92</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="B110">
-        <v>42.9198</v>
+        <v>42.92</v>
       </c>
       <c r="C110">
-        <v>44.623</v>
+        <v>44.62</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -4548,10 +4548,10 @@
         </is>
       </c>
       <c r="B111">
-        <v>44.623</v>
+        <v>44.62</v>
       </c>
       <c r="C111">
-        <v>46.088</v>
+        <v>46.09</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -4586,10 +4586,10 @@
         </is>
       </c>
       <c r="B112">
-        <v>46.088</v>
+        <v>46.09</v>
       </c>
       <c r="C112">
-        <v>47.5819</v>
+        <v>47.58</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -4624,10 +4624,10 @@
         </is>
       </c>
       <c r="B113">
-        <v>47.5819</v>
+        <v>47.58</v>
       </c>
       <c r="C113">
-        <v>48.1247</v>
+        <v>48.12</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -4662,10 +4662,10 @@
         </is>
       </c>
       <c r="B114">
-        <v>48.1247</v>
+        <v>48.12</v>
       </c>
       <c r="C114">
-        <v>49.3908</v>
+        <v>49.39</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -4700,10 +4700,10 @@
         </is>
       </c>
       <c r="B115">
-        <v>49.3908</v>
+        <v>49.39</v>
       </c>
       <c r="C115">
-        <v>51.3757</v>
+        <v>51.38</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -4738,10 +4738,10 @@
         </is>
       </c>
       <c r="B116">
-        <v>51.3757</v>
+        <v>51.38</v>
       </c>
       <c r="C116">
-        <v>53.5608</v>
+        <v>53.56</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -4776,10 +4776,10 @@
         </is>
       </c>
       <c r="B117">
-        <v>53.5608</v>
+        <v>53.56</v>
       </c>
       <c r="C117">
-        <v>54.0613</v>
+        <v>54.06</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -4814,10 +4814,10 @@
         </is>
       </c>
       <c r="B118">
-        <v>17.2674</v>
+        <v>17.27</v>
       </c>
       <c r="C118">
-        <v>18.5024</v>
+        <v>18.5</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="B119">
-        <v>18.5024</v>
+        <v>18.5</v>
       </c>
       <c r="C119">
-        <v>19.5608</v>
+        <v>19.56</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4890,10 +4890,10 @@
         </is>
       </c>
       <c r="B120">
-        <v>19.5608</v>
+        <v>19.56</v>
       </c>
       <c r="C120">
-        <v>21.3418</v>
+        <v>21.34</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -4928,10 +4928,10 @@
         </is>
       </c>
       <c r="B121">
-        <v>21.3418</v>
+        <v>21.34</v>
       </c>
       <c r="C121">
-        <v>23.1651</v>
+        <v>23.17</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4966,10 +4966,10 @@
         </is>
       </c>
       <c r="B122">
-        <v>23.1651</v>
+        <v>23.17</v>
       </c>
       <c r="C122">
-        <v>24.0583</v>
+        <v>24.06</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -5004,10 +5004,10 @@
         </is>
       </c>
       <c r="B123">
-        <v>24.0583</v>
+        <v>24.06</v>
       </c>
       <c r="C123">
-        <v>25.2926</v>
+        <v>25.29</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -5042,10 +5042,10 @@
         </is>
       </c>
       <c r="B124">
-        <v>8.283849999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C124">
-        <v>10.3133</v>
+        <v>10.31</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B125">
-        <v>10.3133</v>
+        <v>10.31</v>
       </c>
       <c r="C125">
-        <v>12.6715</v>
+        <v>12.67</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -5118,10 +5118,10 @@
         </is>
       </c>
       <c r="B126">
-        <v>12.6715</v>
+        <v>12.67</v>
       </c>
       <c r="C126">
-        <v>15.2198</v>
+        <v>15.22</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="B127">
-        <v>15.2198</v>
+        <v>15.22</v>
       </c>
       <c r="C127">
-        <v>17.2674</v>
+        <v>17.27</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B128">
-        <v>25.2926</v>
+        <v>25.29</v>
       </c>
       <c r="C128">
-        <v>26.4888</v>
+        <v>26.49</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -5232,10 +5232,10 @@
         </is>
       </c>
       <c r="B129">
-        <v>26.4888</v>
+        <v>26.49</v>
       </c>
       <c r="C129">
-        <v>28.0004</v>
+        <v>28</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,6 +399,4794 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Big Meadow Creek 01</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.66</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Big Meadow Creek</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Summer Rearing,Winter Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Fish Passage Barriers</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chewuch River Doe 01</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>11.85</v>
+      </c>
+      <c r="C3">
+        <v>13.39</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Chewuch River-Doe Creek</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chewuch River Doe 02</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>13.39</v>
+      </c>
+      <c r="C4">
+        <v>14.4</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chewuch River-Doe Creek</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chewuch River Doe 03</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>14.4</v>
+      </c>
+      <c r="C5">
+        <v>14.77</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Chewuch River-Doe Creek</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chewuch River Doe 04</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>14.77</v>
+      </c>
+      <c r="C6">
+        <v>16.19</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Chewuch River-Doe Creek</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Pool Quantity and Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chewuch River Doe 05</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>16.19</v>
+      </c>
+      <c r="C7">
+        <v>18.45</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Chewuch River-Doe Creek</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chewuch River Doe 06</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>18.45</v>
+      </c>
+      <c r="C8">
+        <v>20.34</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Chewuch River-Doe Creek</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chewuch River Doe 07</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>20.34</v>
+      </c>
+      <c r="C9">
+        <v>21.19</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Chewuch River-Doe Creek</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Pool Quantity and Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chewuch River Doe 08</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>21.19</v>
+      </c>
+      <c r="C10">
+        <v>23.32</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Chewuch River-Doe Creek</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Pool Quantity and Quality,Riparian,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chewuch River Doe 09</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>23.32</v>
+      </c>
+      <c r="C11">
+        <v>24.29</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Chewuch River-Doe Creek</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 01</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1.14</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Off-Channel-Side-Channels,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 02</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>1.14</v>
+      </c>
+      <c r="C13">
+        <v>2.34</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Off-Channel-Side-Channels,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 03</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>2.34</v>
+      </c>
+      <c r="C14">
+        <v>4.07</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 04</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>4.07</v>
+      </c>
+      <c r="C15">
+        <v>5.74</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 05</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>5.74</v>
+      </c>
+      <c r="C16">
+        <v>7.06</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fry,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 06</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>7.06</v>
+      </c>
+      <c r="C17">
+        <v>7.44</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 07</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>7.44</v>
+      </c>
+      <c r="C18">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 08</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="C19">
+        <v>9.51</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 09</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>9.51</v>
+      </c>
+      <c r="C20">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 10</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="C21">
+        <v>10.65</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 11</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>10.65</v>
+      </c>
+      <c r="C22">
+        <v>11.85</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chewuch River Thirtymile 01</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>24.29</v>
+      </c>
+      <c r="C23">
+        <v>25.64</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Chewuch River-Thirtymile Creek</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chewuch River Thirtymile 02</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>25.64</v>
+      </c>
+      <c r="C24">
+        <v>27.07</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Chewuch River-Thirtymile Creek</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiwawa River Lower 01</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1.89</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Lower Chiwawa River</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PRCNT Fines and Embeddedness,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,Food-FoodWebResources,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,EnhanceFoodResources,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiwawa River Lower 02</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>1.89</v>
+      </c>
+      <c r="C26">
+        <v>2.92</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Lower Chiwawa River</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiwawa River Lower 03</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>2.92</v>
+      </c>
+      <c r="C27">
+        <v>5.47</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Lower Chiwawa River</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiwawa River Lower 04</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>5.47</v>
+      </c>
+      <c r="C28">
+        <v>7.15</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Lower Chiwawa River</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiwawa River Lower 05</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>7.15</v>
+      </c>
+      <c r="C29">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Lower Chiwawa River</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,Food-FoodWebResources,Pool Quantity and Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,EnhanceFoodResources,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiwawa River Lower 06</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="C30">
+        <v>11.17</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Lower Chiwawa River</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Food-FoodWebResources,Pool Quantity and Quality</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,EnhanceFoodResources,FineSedimentManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiwawa River Lower 07</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>11.17</v>
+      </c>
+      <c r="C31">
+        <v>13.1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Lower Chiwawa River</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Entiat River Lake 01</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>27.02</v>
+      </c>
+      <c r="C32">
+        <v>27.47</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Entiat River-Lake Creek</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Entiat River Lake 02</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>27.47</v>
+      </c>
+      <c r="C33">
+        <v>28.25</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Entiat River-Lake Creek</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Summer Rearing,Adult Migration,Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Entiat River Lake 04</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>28.69</v>
+      </c>
+      <c r="C34">
+        <v>29.3</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Entiat River-Lake Creek</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Summer Rearing,Adult Migration,Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Entiat River Lake 08</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>31.6</v>
+      </c>
+      <c r="C35">
+        <v>32.09</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Entiat River-Lake Creek</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Entiat River Lake 10</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>32.37</v>
+      </c>
+      <c r="C36">
+        <v>33.18</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Entiat River-Lake Creek</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 02</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>0.51</v>
+      </c>
+      <c r="C37">
+        <v>1.3</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,UplandManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 03</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>1.3</v>
+      </c>
+      <c r="C38">
+        <v>3.37</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 04</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>3.37</v>
+      </c>
+      <c r="C39">
+        <v>4.01</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 05</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>4.01</v>
+      </c>
+      <c r="C40">
+        <v>5.79</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,UplandManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 06</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>5.79</v>
+      </c>
+      <c r="C41">
+        <v>6.6</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Entiat River Potato 05</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>16.3</v>
+      </c>
+      <c r="C42">
+        <v>18.7</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Entiat River-Potato Creek</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Cover-Boulders,Cover-Wood,Off-Channel-Side-Channels,Cover-UndercutBanks,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Entiat River Potato 07</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>20.5</v>
+      </c>
+      <c r="C43">
+        <v>21.83</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Entiat River-Potato Creek</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Entiat River Potato 08</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>21.83</v>
+      </c>
+      <c r="C44">
+        <v>22.13</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Entiat River-Potato Creek</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Entiat River Preston 01</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>22.13</v>
+      </c>
+      <c r="C45">
+        <v>23.88</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Entiat River-Preston Creek</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Entiat River Preston 02</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>23.88</v>
+      </c>
+      <c r="C46">
+        <v>24.54</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Entiat River-Preston Creek</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Entiat River Preston 03</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>24.54</v>
+      </c>
+      <c r="C47">
+        <v>25.28</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Entiat River-Preston Creek</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Entiat River Preston 04</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>25.28</v>
+      </c>
+      <c r="C48">
+        <v>26.37</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Entiat River-Preston Creek</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Entiat River Preston 05</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>26.37</v>
+      </c>
+      <c r="C49">
+        <v>27.02</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Entiat River-Lake Creek</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Adult Migration,Spawning and Incubation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing,Cover-Boulders</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Icicle Creek Lower 04</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>3.73</v>
+      </c>
+      <c r="C50">
+        <v>4.51</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Lower Icicle Creek</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Adult Migration,Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Fish Passage Barriers</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mad River Lower 01</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0.83</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Lower Mad River</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Fry,Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mad River Lower 02</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>0.83</v>
+      </c>
+      <c r="C52">
+        <v>1.91</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Lower Mad River</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Fish Passage Barriers</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Methow River Alta Coulee 03</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>2.6</v>
+      </c>
+      <c r="C53">
+        <v>4.94</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Methow River-Alta Coulee</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Methow River Alta Coulee 04</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>4.94</v>
+      </c>
+      <c r="C54">
+        <v>6.69</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Methow River-Alta Coulee</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Methow River Alta Coulee 05</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>6.69</v>
+      </c>
+      <c r="C55">
+        <v>7.84</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Methow River-Alta Coulee</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 01</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>54.5</v>
+      </c>
+      <c r="C56">
+        <v>55.41</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>ChannelModification,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 02</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>55.41</v>
+      </c>
+      <c r="C57">
+        <v>57</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 03</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>59.36</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 05</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>60.55</v>
+      </c>
+      <c r="C59">
+        <v>61.67</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 06</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>61.67</v>
+      </c>
+      <c r="C60">
+        <v>62.3</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 07</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>62.3</v>
+      </c>
+      <c r="C61">
+        <v>63.53</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 08</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>63.53</v>
+      </c>
+      <c r="C62">
+        <v>66.05</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 09</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>66.05</v>
+      </c>
+      <c r="C63">
+        <v>66.83</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 10</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>66.83</v>
+      </c>
+      <c r="C64">
+        <v>67.95</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Methow River Fawn 11</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>67.95</v>
+      </c>
+      <c r="C65">
+        <v>69.95</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Methow River McFarland 02</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>11.47</v>
+      </c>
+      <c r="C66">
+        <v>13.94</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Methow River-McFarland Creek</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Methow River McFarland 05</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>17.75</v>
+      </c>
+      <c r="C67">
+        <v>19.89</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Methow River-McFarland Creek</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Methow River McFarland 06</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>19.89</v>
+      </c>
+      <c r="C68">
+        <v>21.56</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Methow River-McFarland Creek</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Methow River Rattlesnake 01</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>69.95</v>
+      </c>
+      <c r="C69">
+        <v>72.27</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Methow River-Rattlesnake Creek</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Methow River Rattlesnake 02</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>72.27</v>
+      </c>
+      <c r="C70">
+        <v>74.02</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Methow River-Rattlesnake Creek</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Methow River Rattlesnake 03</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>74.02</v>
+      </c>
+      <c r="C71">
+        <v>75.94</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Methow River-Rattlesnake Creek</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Methow River Rattlesnake 04</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>75.94</v>
+      </c>
+      <c r="C72">
+        <v>77.54000000000001</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Methow River-Rattlesnake Creek</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Methow River Rattlesnake 05</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>77.54000000000001</v>
+      </c>
+      <c r="C73">
+        <v>79.3</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Methow River-Rattlesnake Creek</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Pool Quantity and Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Mission Creek 01</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0.75</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Fish Passage Barriers</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Mission Creek 02</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>0.75</v>
+      </c>
+      <c r="C75">
+        <v>1.49</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Fish Passage Barriers</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 02</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>1.13</v>
+      </c>
+      <c r="C76">
+        <v>2.5</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>PRCNT Fines and Embeddedness,Off-Channel-Side-Channels,Temperature-AdultSpawning,Off-Channel-Floodplain,BrookTrout</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement,FloodplainReconnection,BrookTroutManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 05</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>4.99</v>
+      </c>
+      <c r="C77">
+        <v>6.4</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 06</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>6.4</v>
+      </c>
+      <c r="C78">
+        <v>7.51</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 07</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>7.51</v>
+      </c>
+      <c r="C79">
+        <v>8.76</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 08</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>8.76</v>
+      </c>
+      <c r="C80">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Contaminants,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-AdultSpawning,Cover-Wood,Off-Channel-Floodplain,BrookTrout</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>WaterQualityImprovement,ChannelModification,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,ChannelComplexityRestoration,RiparianRestorationandManagement,FloodplainReconnection,BrookTroutManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 09</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="C81">
+        <v>10.36</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature-AdultSpawning,Cover-Boulders,Cover-UndercutBanks,BrookTrout</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement,BrookTroutManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 10</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>10.36</v>
+      </c>
+      <c r="C82">
+        <v>11.2</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-Boulders,Cover-UndercutBanks,BrookTrout</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement,BrookTroutManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 12</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>12.02</v>
+      </c>
+      <c r="C83">
+        <v>12.65</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-UndercutBanks,BrookTrout</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 13</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>12.65</v>
+      </c>
+      <c r="C84">
+        <v>13.62</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-UndercutBanks,BrookTrout</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 14</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>13.62</v>
+      </c>
+      <c r="C85">
+        <v>14.93</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-Boulders,Cover-UndercutBanks,BrookTrout</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 15</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>14.93</v>
+      </c>
+      <c r="C86">
+        <v>15.93</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,BrookTrout</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 01</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0.6800000000000001</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 02</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>0.6800000000000001</v>
+      </c>
+      <c r="C88">
+        <v>1.69</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 03</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>1.69</v>
+      </c>
+      <c r="C89">
+        <v>2.82</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 04</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>2.82</v>
+      </c>
+      <c r="C90">
+        <v>4.38</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 05</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>4.38</v>
+      </c>
+      <c r="C91">
+        <v>4.97</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 06</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>4.97</v>
+      </c>
+      <c r="C92">
+        <v>6.62</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 07</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>6.62</v>
+      </c>
+      <c r="C93">
+        <v>7.71</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Cover-UndercutBanks,Entrainment and Stranding</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,Entrainment/StrandingMitigation</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 08</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>7.71</v>
+      </c>
+      <c r="C94">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 09</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="C95">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Off-Channel-Floodplain,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 10</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="C96">
+        <v>11.93</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 11</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>11.93</v>
+      </c>
+      <c r="C97">
+        <v>13.27</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 01</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>13.27</v>
+      </c>
+      <c r="C98">
+        <v>14.3</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 02</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>14.3</v>
+      </c>
+      <c r="C99">
+        <v>15.86</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 03</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>15.86</v>
+      </c>
+      <c r="C100">
+        <v>16.75</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 04</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>16.75</v>
+      </c>
+      <c r="C101">
+        <v>17.05</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 05</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>17.05</v>
+      </c>
+      <c r="C102">
+        <v>17.88</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 07</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>19.84</v>
+      </c>
+      <c r="C103">
+        <v>20.94</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 08</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>20.94</v>
+      </c>
+      <c r="C104">
+        <v>21.69</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 03</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>38.4</v>
+      </c>
+      <c r="C105">
+        <v>40.56</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Summer Rearing,Fry,Spawning and Incubation,Winter Rearing,Holding and Maturation</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 04</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>40.56</v>
+      </c>
+      <c r="C106">
+        <v>41.7</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Summer Rearing,Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 05</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>41.7</v>
+      </c>
+      <c r="C107">
+        <v>42.92</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 06</t>
+        </is>
+      </c>
+      <c r="B108">
+        <v>42.92</v>
+      </c>
+      <c r="C108">
+        <v>44.62</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 07</t>
+        </is>
+      </c>
+      <c r="B109">
+        <v>44.62</v>
+      </c>
+      <c r="C109">
+        <v>46.09</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,Pool Quantity and Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 08</t>
+        </is>
+      </c>
+      <c r="B110">
+        <v>46.09</v>
+      </c>
+      <c r="C110">
+        <v>47.58</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 09</t>
+        </is>
+      </c>
+      <c r="B111">
+        <v>47.58</v>
+      </c>
+      <c r="C111">
+        <v>48.12</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 10</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>48.12</v>
+      </c>
+      <c r="C112">
+        <v>49.39</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-Boulders,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 11</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>49.39</v>
+      </c>
+      <c r="C113">
+        <v>51.38</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-Boulders,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 12</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>51.38</v>
+      </c>
+      <c r="C114">
+        <v>53.56</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 13</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>53.56</v>
+      </c>
+      <c r="C115">
+        <v>54.06</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Cover-UndercutBanks,Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelModification,RiparianRestorationandManagement,ChannelComplexityRestoration,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 01</t>
+        </is>
+      </c>
+      <c r="B116">
+        <v>17.27</v>
+      </c>
+      <c r="C116">
+        <v>18.5</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 02</t>
+        </is>
+      </c>
+      <c r="B117">
+        <v>18.5</v>
+      </c>
+      <c r="C117">
+        <v>19.56</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 03</t>
+        </is>
+      </c>
+      <c r="B118">
+        <v>19.56</v>
+      </c>
+      <c r="C118">
+        <v>21.34</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 04</t>
+        </is>
+      </c>
+      <c r="B119">
+        <v>21.34</v>
+      </c>
+      <c r="C119">
+        <v>23.17</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Adult Migration,Holding and Maturation,Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 05</t>
+        </is>
+      </c>
+      <c r="B120">
+        <v>23.17</v>
+      </c>
+      <c r="C120">
+        <v>24.06</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate,Cover-Wood,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 06</t>
+        </is>
+      </c>
+      <c r="B121">
+        <v>24.06</v>
+      </c>
+      <c r="C121">
+        <v>25.29</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Wenatchee River Nahahum 07</t>
+        </is>
+      </c>
+      <c r="B122">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="C122">
+        <v>10.31</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 01</t>
+        </is>
+      </c>
+      <c r="B123">
+        <v>10.31</v>
+      </c>
+      <c r="C123">
+        <v>12.67</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 02</t>
+        </is>
+      </c>
+      <c r="B124">
+        <v>12.67</v>
+      </c>
+      <c r="C124">
+        <v>15.22</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 03</t>
+        </is>
+      </c>
+      <c r="B125">
+        <v>15.22</v>
+      </c>
+      <c r="C125">
+        <v>17.27</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 01</t>
+        </is>
+      </c>
+      <c r="B126">
+        <v>25.29</v>
+      </c>
+      <c r="C126">
+        <v>26.49</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 02</t>
+        </is>
+      </c>
+      <c r="B127">
+        <v>26.49</v>
+      </c>
+      <c r="C127">
+        <v>28</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,7 +385,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Life Stages</t>
+          <t>Priority Life Stages</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,12 +466,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -542,12 +542,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -580,12 +580,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Pool Quantity and Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -618,12 +618,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -694,12 +694,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Pool Quantity and Quality,Riparian,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
@@ -770,12 +770,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
@@ -808,12 +808,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Off-Channel-Side-Channels,Cover-UndercutBanks</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Off-Channel-Side-Channels,Cover-UndercutBanks</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -922,12 +922,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -955,17 +955,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fry,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -998,12 +998,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1074,12 +1074,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1112,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1150,12 +1150,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1264,12 +1264,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,Food-FoodWebResources,Temperature-Rearing</t>
+          <t>PRCNT Fines and Embeddedness,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Food-FoodWebResources,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,EnhanceFoodResources,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Enhance Food Resources,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1416,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,Food-FoodWebResources,Pool Quantity and Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Food-FoodWebResources,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,EnhanceFoodResources,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Enhance Food Resources,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1492,12 +1492,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Food-FoodWebResources,Pool Quantity and Quality</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Food-FoodWebResources,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,EnhanceFoodResources,FineSedimentManagement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Enhance Food Resources,Fine Sediment Management</t>
         </is>
       </c>
     </row>
@@ -1530,12 +1530,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
@@ -1568,12 +1568,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1644,12 +1644,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1720,12 +1720,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1758,12 +1758,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,UplandManagement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
       </c>
     </row>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1834,12 +1834,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,UplandManagement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
       </c>
     </row>
@@ -1910,12 +1910,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1948,12 +1948,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cover-Boulders,Cover-Wood,Off-Channel-Side-Channels,Cover-UndercutBanks,Temperature-Rearing</t>
+          <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels,Cover- Undercut Banks,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,BT Natal Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2024,12 +2024,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2062,12 +2062,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2100,12 +2100,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2138,12 +2138,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2214,12 +2214,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing,Cover-Boulders</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Boulders</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2285,17 +2285,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Fry,Spawning and Incubation,Winter Rearing</t>
+          <t>Fry,BT Natal Rearing,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
@@ -2366,12 +2366,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2404,64 +2404,64 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 05</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B55">
-        <v>6.69</v>
+        <v>54.5</v>
       </c>
       <c r="C55">
-        <v>7.84</v>
+        <v>55.41</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B56">
-        <v>54.5</v>
+        <v>55.41</v>
       </c>
       <c r="C56">
-        <v>55.41</v>
+        <v>57</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2475,31 +2475,31 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>ChannelModification,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B57">
-        <v>55.41</v>
+        <v>57</v>
       </c>
       <c r="C57">
-        <v>57</v>
+        <v>59.36</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2513,31 +2513,31 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>60.55</v>
       </c>
       <c r="C58">
-        <v>59.36</v>
+        <v>61.67</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2556,26 +2556,26 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B59">
-        <v>60.55</v>
+        <v>61.67</v>
       </c>
       <c r="C59">
-        <v>61.67</v>
+        <v>62.3</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2594,26 +2594,26 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B60">
-        <v>61.67</v>
+        <v>62.3</v>
       </c>
       <c r="C60">
-        <v>62.3</v>
+        <v>63.53</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2632,26 +2632,26 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B61">
-        <v>62.3</v>
+        <v>63.53</v>
       </c>
       <c r="C61">
-        <v>63.53</v>
+        <v>66.05</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2670,26 +2670,26 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B62">
-        <v>63.53</v>
+        <v>66.05</v>
       </c>
       <c r="C62">
-        <v>66.05</v>
+        <v>66.83</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2703,31 +2703,31 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B63">
-        <v>66.05</v>
+        <v>66.83</v>
       </c>
       <c r="C63">
-        <v>66.83</v>
+        <v>67.95</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2746,26 +2746,26 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B64">
-        <v>66.83</v>
+        <v>67.95</v>
       </c>
       <c r="C64">
-        <v>67.95</v>
+        <v>69.95</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2779,69 +2779,69 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Methow River McFarland 02</t>
         </is>
       </c>
       <c r="B65">
-        <v>67.95</v>
+        <v>11.47</v>
       </c>
       <c r="C65">
-        <v>69.95</v>
+        <v>13.94</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Methow River McFarland 02</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B66">
-        <v>11.47</v>
+        <v>17.75</v>
       </c>
       <c r="C66">
-        <v>13.94</v>
+        <v>19.89</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2855,31 +2855,31 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B67">
-        <v>17.75</v>
+        <v>19.89</v>
       </c>
       <c r="C67">
-        <v>19.89</v>
+        <v>21.56</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2898,64 +2898,64 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B68">
-        <v>19.89</v>
+        <v>69.95</v>
       </c>
       <c r="C68">
-        <v>21.56</v>
+        <v>72.27</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B69">
-        <v>69.95</v>
+        <v>72.27</v>
       </c>
       <c r="C69">
-        <v>72.27</v>
+        <v>74.02</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2974,26 +2974,26 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B70">
-        <v>72.27</v>
+        <v>74.02</v>
       </c>
       <c r="C70">
-        <v>74.02</v>
+        <v>75.94</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3007,31 +3007,31 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B71">
-        <v>74.02</v>
+        <v>75.94</v>
       </c>
       <c r="C71">
-        <v>75.94</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3050,26 +3050,26 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B72">
-        <v>75.94</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="C72">
-        <v>77.54000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3083,69 +3083,69 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Mission Creek 01</t>
         </is>
       </c>
       <c r="B73">
-        <v>77.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>79.3</v>
+        <v>0.75</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Pool Quantity and Quality,Temperature-Rearing</t>
+          <t>Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mission Creek 01</t>
+          <t>Mission Creek 02</t>
         </is>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C74">
-        <v>0.75</v>
+        <v>1.49</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3176,52 +3176,52 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mission Creek 02</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B75">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="C75">
-        <v>1.49</v>
+        <v>2.5</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
+          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Temperature- Adult Spawning,Off-Channel- Floodplain,Brook Trout</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Floodplain Reconnection,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B76">
-        <v>1.13</v>
+        <v>4.99</v>
       </c>
       <c r="C76">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3235,31 +3235,31 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Off-Channel-Side-Channels,Temperature-AdultSpawning,Off-Channel-Floodplain,BrookTrout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement,FloodplainReconnection,BrookTroutManagement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B77">
-        <v>4.99</v>
+        <v>6.4</v>
       </c>
       <c r="C77">
-        <v>6.4</v>
+        <v>7.51</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3278,26 +3278,26 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B78">
-        <v>6.4</v>
+        <v>7.51</v>
       </c>
       <c r="C78">
-        <v>7.51</v>
+        <v>8.76</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3316,26 +3316,26 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B79">
-        <v>7.51</v>
+        <v>8.76</v>
       </c>
       <c r="C79">
-        <v>8.76</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3349,31 +3349,31 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Adult Non-Spawning,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+          <t>Contaminants,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Wood,Off-Channel- Floodplain,Brook Trout,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Water Quality Improvement,Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Riparian Restoration and Management,Floodplain Reconnection,Brook Trout Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B80">
-        <v>8.76</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C80">
-        <v>9.210000000000001</v>
+        <v>10.36</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3387,31 +3387,31 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Contaminants,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-AdultSpawning,Cover-Wood,Off-Channel-Floodplain,BrookTrout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>WaterQualityImprovement,ChannelModification,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,ChannelComplexityRestoration,RiparianRestorationandManagement,FloodplainReconnection,BrookTroutManagement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B81">
-        <v>9.210000000000001</v>
+        <v>10.36</v>
       </c>
       <c r="C81">
-        <v>10.36</v>
+        <v>11.2</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3430,26 +3430,26 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature-AdultSpawning,Cover-Boulders,Cover-UndercutBanks,BrookTrout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B82">
-        <v>10.36</v>
+        <v>12.02</v>
       </c>
       <c r="C82">
-        <v>11.2</v>
+        <v>12.65</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3463,31 +3463,31 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-Boulders,Cover-UndercutBanks,BrookTrout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B83">
-        <v>12.02</v>
+        <v>12.65</v>
       </c>
       <c r="C83">
-        <v>12.65</v>
+        <v>13.62</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3506,26 +3506,26 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-UndercutBanks,BrookTrout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B84">
-        <v>12.65</v>
+        <v>13.62</v>
       </c>
       <c r="C84">
-        <v>13.62</v>
+        <v>14.93</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3544,26 +3544,26 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-UndercutBanks,BrookTrout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B85">
-        <v>13.62</v>
+        <v>14.93</v>
       </c>
       <c r="C85">
-        <v>14.93</v>
+        <v>15.93</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3577,35 +3577,35 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-Boulders,Cover-UndercutBanks,BrookTrout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B86">
-        <v>14.93</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>15.93</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3615,31 +3615,31 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,BrookTrout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="C87">
-        <v>0.6800000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3658,26 +3658,26 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B88">
-        <v>0.6800000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="C88">
-        <v>1.69</v>
+        <v>2.82</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3696,26 +3696,26 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B89">
-        <v>1.69</v>
+        <v>2.82</v>
       </c>
       <c r="C89">
-        <v>2.82</v>
+        <v>4.38</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3734,26 +3734,26 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B90">
-        <v>2.82</v>
+        <v>4.38</v>
       </c>
       <c r="C90">
-        <v>4.38</v>
+        <v>4.97</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3767,31 +3767,31 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B91">
-        <v>4.38</v>
+        <v>4.97</v>
       </c>
       <c r="C91">
-        <v>4.97</v>
+        <v>6.62</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3810,26 +3810,26 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B92">
-        <v>4.97</v>
+        <v>6.62</v>
       </c>
       <c r="C92">
-        <v>6.62</v>
+        <v>7.71</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3848,26 +3848,26 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Cover-UndercutBanks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks,Entrainment and Stranding</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Entrainment and Stranding Mitigation</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B93">
-        <v>6.62</v>
+        <v>7.71</v>
       </c>
       <c r="C93">
-        <v>7.71</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3886,26 +3886,26 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Cover-UndercutBanks,Entrainment and Stranding</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,Entrainment/StrandingMitigation</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B94">
-        <v>7.71</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C94">
-        <v>9.039999999999999</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3919,31 +3919,31 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Floodplain,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B95">
-        <v>9.039999999999999</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C95">
-        <v>9.619999999999999</v>
+        <v>11.93</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3962,26 +3962,26 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Off-Channel-Floodplain,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B96">
-        <v>9.619999999999999</v>
+        <v>11.93</v>
       </c>
       <c r="C96">
-        <v>11.93</v>
+        <v>13.27</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -4000,30 +4000,30 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B97">
-        <v>11.93</v>
+        <v>13.27</v>
       </c>
       <c r="C97">
-        <v>13.27</v>
+        <v>14.3</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Cover-UndercutBanks</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B98">
-        <v>13.27</v>
+        <v>14.3</v>
       </c>
       <c r="C98">
-        <v>14.3</v>
+        <v>15.86</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -4071,31 +4071,31 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B99">
-        <v>14.3</v>
+        <v>15.86</v>
       </c>
       <c r="C99">
-        <v>15.86</v>
+        <v>16.75</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -4109,31 +4109,31 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing,Fry</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian,Temperature-Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B100">
-        <v>15.86</v>
+        <v>16.75</v>
       </c>
       <c r="C100">
-        <v>16.75</v>
+        <v>17.05</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4152,26 +4152,26 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B101">
-        <v>16.75</v>
+        <v>17.05</v>
       </c>
       <c r="C101">
-        <v>17.05</v>
+        <v>17.88</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4190,26 +4190,26 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B102">
-        <v>17.05</v>
+        <v>19.84</v>
       </c>
       <c r="C102">
-        <v>17.88</v>
+        <v>20.94</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -4228,26 +4228,26 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B103">
-        <v>19.84</v>
+        <v>20.94</v>
       </c>
       <c r="C103">
-        <v>20.94</v>
+        <v>21.69</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -4261,35 +4261,35 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B104">
-        <v>20.94</v>
+        <v>38.4</v>
       </c>
       <c r="C104">
-        <v>21.69</v>
+        <v>40.56</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4299,31 +4299,31 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Summer Rearing,Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B105">
-        <v>38.4</v>
+        <v>40.56</v>
       </c>
       <c r="C105">
-        <v>40.56</v>
+        <v>41.7</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -4337,31 +4337,31 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Summer Rearing,Fry,Spawning and Incubation,Winter Rearing,Holding and Maturation</t>
+          <t>Summer Rearing,Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B106">
-        <v>40.56</v>
+        <v>41.7</v>
       </c>
       <c r="C106">
-        <v>41.7</v>
+        <v>42.92</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -4375,31 +4375,31 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Summer Rearing,Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B107">
-        <v>41.7</v>
+        <v>42.92</v>
       </c>
       <c r="C107">
-        <v>42.92</v>
+        <v>44.62</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -4413,31 +4413,31 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B108">
-        <v>42.92</v>
+        <v>44.62</v>
       </c>
       <c r="C108">
-        <v>44.62</v>
+        <v>46.09</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -4451,31 +4451,31 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B109">
-        <v>44.62</v>
+        <v>46.09</v>
       </c>
       <c r="C109">
-        <v>46.09</v>
+        <v>47.58</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -4489,31 +4489,31 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,Pool Quantity and Quality,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B110">
-        <v>46.09</v>
+        <v>47.58</v>
       </c>
       <c r="C110">
-        <v>47.58</v>
+        <v>48.12</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -4532,26 +4532,26 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B111">
-        <v>47.58</v>
+        <v>48.12</v>
       </c>
       <c r="C111">
-        <v>48.12</v>
+        <v>49.39</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -4565,31 +4565,31 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B112">
-        <v>48.12</v>
+        <v>49.39</v>
       </c>
       <c r="C112">
-        <v>49.39</v>
+        <v>51.38</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -4608,26 +4608,26 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B113">
-        <v>49.39</v>
+        <v>51.38</v>
       </c>
       <c r="C113">
-        <v>51.38</v>
+        <v>53.56</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -4641,31 +4641,31 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing,PRCNT Fines and Embeddedness,Temperature-AdultSpawning,Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 13</t>
         </is>
       </c>
       <c r="B114">
-        <v>51.38</v>
+        <v>53.56</v>
       </c>
       <c r="C114">
-        <v>53.56</v>
+        <v>54.06</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -4679,69 +4679,69 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 13</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B115">
-        <v>53.56</v>
+        <v>17.27</v>
       </c>
       <c r="C115">
-        <v>54.06</v>
+        <v>18.5</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Cover-UndercutBanks,Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelModification,RiparianRestorationandManagement,ChannelComplexityRestoration,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B116">
-        <v>17.27</v>
+        <v>18.5</v>
       </c>
       <c r="C116">
-        <v>18.5</v>
+        <v>19.56</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -4755,31 +4755,31 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B117">
-        <v>18.5</v>
+        <v>19.56</v>
       </c>
       <c r="C117">
-        <v>19.56</v>
+        <v>21.34</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -4793,31 +4793,31 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B118">
-        <v>19.56</v>
+        <v>21.34</v>
       </c>
       <c r="C118">
-        <v>21.34</v>
+        <v>23.17</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -4836,26 +4836,26 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B119">
-        <v>21.34</v>
+        <v>23.17</v>
       </c>
       <c r="C119">
-        <v>23.17</v>
+        <v>24.06</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4869,35 +4869,35 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Adult Migration,Holding and Maturation,Spawning and Incubation</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B120">
-        <v>23.17</v>
+        <v>24.06</v>
       </c>
       <c r="C120">
-        <v>24.06</v>
+        <v>25.29</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4907,35 +4907,35 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Pool Quantity and Quality,Riparian,Temperature-Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B121">
-        <v>24.06</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C121">
-        <v>25.29</v>
+        <v>10.31</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4950,26 +4950,26 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B122">
-        <v>8.279999999999999</v>
+        <v>10.31</v>
       </c>
       <c r="C122">
-        <v>10.31</v>
+        <v>12.67</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -4988,26 +4988,26 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B123">
-        <v>10.31</v>
+        <v>12.67</v>
       </c>
       <c r="C123">
-        <v>12.67</v>
+        <v>15.22</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -5026,26 +5026,26 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B124">
-        <v>12.67</v>
+        <v>15.22</v>
       </c>
       <c r="C124">
-        <v>15.22</v>
+        <v>17.27</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -5064,30 +5064,30 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B125">
-        <v>15.22</v>
+        <v>25.29</v>
       </c>
       <c r="C125">
-        <v>17.27</v>
+        <v>26.49</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5097,31 +5097,31 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Holding and Maturation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 01</t>
+          <t>Wenatchee River Tumwater 02</t>
         </is>
       </c>
       <c r="B126">
-        <v>25.29</v>
+        <v>26.49</v>
       </c>
       <c r="C126">
-        <v>26.49</v>
+        <v>28</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -5135,55 +5135,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Fry,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 02</t>
-        </is>
-      </c>
-      <c r="B127">
-        <v>26.49</v>
-      </c>
-      <c r="C127">
-        <v>28</v>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Pool Quantity and Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,17 +727,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Holding and Maturation,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Fry,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,BT Natal Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Fry,Summer Rearing,BT Subadult Rearing,Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Fry,BT Natal Rearing,Spawning and Incubation,Winter Rearing</t>
+          <t>BT Subadult Rearing,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Fry,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2796,14 +2796,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Methow River McFarland 02</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B65">
-        <v>11.47</v>
+        <v>17.75</v>
       </c>
       <c r="C65">
-        <v>13.94</v>
+        <v>19.89</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2817,31 +2817,31 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B66">
-        <v>17.75</v>
+        <v>19.89</v>
       </c>
       <c r="C66">
-        <v>19.89</v>
+        <v>21.56</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2872,52 +2872,52 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B67">
-        <v>19.89</v>
+        <v>69.95</v>
       </c>
       <c r="C67">
-        <v>21.56</v>
+        <v>72.27</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B68">
-        <v>69.95</v>
+        <v>72.27</v>
       </c>
       <c r="C68">
-        <v>72.27</v>
+        <v>74.02</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -2948,14 +2948,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B69">
-        <v>72.27</v>
+        <v>74.02</v>
       </c>
       <c r="C69">
-        <v>74.02</v>
+        <v>75.94</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2969,31 +2969,31 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B70">
-        <v>74.02</v>
+        <v>75.94</v>
       </c>
       <c r="C70">
-        <v>75.94</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3012,26 +3012,26 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B71">
-        <v>75.94</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="C71">
-        <v>77.54000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3045,69 +3045,69 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Mission Creek 01</t>
         </is>
       </c>
       <c r="B72">
-        <v>77.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>79.3</v>
+        <v>0.75</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Cover- Wood,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Mission Creek 01</t>
+          <t>Mission Creek 02</t>
         </is>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C73">
-        <v>0.75</v>
+        <v>1.49</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3138,52 +3138,52 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mission Creek 02</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B74">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="C74">
-        <v>1.49</v>
+        <v>2.5</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
+          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Temperature- Adult Spawning,Off-Channel- Floodplain,Brook Trout</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Floodplain Reconnection,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B75">
-        <v>1.13</v>
+        <v>4.99</v>
       </c>
       <c r="C75">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3197,31 +3197,31 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Temperature- Adult Spawning,Off-Channel- Floodplain,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Floodplain Reconnection,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B76">
-        <v>4.99</v>
+        <v>6.4</v>
       </c>
       <c r="C76">
-        <v>6.4</v>
+        <v>7.51</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3252,14 +3252,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B77">
-        <v>6.4</v>
+        <v>7.51</v>
       </c>
       <c r="C77">
-        <v>7.51</v>
+        <v>8.76</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3290,14 +3290,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B78">
-        <v>7.51</v>
+        <v>8.76</v>
       </c>
       <c r="C78">
-        <v>8.76</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3311,31 +3311,31 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Contaminants,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Wood,Off-Channel- Floodplain,Brook Trout</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Water Quality Improvement,Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Riparian Restoration and Management,Floodplain Reconnection,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B79">
-        <v>8.76</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C79">
-        <v>9.210000000000001</v>
+        <v>10.36</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3349,31 +3349,31 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Adult Non-Spawning,Holding and Maturation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Contaminants,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Wood,Off-Channel- Floodplain,Brook Trout,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Water Quality Improvement,Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Riparian Restoration and Management,Floodplain Reconnection,Brook Trout Management,Fine Sediment Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B80">
-        <v>9.210000000000001</v>
+        <v>10.36</v>
       </c>
       <c r="C80">
-        <v>10.36</v>
+        <v>11.2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3404,14 +3404,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B81">
-        <v>10.36</v>
+        <v>12.02</v>
       </c>
       <c r="C81">
-        <v>11.2</v>
+        <v>12.65</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3425,31 +3425,31 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Fry,BT Natal Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B82">
-        <v>12.02</v>
+        <v>12.65</v>
       </c>
       <c r="C82">
-        <v>12.65</v>
+        <v>13.62</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3463,12 +3463,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3480,14 +3480,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B83">
-        <v>12.65</v>
+        <v>13.62</v>
       </c>
       <c r="C83">
-        <v>13.62</v>
+        <v>14.93</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3518,14 +3518,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B84">
-        <v>13.62</v>
+        <v>14.93</v>
       </c>
       <c r="C84">
-        <v>14.93</v>
+        <v>15.93</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3539,12 +3539,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3556,18 +3556,18 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B85">
-        <v>14.93</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>15.93</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3577,31 +3577,31 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="C86">
-        <v>0.6800000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3632,14 +3632,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B87">
-        <v>0.6800000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="C87">
-        <v>1.69</v>
+        <v>2.82</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3670,14 +3670,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B88">
-        <v>1.69</v>
+        <v>2.82</v>
       </c>
       <c r="C88">
-        <v>2.82</v>
+        <v>4.38</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3691,12 +3691,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3708,14 +3708,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B89">
-        <v>2.82</v>
+        <v>4.38</v>
       </c>
       <c r="C89">
-        <v>4.38</v>
+        <v>4.97</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3746,14 +3746,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B90">
-        <v>4.38</v>
+        <v>4.97</v>
       </c>
       <c r="C90">
-        <v>4.97</v>
+        <v>6.62</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3772,26 +3772,26 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B91">
-        <v>4.97</v>
+        <v>6.62</v>
       </c>
       <c r="C91">
-        <v>6.62</v>
+        <v>7.71</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3810,26 +3810,26 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks,Entrainment and Stranding</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Entrainment and Stranding Mitigation</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B92">
-        <v>6.62</v>
+        <v>7.71</v>
       </c>
       <c r="C92">
-        <v>7.71</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3848,26 +3848,26 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks,Entrainment and Stranding</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Entrainment and Stranding Mitigation</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B93">
-        <v>7.71</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C93">
-        <v>9.039999999999999</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3881,31 +3881,31 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Floodplain,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B94">
-        <v>9.039999999999999</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C94">
-        <v>9.619999999999999</v>
+        <v>11.93</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3924,26 +3924,26 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Floodplain,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B95">
-        <v>9.619999999999999</v>
+        <v>11.93</v>
       </c>
       <c r="C95">
-        <v>11.93</v>
+        <v>13.27</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3962,30 +3962,30 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B96">
-        <v>11.93</v>
+        <v>13.27</v>
       </c>
       <c r="C96">
-        <v>13.27</v>
+        <v>14.3</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3995,31 +3995,31 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B97">
-        <v>13.27</v>
+        <v>14.3</v>
       </c>
       <c r="C97">
-        <v>14.3</v>
+        <v>15.86</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -4033,31 +4033,31 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B98">
-        <v>14.3</v>
+        <v>15.86</v>
       </c>
       <c r="C98">
-        <v>15.86</v>
+        <v>16.75</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -4071,31 +4071,31 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing,Fry</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B99">
-        <v>15.86</v>
+        <v>16.75</v>
       </c>
       <c r="C99">
-        <v>16.75</v>
+        <v>17.05</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -4126,14 +4126,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B100">
-        <v>16.75</v>
+        <v>17.05</v>
       </c>
       <c r="C100">
-        <v>17.05</v>
+        <v>17.88</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4164,14 +4164,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B101">
-        <v>17.05</v>
+        <v>19.84</v>
       </c>
       <c r="C101">
-        <v>17.88</v>
+        <v>20.94</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4185,31 +4185,31 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B102">
-        <v>19.84</v>
+        <v>20.94</v>
       </c>
       <c r="C102">
-        <v>20.94</v>
+        <v>21.69</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -4240,18 +4240,18 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B103">
-        <v>20.94</v>
+        <v>38.4</v>
       </c>
       <c r="C103">
-        <v>21.69</v>
+        <v>40.56</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4261,31 +4261,31 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B104">
-        <v>38.4</v>
+        <v>40.56</v>
       </c>
       <c r="C104">
-        <v>40.56</v>
+        <v>41.7</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -4316,14 +4316,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B105">
-        <v>40.56</v>
+        <v>41.7</v>
       </c>
       <c r="C105">
-        <v>41.7</v>
+        <v>42.92</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -4337,31 +4337,31 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Summer Rearing,Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B106">
-        <v>41.7</v>
+        <v>42.92</v>
       </c>
       <c r="C106">
-        <v>42.92</v>
+        <v>44.62</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -4375,31 +4375,31 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B107">
-        <v>42.92</v>
+        <v>44.62</v>
       </c>
       <c r="C107">
-        <v>44.62</v>
+        <v>46.09</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -4413,31 +4413,31 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B108">
-        <v>44.62</v>
+        <v>46.09</v>
       </c>
       <c r="C108">
-        <v>46.09</v>
+        <v>47.58</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -4451,31 +4451,31 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B109">
-        <v>46.09</v>
+        <v>47.58</v>
       </c>
       <c r="C109">
-        <v>47.58</v>
+        <v>48.12</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -4494,26 +4494,26 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B110">
-        <v>47.58</v>
+        <v>48.12</v>
       </c>
       <c r="C110">
-        <v>48.12</v>
+        <v>49.39</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -4527,31 +4527,31 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B111">
-        <v>48.12</v>
+        <v>49.39</v>
       </c>
       <c r="C111">
-        <v>49.39</v>
+        <v>51.38</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -4570,26 +4570,26 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B112">
-        <v>49.39</v>
+        <v>51.38</v>
       </c>
       <c r="C112">
-        <v>51.38</v>
+        <v>53.56</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -4603,31 +4603,31 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 13</t>
         </is>
       </c>
       <c r="B113">
-        <v>51.38</v>
+        <v>53.56</v>
       </c>
       <c r="C113">
-        <v>53.56</v>
+        <v>54.06</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -4641,69 +4641,69 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 13</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B114">
-        <v>53.56</v>
+        <v>17.27</v>
       </c>
       <c r="C114">
-        <v>54.06</v>
+        <v>18.5</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B115">
-        <v>17.27</v>
+        <v>18.5</v>
       </c>
       <c r="C115">
-        <v>18.5</v>
+        <v>19.56</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -4717,31 +4717,31 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B116">
-        <v>18.5</v>
+        <v>19.56</v>
       </c>
       <c r="C116">
-        <v>19.56</v>
+        <v>21.34</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -4755,31 +4755,31 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B117">
-        <v>19.56</v>
+        <v>21.34</v>
       </c>
       <c r="C117">
-        <v>21.34</v>
+        <v>23.17</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -4798,26 +4798,26 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B118">
-        <v>21.34</v>
+        <v>23.17</v>
       </c>
       <c r="C118">
-        <v>23.17</v>
+        <v>24.06</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -4831,35 +4831,35 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B119">
-        <v>23.17</v>
+        <v>24.06</v>
       </c>
       <c r="C119">
-        <v>24.06</v>
+        <v>25.29</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4869,35 +4869,35 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B120">
-        <v>24.06</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C120">
-        <v>25.29</v>
+        <v>10.31</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4912,26 +4912,26 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B121">
-        <v>8.279999999999999</v>
+        <v>10.31</v>
       </c>
       <c r="C121">
-        <v>10.31</v>
+        <v>12.67</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4962,14 +4962,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B122">
-        <v>10.31</v>
+        <v>12.67</v>
       </c>
       <c r="C122">
-        <v>12.67</v>
+        <v>15.22</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -5000,14 +5000,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B123">
-        <v>12.67</v>
+        <v>15.22</v>
       </c>
       <c r="C123">
-        <v>15.22</v>
+        <v>17.27</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -5038,18 +5038,18 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B124">
-        <v>15.22</v>
+        <v>25.29</v>
       </c>
       <c r="C124">
-        <v>17.27</v>
+        <v>26.49</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5059,31 +5059,31 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Holding and Maturation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 01</t>
+          <t>Wenatchee River Tumwater 02</t>
         </is>
       </c>
       <c r="B125">
-        <v>25.29</v>
+        <v>26.49</v>
       </c>
       <c r="C125">
-        <v>26.49</v>
+        <v>28</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -5097,53 +5097,15 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Fry,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
-        <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 02</t>
-        </is>
-      </c>
-      <c r="B126">
-        <v>26.49</v>
-      </c>
-      <c r="C126">
-        <v>28</v>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,15 +385,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Priority Life Stages</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Limiting Factor</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Action Categories</t>
         </is>
@@ -423,15 +428,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Summer Rearing,Winter Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Fish Passage Barriers</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Fish Passage Restoration</t>
         </is>
@@ -461,15 +471,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
@@ -499,15 +514,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
@@ -537,15 +557,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
@@ -575,15 +600,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -613,15 +643,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -651,15 +686,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -689,15 +729,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
@@ -727,15 +772,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Holding and Maturation,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -765,15 +815,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
@@ -803,15 +858,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -841,15 +901,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -879,15 +944,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
@@ -917,15 +987,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
@@ -955,15 +1030,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -993,15 +1073,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -1031,15 +1116,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
@@ -1069,15 +1159,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
@@ -1107,15 +1202,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
@@ -1145,15 +1245,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
@@ -1183,15 +1288,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
@@ -1221,15 +1331,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
@@ -1259,15 +1374,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
@@ -1297,15 +1417,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>PRCNT Fines and Embeddedness,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Food-FoodWebResources,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Enhance Food Resources,Water Quality Improvement</t>
         </is>
@@ -1335,15 +1460,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
@@ -1373,15 +1503,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
@@ -1411,15 +1546,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
@@ -1449,15 +1589,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Food-FoodWebResources,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Enhance Food Resources,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -1487,15 +1632,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Food-FoodWebResources,Pool Quantity and Quality</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Enhance Food Resources,Fine Sediment Management</t>
         </is>
@@ -1525,15 +1675,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
@@ -1563,15 +1718,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -1601,15 +1761,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Summer Rearing,Adult Migration,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
@@ -1639,15 +1804,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Summer Rearing,Adult Migration,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -1677,15 +1847,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -1715,15 +1890,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Fry,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -1753,15 +1933,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
@@ -1791,15 +1976,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -1829,15 +2019,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -1867,15 +2062,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
@@ -1905,15 +2105,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
@@ -1943,15 +2148,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels,Cover- Undercut Banks,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
@@ -1981,15 +2191,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Winter Rearing,Fry,Summer Rearing,BT Subadult Rearing,Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
@@ -2019,15 +2234,20 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
@@ -2057,15 +2277,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -2095,15 +2320,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
@@ -2133,15 +2363,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
@@ -2171,15 +2406,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
@@ -2209,15 +2449,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Winter Rearing,Adult Migration,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Boulders</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -2247,15 +2492,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Adult Migration,Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Fish Passage Barriers</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Fish Passage Restoration</t>
         </is>
@@ -2285,15 +2535,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>BT Subadult Rearing,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
@@ -2323,15 +2578,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Adult Migration,Fry</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Fish Passage Barriers</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>Fish Passage Restoration</t>
         </is>
@@ -2361,15 +2621,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -2399,15 +2664,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -2437,15 +2707,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -2475,15 +2750,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -2513,15 +2793,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Fry,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
@@ -2551,15 +2836,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
@@ -2589,15 +2879,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -2627,15 +2922,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -2665,15 +2965,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -2703,15 +3008,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -2741,15 +3051,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -2779,15 +3094,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -2817,15 +3137,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
@@ -2855,15 +3180,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
@@ -2893,15 +3223,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
@@ -2931,15 +3266,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
@@ -2969,15 +3309,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -3007,15 +3352,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -3045,15 +3395,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Cover- Wood,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -3083,15 +3438,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Fish Passage Barriers</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>Fish Passage Restoration</t>
         </is>
@@ -3121,15 +3481,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Fish Passage Barriers</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>Fish Passage Restoration</t>
         </is>
@@ -3159,15 +3524,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Temperature- Adult Spawning,Off-Channel- Floodplain,Brook Trout</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Floodplain Reconnection,Brook Trout Management</t>
         </is>
@@ -3197,15 +3567,20 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -3235,15 +3610,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -3273,15 +3653,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -3311,15 +3696,20 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Contaminants,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Wood,Off-Channel- Floodplain,Brook Trout</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>Water Quality Improvement,Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Riparian Restoration and Management,Floodplain Reconnection,Brook Trout Management</t>
         </is>
@@ -3349,15 +3739,20 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
@@ -3387,15 +3782,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
@@ -3425,15 +3825,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Fry,BT Natal Rearing,Adult Migration</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
@@ -3463,15 +3868,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
@@ -3501,15 +3911,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
@@ -3539,15 +3954,20 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
@@ -3577,15 +3997,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -3615,15 +4040,20 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -3653,15 +4083,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -3691,15 +4126,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -3729,15 +4169,20 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -3767,15 +4212,20 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -3805,15 +4255,20 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks,Entrainment and Stranding</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Entrainment and Stranding Mitigation</t>
         </is>
@@ -3843,15 +4298,20 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -3881,15 +4341,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Floodplain,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -3919,15 +4384,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -3957,15 +4427,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -3995,15 +4470,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
@@ -4033,15 +4513,20 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
@@ -4071,15 +4556,20 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4109,15 +4599,20 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4147,15 +4642,20 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4185,15 +4685,20 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -4223,15 +4728,20 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -4261,15 +4771,20 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
           <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Winter Rearing,Fry</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4299,15 +4814,20 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
           <t>Summer Rearing,Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4337,15 +4857,20 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4375,15 +4900,20 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4413,15 +4943,20 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -4451,15 +4986,20 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4489,15 +5029,20 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4527,15 +5072,20 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4565,15 +5115,20 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
           <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
@@ -4603,15 +5158,20 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
           <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4641,15 +5201,20 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
           <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
@@ -4679,15 +5244,20 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
           <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
@@ -4717,15 +5287,20 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4755,15 +5330,20 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
@@ -4793,15 +5373,20 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
           <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -4831,15 +5416,20 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
@@ -4869,15 +5459,20 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4907,15 +5502,20 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4945,15 +5545,20 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -4983,15 +5588,20 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -5021,15 +5631,20 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
           <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -5059,15 +5674,20 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
           <t>Holding and Maturation,Fry,Winter Rearing</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
@@ -5097,15 +5717,20 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
           <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>Stability,Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Restore Reach Function</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,17 +385,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Priority Life Stages</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Priority Life Stages</t>
+          <t>Limiting Factor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Limiting Factor</t>
+          <t>Action Pathways</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -428,17 +428,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Summer Rearing,Winter Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Fish Passage Barriers</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Summer Rearing,Winter Rearing,Adult Migration,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Fish Passage Barriers</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -471,17 +471,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -514,17 +514,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -557,17 +557,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -600,17 +600,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -708,14 +708,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 07</t>
+          <t>Chewuch River Doe 08</t>
         </is>
       </c>
       <c r="B9">
-        <v>20.34</v>
+        <v>21.19</v>
       </c>
       <c r="C9">
-        <v>21.19</v>
+        <v>23.32</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -724,45 +724,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Holding and Maturation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 08</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B10">
-        <v>21.19</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>23.32</v>
+        <v>1.14</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -772,40 +772,40 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 09</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B11">
-        <v>23.32</v>
+        <v>1.14</v>
       </c>
       <c r="C11">
-        <v>24.29</v>
+        <v>2.34</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -815,36 +815,36 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="C12">
-        <v>1.14</v>
+        <v>4.07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -858,36 +858,36 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Chewuch River Pearrygin 04</t>
         </is>
       </c>
       <c r="B13">
-        <v>1.14</v>
+        <v>4.07</v>
       </c>
       <c r="C13">
-        <v>2.34</v>
+        <v>5.74</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -901,36 +901,36 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Cover- Undercut Banks</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Chewuch River Pearrygin 05</t>
         </is>
       </c>
       <c r="B14">
-        <v>2.34</v>
+        <v>5.74</v>
       </c>
       <c r="C14">
-        <v>4.07</v>
+        <v>7.06</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -944,36 +944,36 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Fry,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 04</t>
+          <t>Chewuch River Pearrygin 06</t>
         </is>
       </c>
       <c r="B15">
-        <v>4.07</v>
+        <v>7.06</v>
       </c>
       <c r="C15">
-        <v>5.74</v>
+        <v>7.44</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -987,36 +987,36 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 05</t>
+          <t>Chewuch River Pearrygin 07</t>
         </is>
       </c>
       <c r="B16">
-        <v>5.74</v>
+        <v>7.44</v>
       </c>
       <c r="C16">
-        <v>7.06</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1030,36 +1030,36 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 06</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B17">
-        <v>7.06</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C17">
-        <v>7.44</v>
+        <v>9.51</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1073,36 +1073,36 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 07</t>
+          <t>Chewuch River Pearrygin 09</t>
         </is>
       </c>
       <c r="B18">
-        <v>7.44</v>
+        <v>9.51</v>
       </c>
       <c r="C18">
-        <v>8.640000000000001</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1138,14 +1138,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Pearrygin 10</t>
         </is>
       </c>
       <c r="B19">
-        <v>8.640000000000001</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="C19">
-        <v>9.51</v>
+        <v>10.65</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1159,36 +1159,36 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 09</t>
+          <t>Chewuch River Pearrygin 11</t>
         </is>
       </c>
       <c r="B20">
-        <v>9.51</v>
+        <v>10.65</v>
       </c>
       <c r="C20">
-        <v>9.970000000000001</v>
+        <v>11.85</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1202,17 +1202,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1224,18 +1224,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 10</t>
+          <t>Chewuch River Thirtymile 01</t>
         </is>
       </c>
       <c r="B21">
-        <v>9.970000000000001</v>
+        <v>24.29</v>
       </c>
       <c r="C21">
-        <v>10.65</v>
+        <v>25.64</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1245,40 +1245,40 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 11</t>
+          <t>Chewuch River Thirtymile 02</t>
         </is>
       </c>
       <c r="B22">
-        <v>10.65</v>
+        <v>25.64</v>
       </c>
       <c r="C22">
-        <v>11.85</v>
+        <v>27.07</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1288,122 +1288,122 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 01</t>
+          <t>Chiwawa River Lower 01</t>
         </is>
       </c>
       <c r="B23">
-        <v>24.29</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>25.64</v>
+        <v>1.89</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>PRCNT Fines and Embeddedness,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Food-FoodWebResources,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Enhance Food Resources,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 02</t>
+          <t>Chiwawa River Lower 02</t>
         </is>
       </c>
       <c r="B24">
-        <v>25.64</v>
+        <v>1.89</v>
       </c>
       <c r="C24">
-        <v>27.07</v>
+        <v>2.92</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 01</t>
+          <t>Chiwawa River Lower 03</t>
         </is>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="C25">
-        <v>1.89</v>
+        <v>5.47</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1417,36 +1417,36 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PRCNT Fines and Embeddedness,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Food-FoodWebResources,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Enhance Food Resources,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 02</t>
+          <t>Chiwawa River Lower 04</t>
         </is>
       </c>
       <c r="B26">
-        <v>1.89</v>
+        <v>5.47</v>
       </c>
       <c r="C26">
-        <v>2.92</v>
+        <v>7.15</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1460,17 +1460,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1482,14 +1482,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 03</t>
+          <t>Chiwawa River Lower 05</t>
         </is>
       </c>
       <c r="B27">
-        <v>2.92</v>
+        <v>7.15</v>
       </c>
       <c r="C27">
-        <v>5.47</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1503,36 +1503,36 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Food-FoodWebResources,Pool Quantity and Quality,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
-        </is>
-      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Enhance Food Resources,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 04</t>
+          <t>Chiwawa River Lower 06</t>
         </is>
       </c>
       <c r="B28">
-        <v>5.47</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C28">
-        <v>7.15</v>
+        <v>11.17</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1546,36 +1546,36 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Food-FoodWebResources,Pool Quantity and Quality</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
-        </is>
-      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Enhance Food Resources,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 05</t>
+          <t>Chiwawa River Lower 07</t>
         </is>
       </c>
       <c r="B29">
-        <v>7.15</v>
+        <v>11.17</v>
       </c>
       <c r="C29">
-        <v>9.539999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Food-FoodWebResources,Pool Quantity and Quality,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Enhance Food Resources,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 06</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B30">
-        <v>9.539999999999999</v>
+        <v>27.02</v>
       </c>
       <c r="C30">
-        <v>11.17</v>
+        <v>27.47</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1632,40 +1632,40 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Food-FoodWebResources,Pool Quantity and Quality</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Enhance Food Resources,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B31">
-        <v>11.17</v>
+        <v>27.47</v>
       </c>
       <c r="C31">
-        <v>13.1</v>
+        <v>28.25</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1675,36 +1675,36 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Summer Rearing,Adult Migration,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B32">
-        <v>27.02</v>
+        <v>28.69</v>
       </c>
       <c r="C32">
-        <v>27.47</v>
+        <v>29.3</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1718,36 +1718,36 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Summer Rearing,Holding and Maturation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B33">
-        <v>27.47</v>
+        <v>31.09</v>
       </c>
       <c r="C33">
-        <v>28.25</v>
+        <v>31.6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1761,36 +1761,36 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Summer Rearing,Adult Migration,Spawning and Incubation,Winter Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B34">
-        <v>28.69</v>
+        <v>31.6</v>
       </c>
       <c r="C34">
-        <v>29.3</v>
+        <v>32.09</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1804,36 +1804,36 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Summer Rearing,Adult Migration,Spawning and Incubation,Winter Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B35">
-        <v>31.6</v>
+        <v>32.37</v>
       </c>
       <c r="C35">
-        <v>32.09</v>
+        <v>33.18</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1847,17 +1847,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Fry,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1869,57 +1869,57 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B36">
-        <v>32.37</v>
+        <v>0.51</v>
       </c>
       <c r="C36">
-        <v>33.18</v>
+        <v>1.3</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Fry,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.51</v>
+        <v>1.3</v>
       </c>
       <c r="C37">
-        <v>1.3</v>
+        <v>3.37</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1933,36 +1933,36 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
-        </is>
-      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B38">
-        <v>1.3</v>
+        <v>3.37</v>
       </c>
       <c r="C38">
-        <v>3.37</v>
+        <v>4.01</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1976,17 +1976,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1998,14 +1998,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B39">
-        <v>3.37</v>
+        <v>4.01</v>
       </c>
       <c r="C39">
-        <v>4.01</v>
+        <v>5.79</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2019,36 +2019,36 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B40">
-        <v>4.01</v>
+        <v>5.79</v>
       </c>
       <c r="C40">
-        <v>5.79</v>
+        <v>6.6</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2062,79 +2062,79 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B41">
-        <v>5.79</v>
+        <v>16.3</v>
       </c>
       <c r="C41">
-        <v>6.6</v>
+        <v>18.7</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels,Cover- Undercut Banks,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B42">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="C42">
-        <v>18.7</v>
+        <v>21.83</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2148,40 +2148,40 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Cover- Boulders,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Flow- Summer Base Flow,Temperature- Rearing,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels,Cover- Undercut Banks,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B43">
-        <v>20.5</v>
+        <v>22.13</v>
       </c>
       <c r="C43">
-        <v>21.83</v>
+        <v>23.88</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2191,40 +2191,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Fry,Summer Rearing,BT Subadult Rearing,Adult Migration,Spawning and Incubation</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B44">
-        <v>21.83</v>
+        <v>23.88</v>
       </c>
       <c r="C44">
-        <v>22.13</v>
+        <v>24.54</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2234,17 +2234,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2256,14 +2256,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B45">
-        <v>22.13</v>
+        <v>24.54</v>
       </c>
       <c r="C45">
-        <v>23.88</v>
+        <v>25.28</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2277,36 +2277,36 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B46">
-        <v>23.88</v>
+        <v>25.28</v>
       </c>
       <c r="C46">
-        <v>24.54</v>
+        <v>26.37</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2320,83 +2320,83 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B47">
-        <v>24.54</v>
+        <v>26.37</v>
       </c>
       <c r="C47">
-        <v>25.28</v>
+        <v>27.02</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Winter Rearing,Adult Migration,Spawning and Incubation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Boulders</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Icicle Creek Lower 04</t>
         </is>
       </c>
       <c r="B48">
-        <v>25.28</v>
+        <v>3.73</v>
       </c>
       <c r="C48">
-        <v>26.37</v>
+        <v>4.51</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2406,83 +2406,83 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Adult Migration,Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Restore Fish Passage</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B49">
-        <v>26.37</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>27.02</v>
+        <v>0.83</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Holding and Maturation,BT Natal Rearing,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Boulders,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Adult Migration,Spawning and Incubation,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Boulders</t>
-        </is>
-      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 04</t>
+          <t>Mad River Lower 02</t>
         </is>
       </c>
       <c r="B50">
-        <v>3.73</v>
+        <v>0.83</v>
       </c>
       <c r="C50">
-        <v>4.51</v>
+        <v>1.91</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2492,17 +2492,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Fish Passage Barriers</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Adult Migration,Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Fish Passage Barriers</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2514,14 +2514,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Mad River Lower 03</t>
         </is>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="C51">
-        <v>0.83</v>
+        <v>2.91</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2535,79 +2535,79 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>BT Subadult Rearing,Spawning and Incubation,Fry,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mad River Lower 02</t>
+          <t>Methow River Alta Coulee 03</t>
         </is>
       </c>
       <c r="B52">
-        <v>0.83</v>
+        <v>2.6</v>
       </c>
       <c r="C52">
-        <v>1.91</v>
+        <v>4.94</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Adult Migration,Fry</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 03</t>
+          <t>Methow River Alta Coulee 04</t>
         </is>
       </c>
       <c r="B53">
-        <v>2.6</v>
+        <v>4.94</v>
       </c>
       <c r="C53">
-        <v>4.94</v>
+        <v>6.69</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2621,17 +2621,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2643,57 +2643,57 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 04</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B54">
-        <v>4.94</v>
+        <v>57</v>
       </c>
       <c r="C54">
-        <v>6.69</v>
+        <v>59.36</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B55">
-        <v>54.5</v>
+        <v>60.55</v>
       </c>
       <c r="C55">
-        <v>55.41</v>
+        <v>61.67</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2707,36 +2707,36 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B56">
-        <v>55.41</v>
+        <v>62.3</v>
       </c>
       <c r="C56">
-        <v>57</v>
+        <v>63.53</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2750,36 +2750,36 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B57">
-        <v>57</v>
+        <v>66.83</v>
       </c>
       <c r="C57">
-        <v>59.36</v>
+        <v>67.95</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2793,341 +2793,341 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Fry,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B58">
-        <v>60.55</v>
+        <v>17.75</v>
       </c>
       <c r="C58">
-        <v>61.67</v>
+        <v>19.89</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B59">
-        <v>61.67</v>
+        <v>19.89</v>
       </c>
       <c r="C59">
-        <v>62.3</v>
+        <v>21.56</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B60">
-        <v>62.3</v>
+        <v>69.95</v>
       </c>
       <c r="C60">
-        <v>63.53</v>
+        <v>72.27</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B61">
-        <v>63.53</v>
+        <v>72.27</v>
       </c>
       <c r="C61">
-        <v>66.05</v>
+        <v>74.02</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B62">
-        <v>66.05</v>
+        <v>74.02</v>
       </c>
       <c r="C62">
-        <v>66.83</v>
+        <v>75.94</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B63">
-        <v>66.83</v>
+        <v>75.94</v>
       </c>
       <c r="C63">
-        <v>67.95</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B64">
-        <v>67.95</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="C64">
-        <v>69.95</v>
+        <v>79.3</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Pool Quantity and Quality,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Mission Creek 01</t>
         </is>
       </c>
       <c r="B65">
-        <v>17.75</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>19.89</v>
+        <v>0.75</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3137,40 +3137,40 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Restore Fish Passage</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Mission Creek 02</t>
         </is>
       </c>
       <c r="B66">
-        <v>19.89</v>
+        <v>0.75</v>
       </c>
       <c r="C66">
-        <v>21.56</v>
+        <v>1.49</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3180,337 +3180,337 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
+          <t>Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Restore Fish Passage</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B67">
-        <v>69.95</v>
+        <v>1.13</v>
       </c>
       <c r="C67">
-        <v>72.27</v>
+        <v>2.5</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Temperature- Adult Spawning,Off-Channel- Floodplain,Brook Trout</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Floodplain Reconnection,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B68">
-        <v>72.27</v>
+        <v>4.99</v>
       </c>
       <c r="C68">
-        <v>74.02</v>
+        <v>6.4</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B69">
-        <v>74.02</v>
+        <v>6.4</v>
       </c>
       <c r="C69">
-        <v>75.94</v>
+        <v>7.51</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B70">
-        <v>75.94</v>
+        <v>7.51</v>
       </c>
       <c r="C70">
-        <v>77.54000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B71">
-        <v>77.54000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="C71">
-        <v>79.3</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Spawning and Incubation,Winter Rearing,Fry,Adult Non-Spawning,Holding and Maturation</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Contaminants,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Wood,Off-Channel- Floodplain,Brook Trout,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Cover- Wood,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Water Quality Improvement,Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Riparian Restoration and Management,Floodplain Reconnection,Brook Trout Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mission Creek 01</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C72">
-        <v>0.75</v>
+        <v>10.36</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Mission Creek 02</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B73">
-        <v>0.75</v>
+        <v>10.36</v>
       </c>
       <c r="C73">
-        <v>1.49</v>
+        <v>11.2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B74">
-        <v>1.13</v>
+        <v>12.02</v>
       </c>
       <c r="C74">
-        <v>2.5</v>
+        <v>12.65</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3524,36 +3524,36 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,BT Subadult Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Temperature- Adult Spawning,Off-Channel- Floodplain,Brook Trout</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Floodplain Reconnection,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B75">
-        <v>4.99</v>
+        <v>12.65</v>
       </c>
       <c r="C75">
-        <v>6.4</v>
+        <v>13.62</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3567,36 +3567,36 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B76">
-        <v>6.4</v>
+        <v>13.62</v>
       </c>
       <c r="C76">
-        <v>7.51</v>
+        <v>14.93</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3610,36 +3610,36 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B77">
-        <v>7.51</v>
+        <v>14.93</v>
       </c>
       <c r="C77">
-        <v>8.76</v>
+        <v>15.93</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Brook Trout</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B78">
-        <v>8.76</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>9.210000000000001</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3696,40 +3696,40 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Contaminants,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Wood,Off-Channel- Floodplain,Brook Trout</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Water Quality Improvement,Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Riparian Restoration and Management,Floodplain Reconnection,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B79">
-        <v>9.210000000000001</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="C79">
-        <v>10.36</v>
+        <v>1.69</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3739,40 +3739,40 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
-        </is>
-      </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B80">
-        <v>10.36</v>
+        <v>1.69</v>
       </c>
       <c r="C80">
-        <v>11.2</v>
+        <v>2.82</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3782,40 +3782,40 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
-        </is>
-      </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B81">
-        <v>12.02</v>
+        <v>2.82</v>
       </c>
       <c r="C81">
-        <v>12.65</v>
+        <v>4.38</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3825,40 +3825,40 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Fry,BT Natal Rearing,Adult Migration</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B82">
-        <v>12.65</v>
+        <v>4.38</v>
       </c>
       <c r="C82">
-        <v>13.62</v>
+        <v>4.97</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3868,40 +3868,40 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
-        </is>
-      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B83">
-        <v>13.62</v>
+        <v>4.97</v>
       </c>
       <c r="C83">
-        <v>14.93</v>
+        <v>6.62</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3911,40 +3911,40 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
-        </is>
-      </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B84">
-        <v>14.93</v>
+        <v>6.62</v>
       </c>
       <c r="C84">
-        <v>15.93</v>
+        <v>7.71</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3954,36 +3954,36 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks,Entrainment and Stranding</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Brook Trout</t>
-        </is>
-      </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Entrainment and Stranding Mitigation</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>7.71</v>
       </c>
       <c r="C85">
-        <v>0.6800000000000001</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3997,17 +3997,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4019,14 +4019,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B86">
-        <v>0.6800000000000001</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C86">
-        <v>1.69</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -4040,36 +4040,36 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Floodplain,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B87">
-        <v>1.69</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C87">
-        <v>2.82</v>
+        <v>11.93</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4083,36 +4083,36 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B88">
-        <v>2.82</v>
+        <v>11.93</v>
       </c>
       <c r="C88">
-        <v>4.38</v>
+        <v>13.27</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -4126,40 +4126,40 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
-        </is>
-      </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B89">
-        <v>4.38</v>
+        <v>13.27</v>
       </c>
       <c r="C89">
-        <v>4.97</v>
+        <v>14.3</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4169,40 +4169,40 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B90">
-        <v>4.97</v>
+        <v>14.3</v>
       </c>
       <c r="C90">
-        <v>6.62</v>
+        <v>15.86</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4212,40 +4212,40 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B91">
-        <v>6.62</v>
+        <v>15.86</v>
       </c>
       <c r="C91">
-        <v>7.71</v>
+        <v>16.75</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4255,40 +4255,40 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks,Entrainment and Stranding</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Entrainment and Stranding Mitigation</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B92">
-        <v>7.71</v>
+        <v>16.75</v>
       </c>
       <c r="C92">
-        <v>9.039999999999999</v>
+        <v>17.05</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4298,40 +4298,40 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B93">
-        <v>9.039999999999999</v>
+        <v>17.05</v>
       </c>
       <c r="C93">
-        <v>9.619999999999999</v>
+        <v>17.88</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4341,17 +4341,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Floodplain,Cover- Undercut Banks</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4363,18 +4363,18 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B94">
-        <v>9.619999999999999</v>
+        <v>19.84</v>
       </c>
       <c r="C94">
-        <v>11.93</v>
+        <v>20.94</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4384,40 +4384,40 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>Fry,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B95">
-        <v>11.93</v>
+        <v>20.94</v>
       </c>
       <c r="C95">
-        <v>13.27</v>
+        <v>21.69</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4427,40 +4427,40 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B96">
-        <v>13.27</v>
+        <v>38.4</v>
       </c>
       <c r="C96">
-        <v>14.3</v>
+        <v>40.56</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4470,40 +4470,40 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Summer Rearing,Fry,Holding and Maturation,Winter Rearing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B97">
-        <v>14.3</v>
+        <v>40.56</v>
       </c>
       <c r="C97">
-        <v>15.86</v>
+        <v>41.7</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4513,40 +4513,40 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Summer Rearing,Holding and Maturation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing,Fry</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B98">
-        <v>15.86</v>
+        <v>41.7</v>
       </c>
       <c r="C98">
-        <v>16.75</v>
+        <v>42.92</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4556,40 +4556,40 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Wood,Off-Channel- Floodplain,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Riparian Restoration and Management,Floodplain Reconnection</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B99">
-        <v>16.75</v>
+        <v>42.92</v>
       </c>
       <c r="C99">
-        <v>17.05</v>
+        <v>44.62</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4599,40 +4599,40 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B100">
-        <v>17.05</v>
+        <v>44.62</v>
       </c>
       <c r="C100">
-        <v>17.88</v>
+        <v>46.09</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4642,40 +4642,40 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B101">
-        <v>19.84</v>
+        <v>46.09</v>
       </c>
       <c r="C101">
-        <v>20.94</v>
+        <v>47.58</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4685,40 +4685,40 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools</t>
-        </is>
-      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B102">
-        <v>20.94</v>
+        <v>47.58</v>
       </c>
       <c r="C102">
-        <v>21.69</v>
+        <v>48.12</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4728,36 +4728,36 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B103">
-        <v>38.4</v>
+        <v>48.12</v>
       </c>
       <c r="C103">
-        <v>40.56</v>
+        <v>49.39</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -4771,36 +4771,36 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Winter Rearing,Fry</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
-        </is>
-      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B104">
-        <v>40.56</v>
+        <v>49.39</v>
       </c>
       <c r="C104">
-        <v>41.7</v>
+        <v>51.38</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -4814,36 +4814,36 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Summer Rearing,Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Boulders,Cover- Wood,Off-Channel- Floodplain,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Riparian Restoration and Management,Floodplain Reconnection</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B105">
-        <v>41.7</v>
+        <v>51.38</v>
       </c>
       <c r="C105">
-        <v>42.92</v>
+        <v>53.56</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -4857,36 +4857,36 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 13</t>
         </is>
       </c>
       <c r="B106">
-        <v>42.92</v>
+        <v>53.56</v>
       </c>
       <c r="C106">
-        <v>44.62</v>
+        <v>54.06</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -4900,341 +4900,341 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
+          <t>Summer Rearing,Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B107">
-        <v>44.62</v>
+        <v>17.27</v>
       </c>
       <c r="C107">
-        <v>46.09</v>
+        <v>18.5</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B108">
-        <v>46.09</v>
+        <v>18.5</v>
       </c>
       <c r="C108">
-        <v>47.58</v>
+        <v>19.56</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B109">
-        <v>47.58</v>
+        <v>19.56</v>
       </c>
       <c r="C109">
-        <v>48.12</v>
+        <v>21.34</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B110">
-        <v>48.12</v>
+        <v>21.34</v>
       </c>
       <c r="C110">
-        <v>49.39</v>
+        <v>23.17</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
+          <t>Winter Rearing,Fry,Adult Migration,Holding and Maturation,Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B111">
-        <v>49.39</v>
+        <v>23.17</v>
       </c>
       <c r="C111">
-        <v>51.38</v>
+        <v>24.06</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
-        </is>
-      </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B112">
-        <v>51.38</v>
+        <v>24.06</v>
       </c>
       <c r="C112">
-        <v>53.56</v>
+        <v>25.29</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 13</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B113">
-        <v>53.56</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C113">
-        <v>54.06</v>
+        <v>10.31</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B114">
-        <v>17.27</v>
+        <v>10.31</v>
       </c>
       <c r="C114">
-        <v>18.5</v>
+        <v>12.67</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5244,40 +5244,40 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B115">
-        <v>18.5</v>
+        <v>12.67</v>
       </c>
       <c r="C115">
-        <v>19.56</v>
+        <v>15.22</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5287,40 +5287,40 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B116">
-        <v>19.56</v>
+        <v>15.22</v>
       </c>
       <c r="C116">
-        <v>21.34</v>
+        <v>17.27</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5330,40 +5330,40 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B117">
-        <v>21.34</v>
+        <v>25.29</v>
       </c>
       <c r="C117">
-        <v>23.17</v>
+        <v>26.49</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5373,40 +5373,40 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Holding and Maturation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Tumwater 02</t>
         </is>
       </c>
       <c r="B118">
-        <v>23.17</v>
+        <v>26.49</v>
       </c>
       <c r="C118">
-        <v>24.06</v>
+        <v>28</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5416,323 +5416,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Fry,Holding and Maturation,Winter Rearing</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Coarse Substrate,Cover- Wood,Cover- Undercut Banks,Pool Quantity and Quality,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 06</t>
-        </is>
-      </c>
-      <c r="B119">
-        <v>24.06</v>
-      </c>
-      <c r="C119">
-        <v>25.29</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Wenatchee River Nahahum 07</t>
-        </is>
-      </c>
-      <c r="B120">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="C120">
-        <v>10.31</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 01</t>
-        </is>
-      </c>
-      <c r="B121">
-        <v>10.31</v>
-      </c>
-      <c r="C121">
-        <v>12.67</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 02</t>
-        </is>
-      </c>
-      <c r="B122">
-        <v>12.67</v>
-      </c>
-      <c r="C122">
-        <v>15.22</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 03</t>
-        </is>
-      </c>
-      <c r="B123">
-        <v>15.22</v>
-      </c>
-      <c r="C123">
-        <v>17.27</v>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 01</t>
-        </is>
-      </c>
-      <c r="B124">
-        <v>25.29</v>
-      </c>
-      <c r="C124">
-        <v>26.49</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Fry,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 02</t>
-        </is>
-      </c>
-      <c r="B125">
-        <v>26.49</v>
-      </c>
-      <c r="C125">
-        <v>28</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Restore Reach Function</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,12 +423,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Summer Rearing,Winter Rearing,Adult Migration,Spawning and Incubation,Fry,Fry Colonization,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -708,15 +708,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 08</t>
+          <t>Chewuch River Doe 07</t>
         </is>
       </c>
       <c r="B9">
+        <v>20.34</v>
+      </c>
+      <c r="C9">
         <v>21.19</v>
       </c>
-      <c r="C9">
-        <v>23.32</v>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Chewuch River-Doe Creek</t>
@@ -724,45 +724,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Fry,Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Chewuch River Doe 08</t>
         </is>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>21.19</v>
       </c>
       <c r="C10">
-        <v>1.14</v>
+        <v>23.32</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -772,40 +772,40 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Chewuch River Doe 09</t>
         </is>
       </c>
       <c r="B11">
-        <v>1.14</v>
+        <v>23.32</v>
       </c>
       <c r="C11">
-        <v>2.34</v>
+        <v>24.29</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -815,36 +815,36 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B12">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>4.07</v>
+        <v>1.14</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -858,12 +858,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -873,21 +873,21 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 04</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B13">
-        <v>4.07</v>
+        <v>1.14</v>
       </c>
       <c r="C13">
-        <v>5.74</v>
+        <v>2.34</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -901,36 +901,36 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 05</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B14">
-        <v>5.74</v>
+        <v>2.34</v>
       </c>
       <c r="C14">
-        <v>7.06</v>
+        <v>4.07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -944,12 +944,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fry,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -959,21 +959,21 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 06</t>
+          <t>Chewuch River Pearrygin 04</t>
         </is>
       </c>
       <c r="B15">
-        <v>7.06</v>
+        <v>4.07</v>
       </c>
       <c r="C15">
-        <v>7.44</v>
+        <v>5.74</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -987,12 +987,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1002,21 +1002,21 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 07</t>
+          <t>Chewuch River Pearrygin 05</t>
         </is>
       </c>
       <c r="B16">
-        <v>7.44</v>
+        <v>5.74</v>
       </c>
       <c r="C16">
-        <v>8.640000000000001</v>
+        <v>7.06</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1045,21 +1045,21 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Pearrygin 06</t>
         </is>
       </c>
       <c r="B17">
-        <v>8.640000000000001</v>
+        <v>7.06</v>
       </c>
       <c r="C17">
-        <v>9.51</v>
+        <v>7.44</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1073,12 +1073,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1088,21 +1088,21 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 09</t>
+          <t>Chewuch River Pearrygin 07</t>
         </is>
       </c>
       <c r="B18">
-        <v>9.51</v>
+        <v>7.44</v>
       </c>
       <c r="C18">
-        <v>9.970000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1138,14 +1138,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 10</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B19">
-        <v>9.970000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C19">
-        <v>10.65</v>
+        <v>9.51</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1174,22 +1174,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 11</t>
+          <t>Chewuch River Pearrygin 10</t>
         </is>
       </c>
       <c r="B20">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="C20">
         <v>10.65</v>
       </c>
-      <c r="C20">
-        <v>11.85</v>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Chewuch River-Pearrygin Creek</t>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1224,18 +1224,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 01</t>
+          <t>Chewuch River Pearrygin 11</t>
         </is>
       </c>
       <c r="B21">
-        <v>24.29</v>
+        <v>10.65</v>
       </c>
       <c r="C21">
-        <v>25.64</v>
+        <v>11.85</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management</t>
         </is>
       </c>
     </row>
@@ -1331,22 +1331,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Food-FoodWebResources,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks,Food-FoodWebResources</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Enhance Food Resources,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Water Quality Improvement,Fine Sediment Management,Upland Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1417,22 +1417,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1460,22 +1460,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1546,22 +1546,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Food-FoodWebResources,Pool Quantity and Quality</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Food-FoodWebResources</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Enhance Food Resources,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Fry,Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1632,22 +1632,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Fry,Summer Rearing,Holding and Maturation,Winter Rearing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Cover- Boulders,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
@@ -1670,17 +1670,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Bull Trout</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Summer Rearing,Adult Migration,Spawning and Incubation,Winter Rearing</t>
+          <t>Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1690,22 +1690,22 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B32">
+        <v>28.25</v>
+      </c>
+      <c r="C32">
         <v>28.69</v>
       </c>
-      <c r="C32">
-        <v>29.3</v>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>Entiat River-Lake Creek</t>
@@ -1713,41 +1713,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Bull Trout</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Summer Rearing,Holding and Maturation,Fry,Winter Rearing</t>
+          <t>Fry,Adult Migration,Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Lake 07</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B33">
-        <v>31.09</v>
+        <v>28.69</v>
       </c>
       <c r="C33">
-        <v>31.6</v>
+        <v>29.3</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1756,42 +1756,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Bull Trout</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B34">
+        <v>31.09</v>
+      </c>
+      <c r="C34">
         <v>31.6</v>
       </c>
-      <c r="C34">
-        <v>32.09</v>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>Entiat River-Lake Creek</t>
@@ -1804,36 +1804,36 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Fry,Summer Rearing,Holding and Maturation,Winter Rearing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Cover- Undercut Banks,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B35">
-        <v>32.37</v>
+        <v>31.6</v>
       </c>
       <c r="C35">
-        <v>33.18</v>
+        <v>32.09</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1847,55 +1847,55 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fry,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.51</v>
+        <v>32.37</v>
       </c>
       <c r="C36">
-        <v>1.3</v>
+        <v>33.18</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Bull Trout</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Fry,Spawning and Incubation,Summer Rearing,Winter Rearing,Holding and Maturation,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1905,22 +1905,22 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B37">
+        <v>0.51</v>
+      </c>
+      <c r="C37">
         <v>1.3</v>
       </c>
-      <c r="C37">
-        <v>3.37</v>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>Entiat River-Mills Creek</t>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1948,22 +1948,22 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B38">
+        <v>1.3</v>
+      </c>
+      <c r="C38">
         <v>3.37</v>
       </c>
-      <c r="C38">
-        <v>4.01</v>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>Entiat River-Mills Creek</t>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1998,15 +1998,15 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B39">
+        <v>3.37</v>
+      </c>
+      <c r="C39">
         <v>4.01</v>
       </c>
-      <c r="C39">
-        <v>5.79</v>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>Entiat River-Mills Creek</t>
@@ -2019,12 +2019,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2034,22 +2034,22 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B40">
+        <v>4.01</v>
+      </c>
+      <c r="C40">
         <v>5.79</v>
       </c>
-      <c r="C40">
-        <v>6.6</v>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>Entiat River-Mills Creek</t>
@@ -2062,98 +2062,98 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B41">
-        <v>16.3</v>
+        <v>5.79</v>
       </c>
       <c r="C41">
-        <v>18.7</v>
+        <v>6.6</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels,Cover- Undercut Banks,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Mills 07</t>
         </is>
       </c>
       <c r="B42">
-        <v>20.5</v>
+        <v>6.6</v>
       </c>
       <c r="C42">
-        <v>21.83</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Flow- Summer Base Flow,Temperature- Rearing,Temperature-AdultHolding</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2163,68 +2163,68 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Mills 08</t>
         </is>
       </c>
       <c r="B43">
-        <v>22.13</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C43">
-        <v>23.88</v>
+        <v>10.72</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Potato 01</t>
         </is>
       </c>
       <c r="B44">
-        <v>23.88</v>
+        <v>10.72</v>
       </c>
       <c r="C44">
-        <v>24.54</v>
+        <v>11.81</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2234,40 +2234,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Winter Rearing,Fry,Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Potato 02</t>
         </is>
       </c>
       <c r="B45">
-        <v>24.54</v>
+        <v>11.81</v>
       </c>
       <c r="C45">
-        <v>25.28</v>
+        <v>14.05</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2277,40 +2277,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Fry,Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Entiat River Potato 03</t>
         </is>
       </c>
       <c r="B46">
-        <v>25.28</v>
+        <v>14.05</v>
       </c>
       <c r="C46">
-        <v>26.37</v>
+        <v>15.31</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2320,341 +2320,341 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Entiat River Potato 04</t>
         </is>
       </c>
       <c r="B47">
-        <v>26.37</v>
+        <v>15.31</v>
       </c>
       <c r="C47">
-        <v>27.02</v>
+        <v>16.3</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Winter Rearing,Adult Migration,Spawning and Incubation,Summer Rearing</t>
+          <t>Winter Rearing,Fry,Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Boulders</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 04</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B48">
-        <v>3.73</v>
+        <v>16.3</v>
       </c>
       <c r="C48">
-        <v>4.51</v>
+        <v>18.7</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="C49">
-        <v>0.83</v>
+        <v>20.5</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Holding and Maturation,BT Natal Rearing,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Boulders,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Cover- Boulders,Off-Channel- Floodplain,Off-Channel- Side-Channels,Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Channel Modification,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mad River Lower 02</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B50">
-        <v>0.83</v>
+        <v>20.5</v>
       </c>
       <c r="C50">
-        <v>1.91</v>
+        <v>21.83</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Adult Migration,Fry</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mad River Lower 03</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B51">
-        <v>1.91</v>
+        <v>21.83</v>
       </c>
       <c r="C51">
-        <v>2.91</v>
+        <v>22.13</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Winter Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 03</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B52">
-        <v>2.6</v>
+        <v>22.13</v>
       </c>
       <c r="C52">
-        <v>4.94</v>
+        <v>23.88</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 04</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B53">
-        <v>4.94</v>
+        <v>23.88</v>
       </c>
       <c r="C53">
-        <v>6.69</v>
+        <v>24.54</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Fry,Adult Migration,Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B54">
-        <v>57</v>
+        <v>24.54</v>
       </c>
       <c r="C54">
-        <v>59.36</v>
+        <v>25.28</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2664,189 +2664,189 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B55">
-        <v>60.55</v>
+        <v>25.28</v>
       </c>
       <c r="C55">
-        <v>61.67</v>
+        <v>26.37</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B56">
-        <v>62.3</v>
+        <v>26.37</v>
       </c>
       <c r="C56">
-        <v>63.53</v>
+        <v>27.02</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels,Cover- Undercut Banks,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Icicle Creek Lower 04</t>
         </is>
       </c>
       <c r="B57">
-        <v>66.83</v>
+        <v>3.73</v>
       </c>
       <c r="C57">
-        <v>67.95</v>
+        <v>4.51</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Adult Migration,Holding,Holding and Maturation,Spawning and Incubation,Fry Colonization,Fry,Summer Rearing,Winter Rearing,Smolt Outmigration,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Fish Passage</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B58">
-        <v>17.75</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>19.89</v>
+        <v>0.83</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,Holding and Maturation,Adult Non-Spawning</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2858,76 +2858,76 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Mad River Lower 02</t>
         </is>
       </c>
       <c r="B59">
-        <v>19.89</v>
+        <v>0.83</v>
       </c>
       <c r="C59">
-        <v>21.56</v>
+        <v>1.91</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Holding,Holding and Maturation,Spawning and Incubation,Fry Colonization,Fry,Summer Rearing,Winter Rearing,Smolt Outmigration,Adult Migration,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Fish Passage</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Alta Coulee 02</t>
         </is>
       </c>
       <c r="B60">
-        <v>69.95</v>
+        <v>1.51</v>
       </c>
       <c r="C60">
-        <v>72.27</v>
+        <v>2.6</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2937,40 +2937,40 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Methow River Alta Coulee 03</t>
         </is>
       </c>
       <c r="B61">
-        <v>72.27</v>
+        <v>2.6</v>
       </c>
       <c r="C61">
-        <v>74.02</v>
+        <v>4.94</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2980,40 +2980,40 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Methow River Alta Coulee 04</t>
         </is>
       </c>
       <c r="B62">
-        <v>74.02</v>
+        <v>4.94</v>
       </c>
       <c r="C62">
-        <v>75.94</v>
+        <v>6.69</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3023,40 +3023,40 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Methow River Alta Coulee 05</t>
         </is>
       </c>
       <c r="B63">
-        <v>75.94</v>
+        <v>6.69</v>
       </c>
       <c r="C63">
-        <v>77.54000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3066,40 +3066,40 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B64">
-        <v>77.54000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="C64">
-        <v>79.3</v>
+        <v>55.41</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Cover- Wood,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3109,111 +3109,111 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Mission Creek 01</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>55.41</v>
       </c>
       <c r="C65">
-        <v>0.75</v>
+        <v>57</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Mission Creek 02</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B66">
-        <v>0.75</v>
+        <v>57</v>
       </c>
       <c r="C66">
-        <v>1.49</v>
+        <v>59.36</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B67">
-        <v>1.13</v>
+        <v>59.36</v>
       </c>
       <c r="C67">
-        <v>2.5</v>
+        <v>60.55</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3223,40 +3223,40 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Temperature- Adult Spawning,Off-Channel- Floodplain,Brook Trout</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Floodplain Reconnection,Brook Trout Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B68">
-        <v>4.99</v>
+        <v>60.55</v>
       </c>
       <c r="C68">
-        <v>6.4</v>
+        <v>61.67</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3266,40 +3266,40 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B69">
-        <v>6.4</v>
+        <v>61.67</v>
       </c>
       <c r="C69">
-        <v>7.51</v>
+        <v>62.3</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3309,40 +3309,40 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B70">
-        <v>7.51</v>
+        <v>62.3</v>
       </c>
       <c r="C70">
-        <v>8.76</v>
+        <v>63.53</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3352,40 +3352,40 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B71">
-        <v>8.76</v>
+        <v>63.53</v>
       </c>
       <c r="C71">
-        <v>9.210000000000001</v>
+        <v>66.05</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3395,40 +3395,40 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Fry,Adult Non-Spawning,Holding and Maturation</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Contaminants,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Wood,Off-Channel- Floodplain,Brook Trout,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Water Quality Improvement,Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Riparian Restoration and Management,Floodplain Reconnection,Brook Trout Management,Fine Sediment Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B72">
-        <v>9.210000000000001</v>
+        <v>66.05</v>
       </c>
       <c r="C72">
-        <v>10.36</v>
+        <v>66.83</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3438,40 +3438,40 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B73">
-        <v>10.36</v>
+        <v>66.83</v>
       </c>
       <c r="C73">
-        <v>11.2</v>
+        <v>67.95</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3481,40 +3481,40 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B74">
-        <v>12.02</v>
+        <v>67.95</v>
       </c>
       <c r="C74">
-        <v>12.65</v>
+        <v>69.95</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3524,571 +3524,571 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,BT Subadult Rearing,Adult Migration,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Methow River McFarland 02</t>
         </is>
       </c>
       <c r="B75">
-        <v>12.65</v>
+        <v>11.47</v>
       </c>
       <c r="C75">
-        <v>13.62</v>
+        <v>13.94</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Methow River McFarland 03</t>
         </is>
       </c>
       <c r="B76">
-        <v>13.62</v>
+        <v>13.94</v>
       </c>
       <c r="C76">
-        <v>14.93</v>
+        <v>16.14</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Methow River McFarland 04</t>
         </is>
       </c>
       <c r="B77">
-        <v>14.93</v>
+        <v>16.14</v>
       </c>
       <c r="C77">
-        <v>15.93</v>
+        <v>17.75</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>17.75</v>
       </c>
       <c r="C78">
-        <v>0.6800000000000001</v>
+        <v>19.89</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B79">
-        <v>0.6800000000000001</v>
+        <v>19.89</v>
       </c>
       <c r="C79">
-        <v>1.69</v>
+        <v>21.56</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B80">
-        <v>1.69</v>
+        <v>69.95</v>
       </c>
       <c r="C80">
-        <v>2.82</v>
+        <v>72.27</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B81">
-        <v>2.82</v>
+        <v>72.27</v>
       </c>
       <c r="C81">
-        <v>4.38</v>
+        <v>74.02</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B82">
-        <v>4.38</v>
+        <v>74.02</v>
       </c>
       <c r="C82">
-        <v>4.97</v>
+        <v>75.94</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B83">
-        <v>4.97</v>
+        <v>75.94</v>
       </c>
       <c r="C83">
-        <v>6.62</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Mission Creek 01</t>
         </is>
       </c>
       <c r="B84">
-        <v>6.62</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>7.71</v>
+        <v>0.75</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Spawning and Incubation,Fry,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks,Entrainment and Stranding</t>
+          <t>Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Fish Passage</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Entrainment and Stranding Mitigation</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Mission Creek 02</t>
         </is>
       </c>
       <c r="B85">
-        <v>7.71</v>
+        <v>0.75</v>
       </c>
       <c r="C85">
-        <v>9.039999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Spawning and Incubation,Fry,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Fish Passage</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B86">
-        <v>9.039999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="C86">
-        <v>9.619999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Off-Channel- Floodplain,Cover- Undercut Banks</t>
+          <t>PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Temperature- Adult Spawning,Off-Channel- Floodplain,Cover- Undercut Banks,Temperature- Rearing,Temperature-AdultHolding,Brook Trout</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Floodplain Reconnection,Riparian Restoration and Management,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B87">
-        <v>9.619999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="C87">
-        <v>11.93</v>
+        <v>4.47</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+          <t>Holding and Maturation,Adult Migration,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing,Cover- Undercut Banks,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4098,40 +4098,40 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Bank Restoration,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B88">
-        <v>11.93</v>
+        <v>4.99</v>
       </c>
       <c r="C88">
-        <v>13.27</v>
+        <v>6.4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4141,255 +4141,255 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B89">
-        <v>13.27</v>
+        <v>6.4</v>
       </c>
       <c r="C89">
-        <v>14.3</v>
+        <v>7.51</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B90">
-        <v>14.3</v>
+        <v>7.51</v>
       </c>
       <c r="C90">
-        <v>15.86</v>
+        <v>8.76</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B91">
-        <v>15.86</v>
+        <v>8.76</v>
       </c>
       <c r="C91">
-        <v>16.75</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Contaminants,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Wood,Off-Channel- Floodplain,Brook Trout,Pool Quantity and Quality,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Water Quality Improvement,Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Riparian Restoration and Management,Floodplain Reconnection,Brook Trout Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B92">
-        <v>16.75</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C92">
-        <v>17.05</v>
+        <v>10.36</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B93">
-        <v>17.05</v>
+        <v>10.36</v>
       </c>
       <c r="C93">
-        <v>17.88</v>
+        <v>11.2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B94">
-        <v>19.84</v>
+        <v>12.02</v>
       </c>
       <c r="C94">
-        <v>20.94</v>
+        <v>12.65</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Fry,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4399,154 +4399,154 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B95">
-        <v>20.94</v>
+        <v>12.65</v>
       </c>
       <c r="C95">
-        <v>21.69</v>
+        <v>13.62</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B96">
-        <v>38.4</v>
+        <v>13.62</v>
       </c>
       <c r="C96">
-        <v>40.56</v>
+        <v>14.93</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Summer Rearing,Fry,Holding and Maturation,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B97">
-        <v>40.56</v>
+        <v>14.93</v>
       </c>
       <c r="C97">
-        <v>41.7</v>
+        <v>15.93</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Summer Rearing,Holding and Maturation,Fry,Winter Rearing</t>
+          <t>Spawning and Incubation,Holding and Maturation,Fry,Summer Rearing,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B98">
-        <v>41.7</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>42.92</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4556,40 +4556,40 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Wood,Off-Channel- Floodplain,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Riparian Restoration and Management,Floodplain Reconnection</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B99">
-        <v>42.92</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="C99">
-        <v>44.62</v>
+        <v>1.69</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4599,40 +4599,40 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B100">
-        <v>44.62</v>
+        <v>1.69</v>
       </c>
       <c r="C100">
-        <v>46.09</v>
+        <v>2.82</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4642,40 +4642,40 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B101">
-        <v>46.09</v>
+        <v>2.82</v>
       </c>
       <c r="C101">
-        <v>47.58</v>
+        <v>4.38</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4685,12 +4685,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4700,25 +4700,25 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B102">
-        <v>47.58</v>
+        <v>4.38</v>
       </c>
       <c r="C102">
-        <v>48.12</v>
+        <v>4.97</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4743,25 +4743,25 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B103">
-        <v>48.12</v>
+        <v>4.97</v>
       </c>
       <c r="C103">
-        <v>49.39</v>
+        <v>6.62</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4786,25 +4786,25 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B104">
-        <v>49.39</v>
+        <v>6.62</v>
       </c>
       <c r="C104">
-        <v>51.38</v>
+        <v>7.71</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4814,40 +4814,40 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Boulders,Cover- Wood,Off-Channel- Floodplain,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Riparian Restoration and Management,Floodplain Reconnection</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B105">
-        <v>51.38</v>
+        <v>7.71</v>
       </c>
       <c r="C105">
-        <v>53.56</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4857,12 +4857,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4872,25 +4872,25 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 13</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B106">
-        <v>53.56</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C106">
-        <v>54.06</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Summer Rearing,Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4915,40 +4915,40 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B107">
-        <v>17.27</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C107">
-        <v>18.5</v>
+        <v>11.93</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4958,480 +4958,1426 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B108">
-        <v>18.5</v>
+        <v>11.93</v>
       </c>
       <c r="C108">
-        <v>19.56</v>
+        <v>13.27</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B109">
-        <v>19.56</v>
+        <v>13.27</v>
       </c>
       <c r="C109">
-        <v>21.34</v>
+        <v>14.3</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B110">
-        <v>21.34</v>
+        <v>14.3</v>
       </c>
       <c r="C110">
-        <v>23.17</v>
+        <v>15.86</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Adult Migration,Holding and Maturation,Spawning and Incubation</t>
+          <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B111">
-        <v>23.17</v>
+        <v>15.86</v>
       </c>
       <c r="C111">
-        <v>24.06</v>
+        <v>16.75</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B112">
-        <v>24.06</v>
+        <v>16.75</v>
       </c>
       <c r="C112">
-        <v>25.29</v>
+        <v>17.05</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B113">
-        <v>8.279999999999999</v>
+        <v>17.05</v>
       </c>
       <c r="C113">
-        <v>10.31</v>
+        <v>17.88</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B114">
-        <v>10.31</v>
+        <v>17.88</v>
       </c>
       <c r="C114">
-        <v>12.67</v>
+        <v>19.84</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B115">
-        <v>12.67</v>
+        <v>19.84</v>
       </c>
       <c r="C115">
-        <v>15.22</v>
+        <v>20.94</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B116">
-        <v>15.22</v>
+        <v>20.94</v>
       </c>
       <c r="C116">
-        <v>17.27</v>
+        <v>21.69</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 01</t>
+          <t>Wenatchee River Beaver 01</t>
         </is>
       </c>
       <c r="B117">
-        <v>25.29</v>
+        <v>35.65</v>
       </c>
       <c r="C117">
-        <v>26.49</v>
+        <v>37.3</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Fry,Winter Rearing</t>
+          <t>Holding and Maturation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Boulders,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 02</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B118">
+        <v>37.3</v>
+      </c>
+      <c r="C118">
+        <v>38.4</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Fry,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Fine Sediment Management,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 03</t>
+        </is>
+      </c>
+      <c r="B119">
+        <v>38.4</v>
+      </c>
+      <c r="C119">
+        <v>40.56</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 04</t>
+        </is>
+      </c>
+      <c r="B120">
+        <v>40.56</v>
+      </c>
+      <c r="C120">
+        <v>41.7</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 05</t>
+        </is>
+      </c>
+      <c r="B121">
+        <v>41.7</v>
+      </c>
+      <c r="C121">
+        <v>42.92</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 06</t>
+        </is>
+      </c>
+      <c r="B122">
+        <v>42.92</v>
+      </c>
+      <c r="C122">
+        <v>44.62</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 07</t>
+        </is>
+      </c>
+      <c r="B123">
+        <v>44.62</v>
+      </c>
+      <c r="C123">
+        <v>46.09</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 08</t>
+        </is>
+      </c>
+      <c r="B124">
+        <v>46.09</v>
+      </c>
+      <c r="C124">
+        <v>47.58</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 09</t>
+        </is>
+      </c>
+      <c r="B125">
+        <v>47.58</v>
+      </c>
+      <c r="C125">
+        <v>48.12</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 10</t>
+        </is>
+      </c>
+      <c r="B126">
+        <v>48.12</v>
+      </c>
+      <c r="C126">
+        <v>49.39</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 11</t>
+        </is>
+      </c>
+      <c r="B127">
+        <v>49.39</v>
+      </c>
+      <c r="C127">
+        <v>51.38</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 12</t>
+        </is>
+      </c>
+      <c r="B128">
+        <v>51.38</v>
+      </c>
+      <c r="C128">
+        <v>53.56</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Wenatchee River Beaver 13</t>
+        </is>
+      </c>
+      <c r="B129">
+        <v>53.56</v>
+      </c>
+      <c r="C129">
+        <v>54.06</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Beaver Creek</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Summer Rearing,Holding and Maturation,Fry,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 01</t>
+        </is>
+      </c>
+      <c r="B130">
+        <v>17.27</v>
+      </c>
+      <c r="C130">
+        <v>18.5</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 02</t>
+        </is>
+      </c>
+      <c r="B131">
+        <v>18.5</v>
+      </c>
+      <c r="C131">
+        <v>19.56</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 03</t>
+        </is>
+      </c>
+      <c r="B132">
+        <v>19.56</v>
+      </c>
+      <c r="C132">
+        <v>21.34</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 04</t>
+        </is>
+      </c>
+      <c r="B133">
+        <v>21.34</v>
+      </c>
+      <c r="C133">
+        <v>23.17</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 05</t>
+        </is>
+      </c>
+      <c r="B134">
+        <v>23.17</v>
+      </c>
+      <c r="C134">
+        <v>24.06</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Wenatchee River Derby 06</t>
+        </is>
+      </c>
+      <c r="B135">
+        <v>24.06</v>
+      </c>
+      <c r="C135">
+        <v>25.29</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Wenatchee River Nahahum 07</t>
+        </is>
+      </c>
+      <c r="B136">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="C136">
+        <v>10.31</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 01</t>
+        </is>
+      </c>
+      <c r="B137">
+        <v>10.31</v>
+      </c>
+      <c r="C137">
+        <v>12.67</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 02</t>
+        </is>
+      </c>
+      <c r="B138">
+        <v>12.67</v>
+      </c>
+      <c r="C138">
+        <v>15.22</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 03</t>
+        </is>
+      </c>
+      <c r="B139">
+        <v>15.22</v>
+      </c>
+      <c r="C139">
+        <v>17.27</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 01</t>
+        </is>
+      </c>
+      <c r="B140">
+        <v>25.29</v>
+      </c>
+      <c r="C140">
         <v>26.49</v>
       </c>
-      <c r="C118">
-        <v>28</v>
-      </c>
-      <c r="D118" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>Steelhead</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Coarse Substrate,Cover- Wood,Cover- Undercut Banks,Pool Quantity and Quality,Temperature-AdultHolding</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Bank Restoration,Water Quality Improvement</t>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Fry,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Holding and Maturation,Summer Rearing</t>
+          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1632,12 +1632,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Holding and Maturation,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Cover- Boulders,Flow- Summer Base Flow</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Holding and Maturation,Winter Rearing</t>
+          <t>Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Holding and Maturation,Summer Rearing</t>
+          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Holding and Maturation,Summer Rearing</t>
+          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Holding and Maturation,Summer Rearing</t>
+          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation</t>
+          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2836,17 +2836,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>BT Natal Rearing,BT Subadult Rearing,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,Holding and Maturation,Adult Non-Spawning</t>
+          <t>Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,Holding and Maturation,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4363,15 +4363,15 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B94">
+        <v>11.2</v>
+      </c>
+      <c r="C94">
         <v>12.02</v>
       </c>
-      <c r="C94">
-        <v>12.65</v>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>Lower Nason Creek</t>
@@ -4384,12 +4384,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Adult Migration,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4399,21 +4399,21 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B95">
+        <v>12.02</v>
+      </c>
+      <c r="C95">
         <v>12.65</v>
-      </c>
-      <c r="C95">
-        <v>13.62</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -4449,15 +4449,15 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B96">
+        <v>12.65</v>
+      </c>
+      <c r="C96">
         <v>13.62</v>
       </c>
-      <c r="C96">
-        <v>14.93</v>
-      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>Lower Nason Creek</t>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4492,15 +4492,15 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B97">
+        <v>13.62</v>
+      </c>
+      <c r="C97">
         <v>14.93</v>
       </c>
-      <c r="C97">
-        <v>15.93</v>
-      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>Lower Nason Creek</t>
@@ -4513,12 +4513,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Holding and Maturation,Fry,Summer Rearing,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4535,33 +4535,33 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>14.93</v>
       </c>
       <c r="C98">
-        <v>0.6800000000000001</v>
+        <v>15.93</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4571,22 +4571,22 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
         <v>0.6800000000000001</v>
       </c>
-      <c r="C99">
-        <v>1.69</v>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>Lower Twisp River</t>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4614,22 +4614,22 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B100">
+        <v>0.6800000000000001</v>
+      </c>
+      <c r="C100">
         <v>1.69</v>
       </c>
-      <c r="C100">
-        <v>2.82</v>
-      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>Lower Twisp River</t>
@@ -4642,37 +4642,37 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B101">
+        <v>1.69</v>
+      </c>
+      <c r="C101">
         <v>2.82</v>
       </c>
-      <c r="C101">
-        <v>4.38</v>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>Lower Twisp River</t>
@@ -4685,36 +4685,36 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B102">
+        <v>2.82</v>
+      </c>
+      <c r="C102">
         <v>4.38</v>
-      </c>
-      <c r="C102">
-        <v>4.97</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -4750,15 +4750,15 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B103">
+        <v>4.38</v>
+      </c>
+      <c r="C103">
         <v>4.97</v>
       </c>
-      <c r="C103">
-        <v>6.62</v>
-      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>Lower Twisp River</t>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4786,22 +4786,22 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B104">
+        <v>4.97</v>
+      </c>
+      <c r="C104">
         <v>6.62</v>
       </c>
-      <c r="C104">
-        <v>7.71</v>
-      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>Lower Twisp River</t>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4829,22 +4829,22 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B105">
+        <v>6.62</v>
+      </c>
+      <c r="C105">
         <v>7.71</v>
       </c>
-      <c r="C105">
-        <v>9.039999999999999</v>
-      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>Lower Twisp River</t>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4879,15 +4879,15 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B106">
+        <v>7.71</v>
+      </c>
+      <c r="C106">
         <v>9.039999999999999</v>
       </c>
-      <c r="C106">
-        <v>9.619999999999999</v>
-      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>Lower Twisp River</t>
@@ -4900,12 +4900,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4915,22 +4915,22 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B107">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="C107">
         <v>9.619999999999999</v>
       </c>
-      <c r="C107">
-        <v>11.93</v>
-      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>Lower Twisp River</t>
@@ -4943,12 +4943,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4958,22 +4958,22 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B108">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="C108">
         <v>11.93</v>
       </c>
-      <c r="C108">
-        <v>13.27</v>
-      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>Lower Twisp River</t>
@@ -4986,12 +4986,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5008,18 +5008,18 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B109">
+        <v>11.93</v>
+      </c>
+      <c r="C109">
         <v>13.27</v>
       </c>
-      <c r="C109">
-        <v>14.3</v>
-      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5029,37 +5029,37 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B110">
+        <v>13.27</v>
+      </c>
+      <c r="C110">
         <v>14.3</v>
       </c>
-      <c r="C110">
-        <v>15.86</v>
-      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>Middle Twisp River</t>
@@ -5072,12 +5072,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5087,22 +5087,22 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B111">
+        <v>14.3</v>
+      </c>
+      <c r="C111">
         <v>15.86</v>
       </c>
-      <c r="C111">
-        <v>16.75</v>
-      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>Middle Twisp River</t>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5130,22 +5130,22 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B112">
+        <v>15.86</v>
+      </c>
+      <c r="C112">
         <v>16.75</v>
       </c>
-      <c r="C112">
-        <v>17.05</v>
-      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>Middle Twisp River</t>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5173,22 +5173,22 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B113">
+        <v>16.75</v>
+      </c>
+      <c r="C113">
         <v>17.05</v>
       </c>
-      <c r="C113">
-        <v>17.88</v>
-      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>Middle Twisp River</t>
@@ -5201,12 +5201,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5216,22 +5216,22 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B114">
+        <v>17.05</v>
+      </c>
+      <c r="C114">
         <v>17.88</v>
       </c>
-      <c r="C114">
-        <v>19.84</v>
-      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>Middle Twisp River</t>
@@ -5244,12 +5244,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5259,22 +5259,22 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B115">
+        <v>17.88</v>
+      </c>
+      <c r="C115">
         <v>19.84</v>
       </c>
-      <c r="C115">
-        <v>20.94</v>
-      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>Middle Twisp River</t>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5302,22 +5302,22 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B116">
+        <v>19.84</v>
+      </c>
+      <c r="C116">
         <v>20.94</v>
       </c>
-      <c r="C116">
-        <v>21.69</v>
-      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>Middle Twisp River</t>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5345,25 +5345,25 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 01</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B117">
-        <v>35.65</v>
+        <v>20.94</v>
       </c>
       <c r="C117">
-        <v>37.3</v>
+        <v>21.69</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5373,37 +5373,37 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Wenatchee River Beaver 01</t>
         </is>
       </c>
       <c r="B118">
+        <v>35.65</v>
+      </c>
+      <c r="C118">
         <v>37.3</v>
       </c>
-      <c r="C118">
-        <v>38.4</v>
-      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5416,37 +5416,37 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Cover- Boulders,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B119">
+        <v>37.3</v>
+      </c>
+      <c r="C119">
         <v>38.4</v>
       </c>
-      <c r="C119">
-        <v>40.56</v>
-      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5459,37 +5459,37 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B120">
+        <v>38.4</v>
+      </c>
+      <c r="C120">
         <v>40.56</v>
       </c>
-      <c r="C120">
-        <v>41.7</v>
-      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5507,32 +5507,32 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B121">
+        <v>40.56</v>
+      </c>
+      <c r="C121">
         <v>41.7</v>
       </c>
-      <c r="C121">
-        <v>42.92</v>
-      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5545,37 +5545,37 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B122">
+        <v>41.7</v>
+      </c>
+      <c r="C122">
         <v>42.92</v>
       </c>
-      <c r="C122">
-        <v>44.62</v>
-      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5603,21 +5603,21 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Fine Sediment Management,Water Quality Improvement,Bank Restoration,Upland Management,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B123">
+        <v>42.92</v>
+      </c>
+      <c r="C123">
         <v>44.62</v>
-      </c>
-      <c r="C123">
-        <v>46.09</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -5653,14 +5653,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B124">
+        <v>44.62</v>
+      </c>
+      <c r="C124">
         <v>46.09</v>
-      </c>
-      <c r="C124">
-        <v>47.58</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -5696,15 +5696,15 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B125">
+        <v>46.09</v>
+      </c>
+      <c r="C125">
         <v>47.58</v>
       </c>
-      <c r="C125">
-        <v>48.12</v>
-      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5732,22 +5732,22 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B126">
+        <v>47.58</v>
+      </c>
+      <c r="C126">
         <v>48.12</v>
       </c>
-      <c r="C126">
-        <v>49.39</v>
-      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5760,12 +5760,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5775,22 +5775,22 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B127">
+        <v>48.12</v>
+      </c>
+      <c r="C127">
         <v>49.39</v>
       </c>
-      <c r="C127">
-        <v>51.38</v>
-      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5818,22 +5818,22 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B128">
+        <v>49.39</v>
+      </c>
+      <c r="C128">
         <v>51.38</v>
       </c>
-      <c r="C128">
-        <v>53.56</v>
-      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5846,12 +5846,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5861,22 +5861,22 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 13</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B129">
+        <v>51.38</v>
+      </c>
+      <c r="C129">
         <v>53.56</v>
       </c>
-      <c r="C129">
-        <v>54.06</v>
-      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5889,80 +5889,80 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Summer Rearing,Holding and Maturation,Fry,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Beaver 13</t>
         </is>
       </c>
       <c r="B130">
-        <v>17.27</v>
+        <v>53.56</v>
       </c>
       <c r="C130">
-        <v>18.5</v>
+        <v>54.06</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
+          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B131">
+        <v>17.27</v>
+      </c>
+      <c r="C131">
         <v>18.5</v>
       </c>
-      <c r="C131">
-        <v>19.56</v>
-      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>Wenatchee River-Derby Canyon</t>
@@ -5975,12 +5975,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5990,22 +5990,22 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B132">
+        <v>18.5</v>
+      </c>
+      <c r="C132">
         <v>19.56</v>
       </c>
-      <c r="C132">
-        <v>21.34</v>
-      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>Wenatchee River-Derby Canyon</t>
@@ -6018,12 +6018,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6033,22 +6033,22 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B133">
+        <v>19.56</v>
+      </c>
+      <c r="C133">
         <v>21.34</v>
       </c>
-      <c r="C133">
-        <v>23.17</v>
-      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>Wenatchee River-Derby Canyon</t>
@@ -6061,12 +6061,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6076,22 +6076,22 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B134">
+        <v>21.34</v>
+      </c>
+      <c r="C134">
         <v>23.17</v>
       </c>
-      <c r="C134">
-        <v>24.06</v>
-      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>Wenatchee River-Derby Canyon</t>
@@ -6104,40 +6104,40 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B135">
+        <v>23.17</v>
+      </c>
+      <c r="C135">
         <v>24.06</v>
       </c>
-      <c r="C135">
-        <v>25.29</v>
-      </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6147,40 +6147,40 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B136">
-        <v>8.279999999999999</v>
+        <v>24.06</v>
       </c>
       <c r="C136">
-        <v>10.31</v>
+        <v>25.29</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6190,12 +6190,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6205,21 +6205,21 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B137">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="C137">
         <v>10.31</v>
-      </c>
-      <c r="C137">
-        <v>12.67</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -6255,15 +6255,15 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B138">
+        <v>10.31</v>
+      </c>
+      <c r="C138">
         <v>12.67</v>
       </c>
-      <c r="C138">
-        <v>15.22</v>
-      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>Wenatchee River-Ollala Canyon</t>
@@ -6276,12 +6276,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6291,22 +6291,22 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B139">
+        <v>12.67</v>
+      </c>
+      <c r="C139">
         <v>15.22</v>
       </c>
-      <c r="C139">
-        <v>17.27</v>
-      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>Wenatchee River-Ollala Canyon</t>
@@ -6319,12 +6319,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6334,50 +6334,222 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>Wenatchee River Ollala 03</t>
+        </is>
+      </c>
+      <c r="B140">
+        <v>15.22</v>
+      </c>
+      <c r="C140">
+        <v>17.27</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
           <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
-      <c r="B140">
+      <c r="B141">
         <v>25.29</v>
       </c>
-      <c r="C140">
+      <c r="C141">
         <v>26.49</v>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>Steelhead</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>Holding and Maturation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 03</t>
+        </is>
+      </c>
+      <c r="B142">
+        <v>28</v>
+      </c>
+      <c r="C142">
+        <v>28.96</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Fry,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 04</t>
+        </is>
+      </c>
+      <c r="B143">
+        <v>28.96</v>
+      </c>
+      <c r="C143">
+        <v>30.59</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Fry,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>Restore Reach Function</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 05</t>
+        </is>
+      </c>
+      <c r="B144">
+        <v>30.59</v>
+      </c>
+      <c r="C144">
+        <v>31.4</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Stability,Coarse Substrate,Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Restore Reach Function</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -433,17 +433,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Fish Passage Barriers,Fish Passage Barriers,Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Restore Fish Passage, Restore Fish Passage, Restore Fish Passage</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Fish Passage Restoration,Fish Passage Restoration,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
@@ -858,17 +858,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -901,17 +901,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -944,17 +944,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks,Food-FoodWebResources</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Water Quality Improvement,Fine Sediment Management,Upland Management,Enhance Food Resources</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Water Quality Improvement,Fine Sediment Management,Upland Management</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1503,12 +1503,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Food-FoodWebResources,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Enhance Food Resources,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Food-FoodWebResources</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1611,14 +1611,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B30">
-        <v>27.02</v>
+        <v>27.47</v>
       </c>
       <c r="C30">
-        <v>27.47</v>
+        <v>28.25</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1627,41 +1627,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Bull Trout</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B31">
-        <v>27.47</v>
+        <v>28.25</v>
       </c>
       <c r="C31">
-        <v>28.25</v>
+        <v>28.69</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1675,36 +1675,36 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B32">
-        <v>28.25</v>
+        <v>28.69</v>
       </c>
       <c r="C32">
-        <v>28.69</v>
+        <v>29.3</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1718,36 +1718,36 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fry,Adult Migration,Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B33">
-        <v>28.69</v>
+        <v>32.37</v>
       </c>
       <c r="C33">
-        <v>29.3</v>
+        <v>33.18</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1761,141 +1761,141 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,Holding and Maturation,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Entiat River Lake 07</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B34">
-        <v>31.09</v>
+        <v>0.51</v>
       </c>
       <c r="C34">
-        <v>31.6</v>
+        <v>1.3</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Cover- Undercut Banks,Pool Quantity and Quality</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B35">
-        <v>31.6</v>
+        <v>1.3</v>
       </c>
       <c r="C35">
-        <v>32.09</v>
+        <v>3.37</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B36">
-        <v>32.37</v>
+        <v>3.37</v>
       </c>
       <c r="C36">
-        <v>33.18</v>
+        <v>4.01</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Spring Chinook,Bull Trout</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fry,Spawning and Incubation,Summer Rearing,Winter Rearing,Holding and Maturation,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1905,21 +1905,21 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.51</v>
+        <v>4.01</v>
       </c>
       <c r="C37">
-        <v>1.3</v>
+        <v>5.79</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1955,14 +1955,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B38">
-        <v>1.3</v>
+        <v>5.79</v>
       </c>
       <c r="C38">
-        <v>3.37</v>
+        <v>6.6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1976,36 +1976,36 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Entiat River Mills 07</t>
         </is>
       </c>
       <c r="B39">
-        <v>3.37</v>
+        <v>6.6</v>
       </c>
       <c r="C39">
-        <v>4.01</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2019,36 +2019,36 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Entiat River Mills 08</t>
         </is>
       </c>
       <c r="B40">
-        <v>4.01</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C40">
-        <v>5.79</v>
+        <v>10.72</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2062,88 +2062,88 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Entiat River Potato 01</t>
         </is>
       </c>
       <c r="B41">
-        <v>5.79</v>
+        <v>10.72</v>
       </c>
       <c r="C41">
-        <v>6.6</v>
+        <v>11.81</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Entiat River Mills 07</t>
+          <t>Entiat River Potato 02</t>
         </is>
       </c>
       <c r="B42">
-        <v>6.6</v>
+        <v>11.81</v>
       </c>
       <c r="C42">
-        <v>8.539999999999999</v>
+        <v>14.05</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2163,30 +2163,30 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Entiat River Mills 08</t>
+          <t>Entiat River Potato 04</t>
         </is>
       </c>
       <c r="B43">
-        <v>8.539999999999999</v>
+        <v>15.31</v>
       </c>
       <c r="C43">
-        <v>10.72</v>
+        <v>16.3</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2206,21 +2206,21 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Entiat River Potato 01</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B44">
-        <v>10.72</v>
+        <v>16.3</v>
       </c>
       <c r="C44">
-        <v>11.81</v>
+        <v>18.7</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2229,41 +2229,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Entiat River Potato 02</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B45">
-        <v>11.81</v>
+        <v>18.7</v>
       </c>
       <c r="C45">
-        <v>14.05</v>
+        <v>20.5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Boulders,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2292,21 +2292,21 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Complexity Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Entiat River Potato 03</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B46">
-        <v>14.05</v>
+        <v>20.5</v>
       </c>
       <c r="C46">
-        <v>15.31</v>
+        <v>21.83</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2315,41 +2315,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Entiat River Potato 04</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B47">
-        <v>15.31</v>
+        <v>21.83</v>
       </c>
       <c r="C47">
-        <v>16.3</v>
+        <v>22.13</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2358,45 +2358,45 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Holding and Maturation,Spawning and Incubation,Summer Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B48">
-        <v>16.3</v>
+        <v>22.13</v>
       </c>
       <c r="C48">
-        <v>18.7</v>
+        <v>23.88</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2406,12 +2406,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2421,83 +2421,83 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B49">
-        <v>18.7</v>
+        <v>23.88</v>
       </c>
       <c r="C49">
-        <v>20.5</v>
+        <v>24.54</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Off-Channel- Floodplain,Off-Channel- Side-Channels,Flow- Summer Base Flow,Temperature- Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Channel Modification,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B50">
-        <v>20.5</v>
+        <v>24.54</v>
       </c>
       <c r="C50">
-        <v>21.83</v>
+        <v>25.28</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Boulders</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2507,25 +2507,25 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B51">
-        <v>21.83</v>
+        <v>25.28</v>
       </c>
       <c r="C51">
-        <v>22.13</v>
+        <v>26.37</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Winter Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2550,212 +2550,212 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B52">
-        <v>22.13</v>
+        <v>26.37</v>
       </c>
       <c r="C52">
-        <v>23.88</v>
+        <v>27.02</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Etienne Creek 01</t>
         </is>
       </c>
       <c r="B53">
-        <v>23.88</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>24.54</v>
+        <v>1.12</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Upper Peshastin Creek</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Bull Trout</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Fry,Adult Migration,Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Etienne Creek 02</t>
         </is>
       </c>
       <c r="B54">
-        <v>24.54</v>
+        <v>1.12</v>
       </c>
       <c r="C54">
-        <v>25.28</v>
+        <v>2.86</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Upper Peshastin Creek</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Bull Trout</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Icicle Creek Lower 01</t>
         </is>
       </c>
       <c r="B55">
-        <v>25.28</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>26.37</v>
+        <v>1.24</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Icicle Creek Lower 02</t>
         </is>
       </c>
       <c r="B56">
-        <v>26.37</v>
+        <v>1.24</v>
       </c>
       <c r="C56">
-        <v>27.02</v>
+        <v>2.95</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,Spawning and Incubation</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels,Cover- Undercut Banks,Flow- Summer Base Flow</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2765,22 +2765,22 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Upland Management</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 04</t>
+          <t>Icicle Creek Lower 03</t>
         </is>
       </c>
       <c r="B57">
+        <v>2.95</v>
+      </c>
+      <c r="C57">
         <v>3.73</v>
       </c>
-      <c r="C57">
-        <v>4.51</v>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>Lower Icicle Creek</t>
@@ -2788,45 +2788,45 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding,Holding and Maturation,Spawning and Incubation,Fry Colonization,Fry,Summer Rearing,Winter Rearing,Smolt Outmigration,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Icicle Creek Lower 04</t>
         </is>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="C58">
-        <v>0.83</v>
+        <v>4.51</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2836,126 +2836,126 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,Holding and Maturation,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Flow- Summer Base Flow,Fish Passage Barriers,Fish Passage Barriers,Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors, Restore Fish Passage, Restore Fish Passage, Restore Fish Passage</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Fish Passage Restoration,Fish Passage Restoration,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mad River Lower 02</t>
+          <t>Icicle Creek Lower 05</t>
         </is>
       </c>
       <c r="B59">
-        <v>0.83</v>
+        <v>4.51</v>
       </c>
       <c r="C59">
-        <v>1.91</v>
+        <v>5.66</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Holding,Holding and Maturation,Spawning and Incubation,Fry Colonization,Fry,Summer Rearing,Winter Rearing,Smolt Outmigration,Adult Migration,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 02</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B60">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>2.6</v>
+        <v>0.83</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Spawning and Incubation,Fry,Summer Rearing,Holding and Maturation,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness,Cover- Boulders</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 03</t>
+          <t>Mad River Lower 02</t>
         </is>
       </c>
       <c r="B61">
-        <v>2.6</v>
+        <v>0.83</v>
       </c>
       <c r="C61">
-        <v>4.94</v>
+        <v>1.91</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2965,40 +2965,40 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Fish Passage Barriers,Fish Passage Barriers,Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors, Restore Fish Passage, Restore Fish Passage, Restore Fish Passage</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fish Passage Restoration,Fish Passage Restoration,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 04</t>
+          <t>Mad River Lower 03</t>
         </is>
       </c>
       <c r="B62">
-        <v>4.94</v>
+        <v>1.91</v>
       </c>
       <c r="C62">
-        <v>6.69</v>
+        <v>2.91</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3008,40 +3008,40 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 05</t>
+          <t>Mad River Lower 04</t>
         </is>
       </c>
       <c r="B63">
-        <v>6.69</v>
+        <v>2.91</v>
       </c>
       <c r="C63">
-        <v>7.84</v>
+        <v>4.16</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3051,88 +3051,88 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Boulders,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Mad River Lower 06</t>
         </is>
       </c>
       <c r="B64">
-        <v>54.5</v>
+        <v>5.39</v>
       </c>
       <c r="C64">
-        <v>55.41</v>
+        <v>6.16</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>PRCNT Fines and Embeddedness,Cover- Wood,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Alta Coulee 02</t>
         </is>
       </c>
       <c r="B65">
-        <v>55.41</v>
+        <v>1.51</v>
       </c>
       <c r="C65">
-        <v>57</v>
+        <v>2.6</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3152,40 +3152,40 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Methow River Alta Coulee 03</t>
         </is>
       </c>
       <c r="B66">
-        <v>57</v>
+        <v>2.6</v>
       </c>
       <c r="C66">
-        <v>59.36</v>
+        <v>4.94</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3195,40 +3195,40 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Alta Coulee 04</t>
         </is>
       </c>
       <c r="B67">
-        <v>59.36</v>
+        <v>4.94</v>
       </c>
       <c r="C67">
-        <v>60.55</v>
+        <v>6.69</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3238,40 +3238,40 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River Alta Coulee 05</t>
         </is>
       </c>
       <c r="B68">
-        <v>60.55</v>
+        <v>6.69</v>
       </c>
       <c r="C68">
-        <v>61.67</v>
+        <v>7.84</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3281,21 +3281,21 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B69">
-        <v>61.67</v>
+        <v>54.5</v>
       </c>
       <c r="C69">
-        <v>62.3</v>
+        <v>55.41</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3324,21 +3324,21 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B70">
-        <v>62.3</v>
+        <v>55.41</v>
       </c>
       <c r="C70">
-        <v>63.53</v>
+        <v>57</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3352,12 +3352,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3367,21 +3367,21 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B71">
-        <v>63.53</v>
+        <v>57</v>
       </c>
       <c r="C71">
-        <v>66.05</v>
+        <v>59.36</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3410,21 +3410,21 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B72">
-        <v>66.05</v>
+        <v>59.36</v>
       </c>
       <c r="C72">
-        <v>66.83</v>
+        <v>60.55</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3453,21 +3453,21 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B73">
-        <v>66.83</v>
+        <v>60.55</v>
       </c>
       <c r="C73">
-        <v>67.95</v>
+        <v>61.67</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3496,21 +3496,21 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B74">
-        <v>67.95</v>
+        <v>61.67</v>
       </c>
       <c r="C74">
-        <v>69.95</v>
+        <v>62.3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3546,33 +3546,33 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Methow River McFarland 02</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B75">
-        <v>11.47</v>
+        <v>62.3</v>
       </c>
       <c r="C75">
-        <v>13.94</v>
+        <v>63.53</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3582,40 +3582,40 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Methow River McFarland 03</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B76">
-        <v>13.94</v>
+        <v>63.53</v>
       </c>
       <c r="C76">
-        <v>16.14</v>
+        <v>66.05</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3625,40 +3625,40 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Methow River McFarland 04</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B77">
-        <v>16.14</v>
+        <v>66.05</v>
       </c>
       <c r="C77">
-        <v>17.75</v>
+        <v>66.83</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3668,40 +3668,40 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B78">
-        <v>17.75</v>
+        <v>66.83</v>
       </c>
       <c r="C78">
-        <v>19.89</v>
+        <v>67.95</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3711,40 +3711,40 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B79">
-        <v>19.89</v>
+        <v>67.95</v>
       </c>
       <c r="C79">
-        <v>21.56</v>
+        <v>69.95</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3754,83 +3754,83 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River McFarland 02</t>
         </is>
       </c>
       <c r="B80">
-        <v>69.95</v>
+        <v>11.47</v>
       </c>
       <c r="C80">
-        <v>72.27</v>
+        <v>13.94</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Methow River McFarland 03</t>
         </is>
       </c>
       <c r="B81">
-        <v>72.27</v>
+        <v>13.94</v>
       </c>
       <c r="C81">
-        <v>74.02</v>
+        <v>16.14</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3840,40 +3840,40 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Methow River McFarland 04</t>
         </is>
       </c>
       <c r="B82">
-        <v>74.02</v>
+        <v>16.14</v>
       </c>
       <c r="C82">
-        <v>75.94</v>
+        <v>17.75</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3883,40 +3883,40 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B83">
-        <v>75.94</v>
+        <v>17.75</v>
       </c>
       <c r="C83">
-        <v>77.54000000000001</v>
+        <v>19.89</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3926,322 +3926,322 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mission Creek 01</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>19.89</v>
       </c>
       <c r="C84">
-        <v>0.75</v>
+        <v>21.56</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Steelhead,Bull Trout</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Fry,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,BT Subadult Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Mission Creek 02</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B85">
-        <v>0.75</v>
+        <v>69.95</v>
       </c>
       <c r="C85">
-        <v>1.49</v>
+        <v>72.27</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Steelhead,Bull Trout</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Fry,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,BT Subadult Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Fish Passage Barriers</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B86">
-        <v>1.13</v>
+        <v>72.27</v>
       </c>
       <c r="C86">
-        <v>2.5</v>
+        <v>74.02</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Off-Channel- Side-Channels,Temperature- Adult Spawning,Off-Channel- Floodplain,Cover- Undercut Banks,Temperature- Rearing,Temperature-AdultHolding,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Floodplain Reconnection,Riparian Restoration and Management,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B87">
-        <v>2.5</v>
+        <v>74.02</v>
       </c>
       <c r="C87">
-        <v>4.47</v>
+        <v>75.94</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Adult Migration,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing,Cover- Undercut Banks,Temperature-AdultHolding</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Bank Restoration,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B88">
-        <v>4.99</v>
+        <v>75.94</v>
       </c>
       <c r="C88">
-        <v>6.4</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Mission Creek 01</t>
         </is>
       </c>
       <c r="B89">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Spawning and Incubation,Fry,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Fish Passage Barriers,Fish Passage Barriers,Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Fish Passage, Restore Fish Passage, Restore Fish Passage</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Fish Passage Restoration,Fish Passage Restoration,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Mission Creek 02</t>
         </is>
       </c>
       <c r="B90">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="C90">
-        <v>8.76</v>
+        <v>1.49</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Spawning and Incubation,Fry,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Fish Passage Barriers,Fish Passage Barriers,Fish Passage Barriers</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Fish Passage, Restore Fish Passage, Restore Fish Passage</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Fish Passage Restoration,Fish Passage Restoration,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B91">
-        <v>8.76</v>
+        <v>1.13</v>
       </c>
       <c r="C91">
-        <v>9.210000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Contaminants,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Wood,Off-Channel- Floodplain,Brook Trout,Pool Quantity and Quality,Temperature-AdultHolding</t>
+          <t>PRCNT Fines and Embeddedness,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4270,21 +4270,21 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Water Quality Improvement,Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Riparian Restoration and Management,Floodplain Reconnection,Brook Trout Management,Fine Sediment Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B92">
-        <v>9.210000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="C92">
-        <v>10.36</v>
+        <v>4.47</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -4298,36 +4298,36 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Bank Restoration,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B93">
-        <v>10.36</v>
+        <v>4.99</v>
       </c>
       <c r="C93">
-        <v>11.2</v>
+        <v>6.4</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4341,12 +4341,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4356,21 +4356,21 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B94">
-        <v>11.2</v>
+        <v>6.4</v>
       </c>
       <c r="C94">
-        <v>12.02</v>
+        <v>7.51</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -4384,12 +4384,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Adult Migration,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Temperature-AdultHolding</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4406,14 +4406,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B95">
-        <v>12.02</v>
+        <v>7.51</v>
       </c>
       <c r="C95">
-        <v>12.65</v>
+        <v>8.76</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -4427,12 +4427,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4442,21 +4442,21 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B96">
-        <v>12.65</v>
+        <v>8.76</v>
       </c>
       <c r="C96">
-        <v>13.62</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -4465,41 +4465,41 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B97">
-        <v>13.62</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C97">
-        <v>14.93</v>
+        <v>10.36</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -4513,12 +4513,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Boulders</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4528,21 +4528,21 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B98">
-        <v>14.93</v>
+        <v>10.36</v>
       </c>
       <c r="C98">
-        <v>15.93</v>
+        <v>11.2</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -4556,12 +4556,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Undercut Banks,Temperature-AdultHolding,Brook Trout</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Boulders</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4571,40 +4571,40 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="C99">
-        <v>0.6800000000000001</v>
+        <v>12.02</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4614,126 +4614,126 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B100">
-        <v>0.6800000000000001</v>
+        <v>12.02</v>
       </c>
       <c r="C100">
-        <v>1.69</v>
+        <v>12.65</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B101">
-        <v>1.69</v>
+        <v>12.65</v>
       </c>
       <c r="C101">
-        <v>2.82</v>
+        <v>13.62</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B102">
-        <v>2.82</v>
+        <v>13.62</v>
       </c>
       <c r="C102">
-        <v>4.38</v>
+        <v>14.93</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Boulders</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4743,40 +4743,40 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B103">
-        <v>4.38</v>
+        <v>14.93</v>
       </c>
       <c r="C103">
-        <v>4.97</v>
+        <v>15.93</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,BT Natal Rearing,Adult Non-Spawning,BT Subadult Rearing</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4786,21 +4786,21 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B104">
-        <v>4.97</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>6.62</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -4814,12 +4814,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4829,21 +4829,21 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B105">
-        <v>6.62</v>
+        <v>0.6800000000000001</v>
       </c>
       <c r="C105">
-        <v>7.71</v>
+        <v>1.69</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -4857,36 +4857,36 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B106">
-        <v>7.71</v>
+        <v>1.69</v>
       </c>
       <c r="C106">
-        <v>9.039999999999999</v>
+        <v>2.82</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -4900,36 +4900,36 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B107">
-        <v>9.039999999999999</v>
+        <v>2.82</v>
       </c>
       <c r="C107">
-        <v>9.619999999999999</v>
+        <v>4.38</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -4943,12 +4943,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4958,21 +4958,21 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B108">
-        <v>9.619999999999999</v>
+        <v>4.38</v>
       </c>
       <c r="C108">
-        <v>11.93</v>
+        <v>4.97</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -4986,12 +4986,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pool Quantity and Quality</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5001,21 +5001,21 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B109">
-        <v>11.93</v>
+        <v>4.97</v>
       </c>
       <c r="C109">
-        <v>13.27</v>
+        <v>6.62</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -5029,12 +5029,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5051,18 +5051,18 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B110">
-        <v>13.27</v>
+        <v>6.62</v>
       </c>
       <c r="C110">
-        <v>14.3</v>
+        <v>7.71</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5072,40 +5072,40 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B111">
-        <v>14.3</v>
+        <v>7.71</v>
       </c>
       <c r="C111">
-        <v>15.86</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5115,40 +5115,40 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B112">
-        <v>15.86</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C112">
-        <v>16.75</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5158,17 +5158,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5180,18 +5180,18 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B113">
-        <v>16.75</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C113">
-        <v>17.05</v>
+        <v>11.93</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5201,40 +5201,40 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B114">
-        <v>17.05</v>
+        <v>11.93</v>
       </c>
       <c r="C114">
-        <v>17.88</v>
+        <v>13.27</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5244,36 +5244,36 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B115">
-        <v>17.88</v>
+        <v>13.27</v>
       </c>
       <c r="C115">
-        <v>19.84</v>
+        <v>14.3</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -5287,36 +5287,36 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Boulders</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B116">
-        <v>19.84</v>
+        <v>14.3</v>
       </c>
       <c r="C116">
-        <v>20.94</v>
+        <v>15.86</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5345,21 +5345,21 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B117">
-        <v>20.94</v>
+        <v>15.86</v>
       </c>
       <c r="C117">
-        <v>21.69</v>
+        <v>16.75</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Boulders</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 01</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B118">
-        <v>35.65</v>
+        <v>16.75</v>
       </c>
       <c r="C118">
-        <v>37.3</v>
+        <v>17.05</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5416,40 +5416,40 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B119">
-        <v>37.3</v>
+        <v>17.05</v>
       </c>
       <c r="C119">
-        <v>38.4</v>
+        <v>17.88</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5459,40 +5459,40 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Cover- Wood,Pool Quantity and Quality,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Off-Channel- Floodplain,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement,Fine Sediment Management,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B120">
-        <v>38.4</v>
+        <v>17.88</v>
       </c>
       <c r="C120">
-        <v>40.56</v>
+        <v>19.84</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5502,40 +5502,40 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B121">
-        <v>40.56</v>
+        <v>19.84</v>
       </c>
       <c r="C121">
-        <v>41.7</v>
+        <v>20.94</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5545,40 +5545,40 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B122">
-        <v>41.7</v>
+        <v>20.94</v>
       </c>
       <c r="C122">
-        <v>42.92</v>
+        <v>21.69</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5588,12 +5588,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5603,22 +5603,22 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Fine Sediment Management,Water Quality Improvement,Bank Restoration,Upland Management,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B123">
+        <v>41.7</v>
+      </c>
+      <c r="C123">
         <v>42.92</v>
       </c>
-      <c r="C123">
-        <v>44.62</v>
-      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5631,12 +5631,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5646,22 +5646,22 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Fine Sediment Management,Water Quality Improvement,Bank Restoration,Upland Management,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B124">
+        <v>42.92</v>
+      </c>
+      <c r="C124">
         <v>44.62</v>
       </c>
-      <c r="C124">
-        <v>46.09</v>
-      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5674,12 +5674,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5696,15 +5696,15 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B125">
+        <v>44.62</v>
+      </c>
+      <c r="C125">
         <v>46.09</v>
       </c>
-      <c r="C125">
-        <v>47.58</v>
-      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5717,12 +5717,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5732,22 +5732,22 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B126">
+        <v>46.09</v>
+      </c>
+      <c r="C126">
         <v>47.58</v>
       </c>
-      <c r="C126">
-        <v>48.12</v>
-      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5760,12 +5760,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5775,22 +5775,22 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B127">
+        <v>47.58</v>
+      </c>
+      <c r="C127">
         <v>48.12</v>
       </c>
-      <c r="C127">
-        <v>49.39</v>
-      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5803,12 +5803,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5818,22 +5818,22 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B128">
+        <v>48.12</v>
+      </c>
+      <c r="C128">
         <v>49.39</v>
       </c>
-      <c r="C128">
-        <v>51.38</v>
-      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5846,12 +5846,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Boulders</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5868,15 +5868,15 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B129">
+        <v>49.39</v>
+      </c>
+      <c r="C129">
         <v>51.38</v>
       </c>
-      <c r="C129">
-        <v>53.56</v>
-      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5889,12 +5889,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Boulders</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5904,22 +5904,22 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management,Instream Flow Enhancement,Water Quality Improvement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 13</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B130">
+        <v>51.38</v>
+      </c>
+      <c r="C130">
         <v>53.56</v>
       </c>
-      <c r="C130">
-        <v>54.06</v>
-      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>Wenatchee River-Beaver Creek</t>
@@ -5932,22 +5932,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Boulders</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J177"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,12 +447,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Cover-Wood,Food-FoodWebResources</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood,Food-FoodWebResources</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -551,7 +551,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
     </row>
@@ -593,7 +598,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Cover-Wood</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -640,7 +645,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1155,12 +1160,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fry, multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Wood,Cover-UndercutBanks</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1244,7 +1249,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1259,17 +1264,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,%Fines/Embeddedness</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1296,7 +1301,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1311,17 +1316,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,%Fines/Embeddedness</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1348,7 +1353,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1363,7 +1368,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1373,7 +1378,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Cover-UndercutBanks</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1712,7 +1717,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1727,7 +1732,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fry, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1920,7 +1925,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1935,7 +1940,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1945,12 +1950,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Cover-UndercutBanks,Food-FoodWebResources,%Fines/Embeddedness</t>
+          <t>Stability,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement,Enhance Food Resources,Fine Sediment Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1977,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1987,7 +1992,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2024,7 +2029,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2039,7 +2044,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2076,7 +2081,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2091,7 +2096,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2128,7 +2133,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2143,7 +2148,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2153,12 +2158,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Riparian,Cover-UndercutBanks,Food-FoodWebResources</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2185,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2195,7 +2200,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2205,12 +2210,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Food-FoodWebResources</t>
+          <t>PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2237,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2247,7 +2252,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2299,22 +2304,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Cover-Boulders</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Cover-Boulders,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2346,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2351,7 +2356,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2361,12 +2366,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2393,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2403,7 +2408,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2413,7 +2418,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,%Fines/Embeddedness</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2492,7 +2497,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2507,7 +2512,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2544,7 +2549,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2559,7 +2564,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2569,7 +2574,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,%Fines/Embeddedness</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2648,7 +2653,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2663,17 +2668,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cover-Boulders</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2705,7 +2710,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2752,7 +2757,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2767,17 +2772,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cover-Boulders</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2856,7 +2861,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2871,7 +2876,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2881,7 +2886,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2908,7 +2913,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2923,7 +2928,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2933,7 +2938,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Cover-UndercutBanks</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2980,12 +2985,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Cover-Wood</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing_score</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Cover-Wood</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Cover-Wood</t>
+          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3168,22 +3168,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,Cover-Boulders</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Fry, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Cover-UndercutBanks</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing, multiple (HQ pathway)</t>
+          <t>Fry, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Cover-UndercutBanks</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,%Fines/Embeddedness,Cover-UndercutBanks</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,%Fines/Embeddedness</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Cover-UndercutBanks</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4728,17 +4728,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,%Fines/Embeddedness,Contaminants,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,%Fines/Embeddedness,Contaminants,Temperature-AdultSpawning</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Cover-Boulders</t>
+          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,%Fines/Embeddedness,Temperature-AdultSpawning,Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,%Fines/Embeddedness,Temperature-AdultSpawning</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4884,17 +4884,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing,Temperature-AdultSpawning</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing,Temperature-AdultHolding,Temperature-AdultSpawning</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,%Fines/Embeddedness,Cover-UndercutBanks</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Cover-UndercutBanks,%Fines/Embeddedness</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4936,17 +4936,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing,Temperature-AdultSpawning</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing,Temperature-AdultHolding,Temperature-AdultSpawning</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,%Fines/Embeddedness,Cover-UndercutBanks</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Cover-UndercutBanks,%Fines/Embeddedness</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4988,17 +4988,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing,Temperature-AdultSpawning</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing,Temperature-AdultHolding,Temperature-AdultSpawning</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,%Fines/Embeddedness,Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Cover-Boulders,Cover-UndercutBanks,%Fines/Embeddedness</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5040,17 +5040,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Temperature-Rearing,Temperature-AdultSpawning</t>
+          <t>Temperature-Rearing,Temperature-AdultHolding,Temperature-AdultSpawning</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,%Fines/Embeddedness,Cover-UndercutBanks</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Cover-UndercutBanks,%Fines/Embeddedness</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5097,12 +5097,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>,Food-FoodWebResources</t>
+          <t>CoarseSubstrate_score,Food-FoodWebResources</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Temperature-Rearing_score,Temperature-AdultHolding,Temperature-Rearing</t>
+          <t>,Temperature-AdultHolding,Temperature-Rearing</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5204,6 +5204,11 @@
           <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Temperature-AdultHolding,Food-FoodWebResources,Temperature-Rearing</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>,Water Quality Improvement,Enhance Food Resources</t>
@@ -5248,7 +5253,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
     </row>
@@ -5290,12 +5300,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Temperature-Rearing_score,Temperature-AdultHolding,Food-FoodWebResources,Temperature-Rearing</t>
+          <t>,Temperature-AdultHolding,Food-FoodWebResources,Temperature-Rearing</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5342,7 +5352,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5394,7 +5404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5446,7 +5456,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5498,12 +5508,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>,Food-FoodWebResources</t>
+          <t>CoarseSubstrate_score,Food-FoodWebResources</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5550,12 +5560,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Temperature-Rearing_score</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -5597,12 +5602,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score</t>
+          <t>Flow-SummerBaseFlow_score,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood,Temperature-AdultHolding,Temperature-Rearing</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Riparian-Disturbance_score,Riparian_Mean,Cover-Wood,Temperature-AdultHolding,Temperature-Rearing</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5649,7 +5654,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5701,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Food-FoodWebResources</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Food-FoodWebResources</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5738,12 +5753,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Cover-Wood</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Cover-Wood</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5790,7 +5805,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
     </row>
@@ -5832,12 +5852,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>,Food-FoodWebResources</t>
+          <t>CoarseSubstrate_score,Food-FoodWebResources</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5884,7 +5904,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Food-FoodWebResources</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Food-FoodWebResources</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5931,12 +5956,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Cover-Wood</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Cover-Wood</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5983,12 +6008,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Cover-Wood</t>
+          <t>CoarseSubstrate_score,Cover-Wood_score,Cover-Wood</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6035,7 +6060,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6102,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6129,12 +6154,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Cover-Wood</t>
+          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -6181,7 +6206,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
@@ -6226,6 +6251,11 @@
           <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>CoarseSubstrate_score</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6245,7 +6275,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6260,12 +6290,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6297,7 +6327,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6312,12 +6342,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6349,7 +6379,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6364,12 +6394,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6416,12 +6446,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6453,7 +6483,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6468,12 +6498,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6505,7 +6535,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6520,17 +6550,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality,%Fines/Embeddedness</t>
+          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6557,7 +6587,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6572,7 +6602,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6582,7 +6612,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Cover-UndercutBanks,%Fines/Embeddedness</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6609,7 +6639,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6624,17 +6654,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing,Holding and Maturation, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing,Cover-UndercutBanks,Temperature-AdultHolding</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Pools-DeepPools</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6661,7 +6691,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6676,17 +6706,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,%Fines/Embeddedness</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6713,7 +6743,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6728,7 +6758,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6738,7 +6768,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Cover-UndercutBanks</t>
+          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6765,7 +6795,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6780,17 +6810,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,%Fines/Embeddedness</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7077,7 +7107,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7092,7 +7122,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing,Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7102,7 +7132,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7181,7 +7211,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7196,7 +7226,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -7233,7 +7263,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7248,12 +7278,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7285,7 +7315,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7300,12 +7330,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7337,7 +7367,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7352,17 +7382,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,%Fines/Embeddedness</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7389,7 +7419,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7404,12 +7434,12 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7441,7 +7471,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7456,12 +7486,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7493,7 +7523,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7508,17 +7538,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing,Temperature-AdultSpawning</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian,Cover-UndercutBanks</t>
+          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7545,7 +7575,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7560,17 +7590,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing,Temperature-AdultSpawning</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Riparian,Cover-UndercutBanks</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7597,7 +7627,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7612,17 +7642,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing,Temperature-AdultSpawning,Cover-Boulders</t>
+          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,%Fines/Embeddedness,Cover-UndercutBanks</t>
+          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7649,7 +7679,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7664,17 +7694,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing,Temperature-AdultSpawning</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,%Fines/Embeddedness,Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7701,7 +7731,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7716,17 +7746,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing,Temperature-AdultSpawning,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Cover-Boulders</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7753,7 +7783,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7768,7 +7798,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7805,7 +7835,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7820,7 +7850,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7857,7 +7887,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7872,7 +7902,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7924,17 +7954,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing,Contaminants</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,%Fines/Embeddedness</t>
+          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Cover-UndercutBanks</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7961,7 +7991,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7976,7 +8006,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7986,7 +8016,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,%Fines/Embeddedness</t>
+          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8013,12 +8043,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8028,7 +8058,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -8065,7 +8095,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8080,7 +8110,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -8117,7 +8147,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8132,7 +8162,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -8169,7 +8199,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8184,7 +8214,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -8221,7 +8251,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8236,7 +8266,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -8273,12 +8303,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8288,12 +8318,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing,Cover-UndercutBanks,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8325,12 +8355,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8340,12 +8370,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing,Cover-UndercutBanks,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8409,7 +8439,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Entiat River Mills 07</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8419,7 +8449,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -8427,36 +8457,41 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow-SummerBaseFlow,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Channel Complexity Restoration,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Entiat River Mills 08</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8466,7 +8501,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -8474,36 +8509,41 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Entiat River Potato 01</t>
+          <t>Entiat River Lake 05</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8513,7 +8553,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8521,36 +8561,41 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Entiat River Potato 02</t>
+          <t>Entiat River Lake 06</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8560,7 +8605,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8570,34 +8615,34 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,CoarseSubstrate,Off-Channel-Floodplain</t>
+          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Channel Complexity Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Entiat River Potato 04</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8607,7 +8652,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8617,34 +8662,34 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Holding and Maturation</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Cover-Wood</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Cover-UndercutBanks,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Lake 11</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8654,7 +8699,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8662,51 +8707,46 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Cover-Boulders,Cover-UndercutBanks</t>
+          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Icicle Creek Lower 01</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8714,51 +8754,46 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Cover-Boulders</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Icicle Creek Lower 02</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -8766,61 +8801,51 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Cover-Boulders,Cover-UndercutBanks,Flow-SummerBaseFlow,Off-Channel-Side-Channels</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Mad River Lower 02</t>
+          <t>Icicle Creek Lower 03</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Address Limiting Factors, Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8830,49 +8855,49 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Holding and Maturation, multiple (barrier pathway)</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Cover-Boulders,Cover-UndercutBanks,Cover-Wood,PoolQuantity&amp;Quality,Temperature-AdultHolding</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Pools-DeepPools</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement,Fish Passage Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Icicle Creek Lower 04</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Address Limiting Factors, Restore Fish Passage</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8882,12 +8907,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Adult Migration, multiple (barrier pathway)</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Food-FoodWebResources</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8897,24 +8922,24 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Enhance Food Resources</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Icicle Creek Lower 05</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -8929,39 +8954,39 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Cover-Wood,Food-FoodWebResources</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Salmon 16-2</t>
+          <t>Icicle Creek Lower 08</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -8976,7 +9001,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8986,34 +9011,39 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-AdultHolding,Temperature-Rearing</t>
+          <t>Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Similkameen 16-6</t>
+          <t>Mad River Lower 02</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Address Limiting Factors, Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -9023,29 +9053,29 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation, multiple (barrier pathway)</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover-Boulders,Cover-UndercutBanks,Cover-Wood,PoolQuantity&amp;Quality,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Pools-DeepPools</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Stormy Creek 01</t>
+          <t>Mad River Lower 03</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -9055,7 +9085,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -9065,44 +9095,44 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,%Fines/Embeddedness</t>
+          <t>Cover-UndercutBanks,PoolQuantity&amp;Quality,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Cover-UndercutBanks,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Cover-Boulders,Cover-Wood</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 13</t>
+          <t>Mad River Lower 04</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -9112,34 +9142,34 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Holding and Maturation</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover-Boulders,Cover-UndercutBanks,PoolQuantity&amp;Quality,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Cover-UndercutBanks,Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Pools-DeepPools</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 04</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9149,17 +9179,17 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9169,29 +9199,29 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>multiple (barrier pathway)</t>
+          <t>Holding and Maturation</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
+          <t>Cover-UndercutBanks,Temperature-AdultHolding</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Mission Creek 01</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9201,17 +9231,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9221,81 +9251,81 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>multiple (barrier pathway)</t>
+          <t>Holding and Maturation</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover-UndercutBanks,Flow-SummerBaseFlow</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Mission Creek 02</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>multiple (barrier pathway)</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
+          <t>Food-FoodWebResources</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Aeneas 16-1</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9305,17 +9335,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Aeneas Creek Okanogan</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9325,67 +9350,552 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>multiple (barrier pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
+          <t>Cover-Wood,Food-FoodWebResources</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>Salmon 16-2</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Cover-Wood,Temperature-AdultHolding,Temperature-Rearing</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Similkameen 16-6</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Cover-Wood</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 03</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Adult Migration</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 04</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Adult Migration</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 05</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Adult Migration</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 06</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Adult Migration</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 07</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Adult Migration</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Flow-SummerBaseFlow</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Mission Creek 01</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>multiple (barrier pathway)</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Mission Creek 02</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>multiple (barrier pathway)</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Aeneas 16-1</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Aeneas Creek Okanogan</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>multiple (barrier pathway)</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
           <t>Johnson 16-3</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>Okanogan</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>Johnson Creek</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>Restore Fish Passage</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>multiple (barrier pathway)</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="I187" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
+      <c r="J187" t="inlineStr">
         <is>
           <t>Fish Passage Restoration</t>
         </is>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,17 +447,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood,Food-FoodWebResources</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean</t>
+          <t>Bank Stability,Channel Stability,Stability</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -499,17 +499,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Cover-Wood,Food-FoodWebResources</t>
+          <t>Cover- Wood,Cover- Wood,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -551,12 +551,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -645,17 +645,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Cover-Wood,Food-FoodWebResources</t>
+          <t>Cover- Wood,Cover- Wood,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources,Fish Passage Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
@@ -697,12 +697,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian</t>
+          <t>Cover- Wood,Riparian</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian</t>
+          <t>Cover- Wood,Riparian</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Riparian</t>
+          <t>Flow- Summer Base Flow,Riparian</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1061,12 +1061,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1113,12 +1113,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover- Wood</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1160,22 +1160,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cover-Wood,Cover-UndercutBanks</t>
+          <t>Cover- Wood,Cover- Undercut Banks,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1217,12 +1217,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1633,12 +1633,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels</t>
+          <t>Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1940,22 +1940,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain</t>
+          <t>Stability,Off-Channel- Floodplain,Cover- Undercut Banks,Food- Food Web Resources,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement,Enhance Food Resources,Fine Sediment Management</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1992,12 +1992,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2044,17 +2044,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Temperature- Rearing</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2096,12 +2096,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2148,22 +2148,22 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Riparian,Cover- Undercut Banks,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2200,22 +2200,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality</t>
+          <t>Pool Quantity and Quality,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2304,22 +2304,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Cover-Boulders,Temperature-AdultHolding</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Cover- Boulders</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
@@ -2346,32 +2346,32 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Bull Trout</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover- Wood,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-AdultHolding</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2408,17 +2408,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Cover- Wood,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2564,17 +2564,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2621,12 +2621,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2663,22 +2663,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Boulders</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2772,17 +2772,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Boulders</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2876,17 +2876,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Cover- Wood</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2928,17 +2928,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover- Wood,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2985,12 +2985,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood</t>
+          <t>Bank Stability,Channel Stability,Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -3032,12 +3032,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood</t>
+          <t>Bank Stability,Channel Stability,Stability,Cover- Wood,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3079,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fish Passage Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
@@ -3126,12 +3126,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3168,22 +3168,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Holding and Maturation, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,Riparian,Cover-Boulders</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3220,17 +3220,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Fry, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3277,12 +3277,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Temperature- Rearing</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3537,12 +3537,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3589,12 +3589,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3693,12 +3693,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3745,12 +3745,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel- Floodplain,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3849,12 +3849,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels</t>
+          <t>Stability,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels</t>
+          <t>Stability,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4005,12 +4005,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4057,12 +4057,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4109,12 +4109,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4213,12 +4213,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4265,12 +4265,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Riparian</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4317,12 +4317,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Cover- Wood,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4463,22 +4463,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4515,22 +4515,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Fry, multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4562,27 +4562,27 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Spawning and Incubation, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing,Temperature-AdultSpawning</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,%Fines/Embeddedness</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4619,22 +4619,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4671,27 +4671,27 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Spawning and Incubation, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing,Contaminants,Temperature-AdultSpawning</t>
+          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Contaminants,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Riparian</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Riparian</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
@@ -4723,27 +4723,27 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Spawning and Incubation, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,BT Subadult Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,%Fines/Embeddedness,Contaminants,Temperature-AdultSpawning</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Cover- Boulders</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
@@ -4775,27 +4775,27 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Spawning and Incubation, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,%Fines/Embeddedness,Temperature-AdultSpawning</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
@@ -4827,27 +4827,27 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Spawning and Incubation, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing,Temperature-AdultSpawning</t>
+          <t>Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian,%Fines/Embeddedness</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
@@ -4879,27 +4879,27 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing,Temperature-AdultHolding,Temperature-AdultSpawning</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Cover-UndercutBanks,%Fines/Embeddedness</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
@@ -4926,32 +4926,32 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing,Temperature-AdultHolding,Temperature-AdultSpawning</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Cover-UndercutBanks,%Fines/Embeddedness</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
@@ -4983,27 +4983,27 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing,Temperature-AdultHolding,Temperature-AdultSpawning</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Cover-Boulders,Cover-UndercutBanks,%Fines/Embeddedness</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
@@ -5035,27 +5035,27 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Temperature-Rearing,Temperature-AdultHolding,Temperature-AdultSpawning</t>
+          <t>Temperature- Rearing,Temperature- Adult Spawning,,Brook Trout</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Cover-UndercutBanks,%Fines/Embeddedness</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
@@ -5097,17 +5097,17 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Food-FoodWebResources</t>
+          <t>Coarse Substrate,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>,Enhance Food Resources</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5149,17 +5149,17 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>,Temperature-AdultHolding,Temperature-Rearing</t>
+          <t>Temperature- Adult Holding,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5201,17 +5201,17 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Temperature-AdultHolding,Food-FoodWebResources,Temperature-Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Temperature- Adult Holding,Food- Food Web Resources,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5253,12 +5253,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
     </row>
@@ -5300,17 +5300,17 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>,Temperature-AdultHolding,Food-FoodWebResources,Temperature-Rearing</t>
+          <t>Temperature- Adult Holding,Food- Food Web Resources,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5352,17 +5352,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>,Food-FoodWebResources</t>
+          <t>Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>,Enhance Food Resources</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5404,17 +5404,17 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>,Food-FoodWebResources</t>
+          <t>Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>,Enhance Food Resources</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5456,17 +5456,17 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>,Food-FoodWebResources</t>
+          <t>Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>,Enhance Food Resources</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5508,17 +5508,17 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Food-FoodWebResources</t>
+          <t>Coarse Substrate,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>,Enhance Food Resources</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
     </row>
@@ -5602,17 +5602,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Riparian-Disturbance_score,Riparian_Mean,Cover-Wood,Temperature-AdultHolding,Temperature-Rearing</t>
+          <t>Coarse Substrate,Cover- Wood,Riparian-Disturbance,Riparian Mean,Cover- Wood,Temperature- Adult Holding,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5654,12 +5654,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
     </row>
@@ -5701,17 +5701,17 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Food-FoodWebResources</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>,Enhance Food Resources</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5753,17 +5753,17 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Cover-Wood</t>
+          <t>Coarse Substrate,Cover- Wood,Cover- Wood</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources,Fish Passage Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
@@ -5805,12 +5805,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
     </row>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Food-FoodWebResources</t>
+          <t>Coarse Substrate,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>,Enhance Food Resources</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5904,17 +5904,17 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Food-FoodWebResources</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>,Enhance Food Resources</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -5956,17 +5956,17 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Cover-Wood</t>
+          <t>Coarse Substrate,Cover- Wood,Cover- Wood</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -6008,17 +6008,17 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Cover-Wood_score,Cover-Wood</t>
+          <t>Coarse Substrate,Cover- Wood,Cover- Wood</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
     </row>
@@ -6102,17 +6102,17 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Cover-Wood_score,Cover-Wood</t>
+          <t>Cover- Wood,Cover- Wood</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -6154,17 +6154,17 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>BankStability_score,ChannelStability_score,Stability_Mean,Cover-Wood_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score,Cover-Wood</t>
+          <t>Bank Stability,Channel Stability,Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>,Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score,Flow-SummerBaseFlow_score,Off-Channel-Floodplain_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
     </row>
@@ -6248,12 +6248,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow_score,Riparian-Disturbance_score,Riparian_Mean,Temperature-Rearing_score</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>CoarseSubstrate_score</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
     </row>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6290,17 +6290,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality</t>
+          <t>Stability,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6342,17 +6342,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Temperature-Rearing</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6394,17 +6394,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6446,17 +6446,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,Cover- Undercut Banks,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6498,17 +6498,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6550,17 +6550,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Coarse Substrate,Cover- Wood,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6602,17 +6602,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6654,17 +6654,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6706,17 +6706,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6758,17 +6758,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6810,17 +6810,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Cover-Wood,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6867,12 +6867,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Temperature- Rearing</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6919,12 +6919,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Temperature-Rearing</t>
+          <t>Temperature- Rearing</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Riparian</t>
+          <t>Stability,Off-Channel- Floodplain,Riparian</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6971,12 +6971,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7075,12 +7075,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -7122,17 +7122,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing, multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover- Wood,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks</t>
+          <t>Stability,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Pools- Deep Pools</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -7179,12 +7179,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Cover-Wood,PoolQuantity&amp;Quality</t>
+          <t>Cover- Wood,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7226,17 +7226,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow</t>
+          <t>Cover- Wood,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -7263,7 +7263,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7278,17 +7278,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Fry,Spawning and Incubation,Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow- Summer Base Flow,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7330,17 +7330,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Flow- Summer Base Flow,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7367,7 +7367,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7382,17 +7382,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
+          <t>Coarse Substrate,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7434,17 +7434,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7486,17 +7486,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Stability,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7538,17 +7538,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7590,17 +7590,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7642,17 +7642,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Spawning,Cover- Boulders</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7694,17 +7694,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Spawning</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness,Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7746,17 +7746,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Boulders</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7798,17 +7798,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
+          <t>Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7850,17 +7850,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7902,17 +7902,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>PoolQuantity&amp;Quality,Riparian</t>
+          <t>Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7954,17 +7954,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing,Contaminants</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,PoolQuantity&amp;Quality,Riparian,Cover-UndercutBanks</t>
+          <t>Coarse Substrate,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7991,7 +7991,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8006,17 +8006,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>CoarseSubstrate,Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8058,17 +8058,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8110,17 +8110,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8162,17 +8162,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8214,17 +8214,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8266,17 +8266,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,PoolQuantity&amp;Quality</t>
+          <t>Stability,Off-Channel- Floodplain,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8318,17 +8318,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing,Cover-UndercutBanks,Temperature-AdultHolding</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8370,17 +8370,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Temperature-Rearing,Cover-UndercutBanks,Temperature-AdultHolding</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Cover-Wood,Food-FoodWebResources</t>
+          <t>Cover- Wood,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8439,7 +8439,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Entiat River Mills 07</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -8457,41 +8457,36 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Wood</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Temperature-AdultHolding</t>
+          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Channel Complexity Restoration,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Entiat River Mills 08</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8501,7 +8496,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -8509,41 +8504,36 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover- Wood,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Entiat River Lake 05</t>
+          <t>Entiat River Potato 01</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8553,7 +8543,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8561,41 +8551,36 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Entiat River Lake 06</t>
+          <t>Entiat River Potato 02</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8605,7 +8590,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8615,34 +8600,34 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,PoolQuantity&amp;Quality,Temperature-AdultHolding</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Channel Complexity Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Entiat River Lake 07</t>
+          <t>Entiat River Potato 04</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8652,7 +8637,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8662,34 +8647,34 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Holding and Maturation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Cover-UndercutBanks,PoolQuantity&amp;Quality</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Fine Sediment Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Entiat River Lake 11</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8699,7 +8684,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8707,46 +8692,51 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Off-Channel-Side-Channels</t>
+          <t>Cover- Boulders,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 01</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8754,46 +8744,51 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover- Boulders</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 02</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -8801,36 +8796,41 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover- Wood</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Boulders,Cover- Undercut Banks,Flow- Summer Base Flow,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 03</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -8850,17 +8850,17 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Bull Trout</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>PRCNT Fines and Embeddedness,Brook Trout</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8870,34 +8870,34 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 04</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Address Limiting Factors, Restore Fish Passage</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8907,12 +8907,12 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Adult Migration, multiple (barrier pathway)</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Food- Food Web Resources</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8922,24 +8922,24 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Fish Passage Restoration</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 05</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -8954,39 +8954,39 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
+          <t>Cover- Wood,Food- Food Web Resources</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow</t>
-        </is>
-      </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 08</t>
+          <t>Salmon 16-2</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -9011,39 +9011,34 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow</t>
+          <t>Cover- Wood,Temperature- Adult Holding,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Mad River Lower 02</t>
+          <t>Similkameen 16-6</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Address Limiting Factors, Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -9053,29 +9048,29 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Holding and Maturation, multiple (barrier pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Cover-Boulders,Cover-UndercutBanks,Cover-Wood,PoolQuantity&amp;Quality,Temperature-AdultHolding</t>
+          <t>Cover- Wood</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Pools-DeepPools</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement,Fish Passage Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Mad River Lower 03</t>
+          <t>Stormy Creek 01</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -9085,7 +9080,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -9095,44 +9090,44 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Holding and Maturation</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Cover-UndercutBanks,PoolQuantity&amp;Quality,Pools-DeepPools,Temperature-AdultHolding</t>
+          <t>Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Cover-Boulders,Cover-Wood</t>
+          <t>Cover- Undercut Banks,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Mad River Lower 04</t>
+          <t>Wenatchee River Beaver 13</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -9142,69 +9137,69 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Holding and Maturation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Cover-Boulders,Cover-UndercutBanks,PoolQuantity&amp;Quality,Temperature-AdultHolding</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Pools-DeepPools</t>
+          <t>Cover- Undercut Banks,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Mad River Lower 02</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Fish Passage</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Holding and Maturation</t>
+          <t>multiple (barrier pathway)</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Cover-UndercutBanks,Temperature-AdultHolding</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9214,14 +9209,14 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Icicle Creek Lower 04</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9231,84 +9226,84 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Fish Passage</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Holding and Maturation</t>
+          <t>multiple (barrier pathway)</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Temperature-AdultHolding</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Cover-UndercutBanks,Flow-SummerBaseFlow</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Mission Creek 01</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Fish Passage</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>multiple (barrier pathway)</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Food-FoodWebResources</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -9318,44 +9313,49 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Enhance Food Resources</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Mission Creek 02</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>multiple (barrier pathway)</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Cover-Wood,Food-FoodWebResources</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -9365,14 +9365,14 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Salmon 16-2</t>
+          <t>Aeneas 16-1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9382,12 +9382,17 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Aeneas Creek Okanogan</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9397,7 +9402,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>multiple (barrier pathway)</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9407,19 +9412,19 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-AdultHolding,Temperature-Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Similkameen 16-6</t>
+          <t>Johnson 16-3</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9429,27 +9434,27 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>multiple (barrier pathway)</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Cover-Wood</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -9458,444 +9463,6 @@
         </is>
       </c>
       <c r="J178" t="inlineStr">
-        <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 03</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>Adult Migration</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 04</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Adult Migration</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 05</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>Adult Migration</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 06</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Adult Migration</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 07</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>Adult Migration</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Flow-SummerBaseFlow</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Mission Creek 01</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Mission Creek-Brender Creek</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Spring Chinook,Steelhead</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>multiple (barrier pathway)</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Fish Passage Restoration</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Mission Creek 02</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Mission Creek-Brender Creek</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Spring Chinook,Steelhead</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>multiple (barrier pathway)</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Fish Passage Restoration</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Aeneas 16-1</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Aeneas Creek Okanogan</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>multiple (barrier pathway)</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Fish Passage Restoration</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Johnson 16-3</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>multiple (barrier pathway)</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
         <is>
           <t>Fish Passage Restoration</t>
         </is>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,12 +447,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood,Food- Food Web Resources</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Bank Stability,Channel Stability,Stability</t>
+          <t>Bank Stability,Channel Stability,Stability,Coarse Substrate</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Food- Food Web Resources</t>
+          <t>Coarse Substrate,Cover- Wood,Cover- Wood,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -599,6 +599,11 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>Cover- Wood,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Coarse Substrate</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -650,7 +655,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Food- Food Web Resources</t>
+          <t>Coarse Substrate,Cover- Wood,Cover- Wood,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1160,22 +1165,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation, multiple (HQ pathway)</t>
+          <t>Fry,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Undercut Banks,Pools- Deep Pools,Temperature- Adult Holding</t>
+          <t>Cover- Wood,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1254,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1264,17 +1269,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian,PRCNT Fines and Embeddedness</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1301,12 +1306,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1316,17 +1321,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian,PRCNT Fines and Embeddedness</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1353,7 +1358,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1368,7 +1373,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1378,7 +1383,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1618,7 +1623,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1717,7 +1722,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1732,7 +1737,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Fry, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1925,7 +1930,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1940,7 +1945,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1950,12 +1955,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain,Cover- Undercut Banks,Food- Food Web Resources,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement,Enhance Food Resources,Fine Sediment Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1982,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1992,7 +1997,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2029,7 +2034,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2044,7 +2049,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2081,7 +2086,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2096,7 +2101,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2133,7 +2138,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2148,7 +2153,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2158,12 +2163,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Riparian,Cover- Undercut Banks,Food- Food Web Resources</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2190,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2200,7 +2205,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2210,12 +2215,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Food- Food Web Resources</t>
+          <t>Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2242,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2252,7 +2257,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2304,22 +2309,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Cover- Boulders</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Cover- Boulders,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2351,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2356,7 +2361,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2366,12 +2371,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2398,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2408,17 +2413,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2465,12 +2470,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2497,7 +2502,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2512,17 +2517,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2549,7 +2554,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2564,17 +2569,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow</t>
+          <t>Flow- Summer Base Flow,Riparian</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2621,12 +2626,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow</t>
+          <t>Flow- Summer Base Flow,Riparian</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2653,7 +2658,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2668,17 +2673,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2710,7 +2715,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2757,7 +2762,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2772,17 +2777,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2861,7 +2866,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2876,7 +2881,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2886,7 +2891,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2913,7 +2918,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2928,7 +2933,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2938,7 +2943,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2988,6 +2993,11 @@
           <t>Bank Stability,Channel Stability,Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Pool Quantity and Quality</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
@@ -3035,6 +3045,11 @@
           <t>Bank Stability,Channel Stability,Stability,Cover- Wood,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Pool Quantity and Quality</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
@@ -3079,7 +3094,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Coarse Substrate</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3129,6 +3149,11 @@
           <t>Cover- Wood,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Coarse Substrate</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
@@ -3153,7 +3178,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3168,22 +3193,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Cover- Boulders</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -3438,12 +3463,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -3490,12 +3515,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3666,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Stability,Riparian</t>
+          <t>Stability</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4317,12 +4342,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Side-Channels,Riparian</t>
+          <t>Stability,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4438,7 +4463,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4468,29 +4493,29 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Temperature- Rearing,Temperature- Adult Holding,Brook Trout</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Bank Restoration,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4520,29 +4545,29 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Holding,Brook Trout</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks,Pools- Deep Pools</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4562,7 +4587,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4572,29 +4597,29 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Summer Rearing,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Holding,Brook Trout</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks,Pools- Deep Pools</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4614,7 +4639,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4624,29 +4649,29 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Holding,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks,Pools- Deep Pools,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4666,7 +4691,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4676,17 +4701,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Contaminants,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Holding,Brook Trout</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Riparian</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks,Pools- Deep Pools</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4698,7 +4723,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4718,7 +4743,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4728,17 +4753,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,BT Subadult Rearing, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Cover- Undercut Banks,Brook Trout</t>
+          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Contaminants,Temperature- Adult Spawning,Pools- Deep Pools,Temperature- Adult Holding,Brook Trout</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Cover- Boulders</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Riparian</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4750,7 +4775,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4780,17 +4805,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Cover- Boulders,Cover- Undercut Banks,Brook Trout</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Undercut Banks,Temperature- Adult Holding,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Cover- Boulders,Pools- Deep Pools</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4802,7 +4827,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4832,29 +4857,29 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks,Temperature- Adult Holding,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Pools- Deep Pools</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4884,17 +4909,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Spawning and Incubation,Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding,Brook Trout</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4906,7 +4931,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4926,7 +4951,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4936,17 +4961,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Holding,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Cover- Undercut Banks,Pools- Deep Pools,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4958,7 +4983,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4978,7 +5003,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4988,17 +5013,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Holding,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Cover- Undercut Banks,Pools- Deep Pools,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5010,7 +5035,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5040,17 +5065,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Temperature- Rearing,Temperature- Adult Spawning,,Brook Trout</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Holding,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Cover- Boulders,Cover- Undercut Banks,Pools- Deep Pools,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5062,17 +5087,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -5087,34 +5112,34 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Temperature- Rearing,Temperature- Adult Holding,Temperature- Adult Spawning,Brook Trout</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Food- Food Web Resources</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks,Pools- Deep Pools,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Enhance Food Resources</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5134,7 +5159,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5144,29 +5169,29 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Temperature- Adult Holding,Temperature- Rearing</t>
+          <t>Coarse Substrate,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Water Quality Improvement,Enhance Food Resources</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5186,7 +5211,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5201,12 +5226,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Temperature- Adult Holding,Food- Food Web Resources,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Coarse Substrate</t>
+          <t>Coarse Substrate,Temperature- Adult Holding,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5218,7 +5243,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Omak 16-4</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5233,7 +5258,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5248,24 +5273,29 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Temperature- Adult Holding,Food- Food Web Resources,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
           <t>Coarse Substrate</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Omak 16-4</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5275,12 +5305,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5295,29 +5325,24 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Temperature- Adult Holding,Food- Food Web Resources,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Water Quality Improvement,Enhance Food Resources</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5337,7 +5362,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5347,7 +5372,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5357,19 +5382,19 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources</t>
+          <t>Coarse Substrate,Pool Quantity and Quality,Temperature- Adult Holding,Food- Food Web Resources,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Enhance Food Resources</t>
+          <t>Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5389,7 +5414,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5404,12 +5429,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources</t>
+          <t>Coarse Substrate,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5421,7 +5446,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5441,7 +5466,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5456,12 +5481,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources</t>
+          <t>Coarse Substrate,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5473,7 +5498,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5493,7 +5518,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5513,7 +5538,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Food- Food Web Resources</t>
+          <t>Coarse Substrate,Pool Quantity and Quality,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5525,7 +5550,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Salmon 16-1</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5535,17 +5560,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5555,19 +5580,29 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
           <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Food- Food Web Resources</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Salmon 16-1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5582,12 +5617,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5597,29 +5632,24 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Riparian-Disturbance,Riparian Mean,Cover- Wood,Temperature- Adult Holding,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Salmon 16-13</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5634,12 +5664,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5649,24 +5679,29 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Coarse Substrate</t>
+          <t>Coarse Substrate,Cover- Wood,Riparian-Disturbance,Riparian Mean,Cover- Wood,Temperature- Adult Holding,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5681,12 +5716,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5696,29 +5731,19 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Food- Food Web Resources</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Coarse Substrate</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Enhance Food Resources</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5733,7 +5758,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors, Restore Fish Passage</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5748,29 +5773,29 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway), multiple (barrier pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Cover- Wood</t>
+          <t>Coarse Substrate,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources,Fish Passage Restoration</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Salmon 16-5</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5785,7 +5810,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors, Restore Fish Passage</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5800,7 +5825,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway), multiple (barrier pathway)</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5810,14 +5835,19 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Coarse Substrate</t>
+          <t>Coarse Substrate,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5832,12 +5862,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5847,7 +5877,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5857,19 +5887,14 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Food- Food Web Resources</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Enhance Food Resources</t>
+          <t>Coarse Substrate,Pool Quantity and Quality</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5904,12 +5929,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Food- Food Web Resources</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Coarse Substrate</t>
+          <t>Coarse Substrate,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5921,7 +5946,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5941,7 +5966,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5951,29 +5976,29 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Cover- Wood</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5993,7 +6018,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6025,7 +6050,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Similkameen 16-1</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6035,12 +6060,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6055,19 +6080,29 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Similkameen 16-1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6082,12 +6117,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6097,29 +6132,19 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Cover- Wood</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6154,24 +6179,24 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Bank Stability,Channel Stability,Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Coarse Substrate</t>
+          <t>Cover- Wood,Cover- Wood</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Similkameen 16-4</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6186,12 +6211,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6201,19 +6226,29 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Bank Stability,Channel Stability,Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Coarse Substrate</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Similkameen 16-5</t>
+          <t>Similkameen 16-4</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6248,34 +6283,29 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Coarse Substrate</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Similkameen 16-5</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6285,34 +6315,29 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Stability,Pool Quantity and Quality</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6327,12 +6352,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6342,17 +6367,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6364,7 +6389,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6379,12 +6404,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6394,17 +6419,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Side-Channels,Riparian</t>
+          <t>Stability,Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6416,7 +6441,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6431,7 +6456,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6446,12 +6471,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,Cover- Undercut Banks,Pools- Deep Pools,Temperature- Adult Holding</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6468,7 +6493,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6498,12 +6523,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Winter Rearing,Fry, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6520,7 +6545,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6535,12 +6560,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6550,29 +6575,29 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6587,12 +6612,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6602,17 +6627,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks,PRCNT Fines and Embeddedness</t>
+          <t>Coarse Substrate,Cover- Wood,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6624,7 +6649,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6639,7 +6664,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6654,29 +6679,29 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Cover- Wood,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6696,7 +6721,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6706,29 +6731,29 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6743,12 +6768,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6758,29 +6783,29 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6795,12 +6820,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6810,29 +6835,29 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Cover- Wood,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6842,7 +6867,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6852,7 +6877,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6867,24 +6892,24 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Temperature- Rearing</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6904,7 +6929,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6924,19 +6949,19 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain,Riparian</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6971,24 +6996,24 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing</t>
+          <t>Temperature- Rearing</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Off-Channel- Floodplain,Riparian</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7008,7 +7033,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7040,7 +7065,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7092,7 +7117,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7107,12 +7132,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7122,29 +7147,29 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Cover- Wood,Pool Quantity and Quality</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Pools- Deep Pools</t>
+          <t>Coarse Substrate,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Floodplain Reconnection,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7159,7 +7184,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7174,7 +7199,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing,Fry, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -7196,22 +7221,22 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7226,29 +7251,29 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow</t>
+          <t>Cover- Wood,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Stability,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Fine Sediment Management</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7263,7 +7288,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7278,29 +7303,29 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Fry,Spawning and Incubation,Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7320,7 +7345,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7330,12 +7355,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7352,7 +7377,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7367,12 +7392,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7382,29 +7407,29 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Pool Quantity and Quality,Riparian,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7419,7 +7444,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7434,29 +7459,29 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Stability,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Coarse Substrate,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7471,12 +7496,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7486,12 +7511,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7508,7 +7533,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7528,7 +7553,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7538,17 +7563,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
+          <t>Stability,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7560,7 +7585,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7575,7 +7600,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7590,29 +7615,29 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Riparian,Cover- Undercut Banks</t>
+          <t>Stability,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7627,12 +7652,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7642,29 +7667,29 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Spawning,Cover- Boulders</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness,Cover- Undercut Banks</t>
+          <t>Riparian</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7679,12 +7704,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7694,29 +7719,29 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Spawning</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness,Cover- Boulders,Cover- Undercut Banks</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7731,7 +7756,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7746,29 +7771,29 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,Temperature- Adult Spawning,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Boulders</t>
+          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7778,12 +7803,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7793,34 +7818,34 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7835,12 +7860,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7850,17 +7875,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
+          <t>Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7872,7 +7897,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7887,7 +7912,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7902,17 +7927,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Riparian</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7924,7 +7949,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7939,12 +7964,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7954,29 +7979,29 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness</t>
+          <t>Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7996,7 +8021,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -8006,17 +8031,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>Fry,Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,Contaminants</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness</t>
+          <t>Coarse Substrate,Pool Quantity and Quality,Cover- Undercut Banks</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8028,7 +8053,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8038,12 +8063,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8058,29 +8083,29 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8090,17 +8115,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8110,29 +8135,29 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8147,12 +8172,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8162,7 +8187,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -8184,7 +8209,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8199,12 +8224,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8214,17 +8239,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8236,7 +8261,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8251,12 +8276,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8266,17 +8291,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain,Pool Quantity and Quality</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8288,7 +8313,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 01</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8298,7 +8323,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -8308,7 +8333,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8323,24 +8348,24 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Off-Channel- Floodplain,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 02</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8355,12 +8380,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8370,44 +8395,49 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,Cover- Undercut Banks,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Pool Quantity and Quality,Riparian</t>
+          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Antoine 16-2</t>
+          <t>Wenatchee River Tumwater 02</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8417,39 +8447,39 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Fry,Holding and Maturation,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Cover- Wood,Food- Food Web Resources</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Riparian,Temperature- Rearing,Cover- Undercut Banks,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Stability,Coarse Substrate,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Entiat River Mills 07</t>
+          <t>Antoine 16-2</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -8457,6 +8487,11 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr">
         <is>
           <t>Steelhead</t>
@@ -8464,39 +8499,39 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Entiat River Mills 08</t>
+          <t>Eight Mile Creek 07</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Eight Mile Creek</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -8506,44 +8541,44 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Bull Trout</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>PRCNT Fines and Embeddedness,Brook Trout</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Entiat River Potato 01</t>
+          <t>Eight Mile Creek 09</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Eight Mile Creek</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -8553,34 +8588,34 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Bull Trout</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>PRCNT Fines and Embeddedness,Brook Trout</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Brook Trout Management</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Entiat River Potato 02</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8590,7 +8625,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -8598,36 +8633,41 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Bull Trout</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Off-Channel- Floodplain</t>
+          <t>Flow- Summer Base Flow,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Channel Complexity Restoration,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Entiat River Potato 04</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8637,7 +8677,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -8645,36 +8685,41 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Bull Trout</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Lake 05</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8684,7 +8729,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -8699,34 +8744,34 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Entiat River Lake 06</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8736,7 +8781,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8744,41 +8789,36 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring Chinook,Bull Trout</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration,Holding and Maturation</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Cover- Boulders</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Channel Complexity Restoration,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8796,19 +8836,14 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring Chinook,Bull Trout</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Holding and Maturation,BT Natal Rearing</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8818,29 +8853,29 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Flow- Summer Base Flow,Off-Channel- Side-Channels</t>
+          <t>Cover- Undercut Banks,Pool Quantity and Quality,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Fine Sediment Management,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Entiat River Lake 11</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -8850,17 +8885,17 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Bull Trout</t>
+          <t>Spring Chinook,Bull Trout</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>PRCNT Fines and Embeddedness,Brook Trout</t>
+          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8870,24 +8905,24 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Brook Trout Management</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Entiat River Potato 04</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -8895,11 +8930,6 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F167" t="inlineStr">
         <is>
           <t>Steelhead</t>
@@ -8907,39 +8937,39 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources</t>
+          <t>Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>PRCNT Fines and Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Enhance Food Resources</t>
+          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Icicle Creek Lower 01</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -8949,17 +8979,17 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Cover- Wood,Food- Food Web Resources</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8969,24 +8999,24 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Salmon 16-2</t>
+          <t>Icicle Creek Lower 02</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -8996,44 +9026,44 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
+          <t>Flow- Summer Base Flow</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Temperature- Adult Holding,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Similkameen 16-6</t>
+          <t>Icicle Creek Lower 03</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -9043,17 +9073,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9063,61 +9093,66 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Stormy Creek 01</t>
+          <t>Icicle Creek Lower 04</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Address Limiting Factors</t>
+          <t>Address Limiting Factors, Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Adult Migration, multiple (barrier pathway)</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Channel Complexity Restoration,Fine Sediment Management</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 13</t>
+          <t>Icicle Creek Lower 05</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -9127,7 +9162,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -9137,64 +9172,59 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Channel Complexity Restoration,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Mad River Lower 02</t>
+          <t>Icicle Creek Lower 08</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>multiple (barrier pathway)</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -9204,49 +9234,44 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 04</t>
+          <t>Lake Creek Methow 05</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Lake Creek (Methow)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Bull Trout</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>multiple (barrier pathway)</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -9256,34 +9281,34 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Mission Creek 01</t>
+          <t>Mad River Lower 02</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
+          <t>Address Limiting Factors, Restore Fish Passage</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9293,106 +9318,96 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>multiple (barrier pathway)</t>
+          <t>Holding and Maturation, multiple (barrier pathway)</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity and Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Pools- Deep Pools</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Mission Creek 02</t>
+          <t>Mad River Lower 03</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>multiple (barrier pathway)</t>
+          <t>Holding and Maturation</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Undercut Banks,Pool Quantity and Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Boulders,Cover- Wood</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Aeneas 16-1</t>
+          <t>Mad River Lower 04</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Aeneas Creek Okanogan</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9402,67 +9417,770 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>multiple (barrier pathway)</t>
+          <t>Holding and Maturation</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Boulders,Cover- Undercut Banks,Pool Quantity and Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Pools- Deep Pools</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Complexity Restoration,Bank Restoration,Channel Modification,Riparian Restoration and Management,Fine Sediment Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
+          <t>Nason Creek Lower 01</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Bull Trout</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>BT Natal Rearing</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Brook Trout,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Off-Channel- Floodplain</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Brook Trout Management,Bank Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 02</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,BT Natal Rearing,Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Temperature- Adult Holding,Brook Trout,PRCNT Fines and Embeddedness</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Off-Channel- Floodplain,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Brook Trout Management,Floodplain Reconnection,Channel Complexity Restoration,Fine Sediment Management,Upland Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Salmon 16-11</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Food- Food Web Resources</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Enhance Food Resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Salmon 16-12</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Food- Food Web Resources</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Salmon 16-2</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Temperature- Adult Holding,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Similkameen 16-6</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Cover- Wood</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 03</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Adult Migration</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 04</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Adult Migration</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 05</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Adult Migration</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 06</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Adult Migration</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 07</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Address Limiting Factors</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Adult Migration</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Mission Creek 01</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>multiple (barrier pathway)</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mission Creek 02</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>multiple (barrier pathway)</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Aeneas 16-1</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Aeneas Creek Okanogan</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>multiple (barrier pathway)</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
           <t>Johnson 16-3</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>Okanogan</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>Johnson Creek</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>Restore Fish Passage</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>multiple (barrier pathway)</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
+      <c r="I192" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>Fish Passage Restoration</t>
         </is>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Undercut Banks</t>
+          <t>Cover- Wood</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fry, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Fry, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Smolt Outmigration, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian,Temperature- Rearing,Predators-Juveniles</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement,Predator Management</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Fry, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Fry, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,BT Natal Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Cover- Wood,Riparian,Temperature- Rearing,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7563,12 +7563,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Pool Quantity and Quality,Cover- Undercut Banks</t>
+          <t>Coarse Substrate,Pool Quantity and Quality,Cover- Undercut Banks,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Adult Migration,Fry,Holding and Maturation,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Adult Migration,Holding and Maturation,Summer Rearing, multiple (HQ pathway)</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8789,6 +8789,11 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr">
         <is>
           <t>Spring Chinook,Bull Trout</t>
@@ -8836,6 +8841,11 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr">
         <is>
           <t>Spring Chinook,Bull Trout</t>
@@ -9363,6 +9373,11 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr">
         <is>
           <t>Steelhead</t>
@@ -9410,6 +9425,11 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F177" t="inlineStr">
         <is>
           <t>Steelhead</t>
@@ -9439,17 +9459,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Methow River Alta Coulee 06</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -9459,39 +9479,39 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Bull Trout</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>BT Natal Rearing</t>
+          <t>Fry</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Brook Trout,Temperature- Rearing</t>
+          <t>Cover- Wood</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Off-Channel- Floodplain</t>
+          <t>Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Brook Trout Management,Bank Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9511,49 +9531,49 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Bull Trout</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Holding and Maturation,BT Natal Rearing,Spawning and Incubation</t>
+          <t>BT Natal Rearing</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Temperature- Adult Holding,Brook Trout,PRCNT Fines and Embeddedness</t>
+          <t>Brook Trout,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain,Temperature- Rearing</t>
+          <t>Cover- Undercut Banks,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Brook Trout Management,Floodplain Reconnection,Channel Complexity Restoration,Fine Sediment Management,Upland Management</t>
+          <t>Brook Trout Management,Bank Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -9568,34 +9588,34 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Holding and Maturation,BT Natal Rearing,Spawning and Incubation</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources</t>
+          <t>Cover- Undercut Banks,Temperature- Adult Holding,Brook Trout,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Off-Channel- Floodplain,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Enhance Food Resources</t>
+          <t>Bank Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Brook Trout Management,Floodplain Reconnection,Channel Complexity Restoration,Fine Sediment Management,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9625,12 +9645,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Cover- Wood,Food- Food Web Resources</t>
+          <t>Food- Food Web Resources</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -9640,14 +9660,14 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Salmon 16-2</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9667,7 +9687,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -9682,24 +9702,24 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
+          <t>Cover- Wood,Food- Food Web Resources</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>Cover- Wood,Temperature- Adult Holding,Temperature- Rearing</t>
-        </is>
-      </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Similkameen 16-6</t>
+          <t>Salmon 16-2</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9709,7 +9729,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -9719,7 +9739,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9734,34 +9754,34 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Wood,Temperature- Adult Holding,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 03</t>
+          <t>Similkameen 16-6</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -9769,6 +9789,11 @@
           <t>Address Limiting Factors</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr">
         <is>
           <t>Steelhead</t>
@@ -9776,12 +9801,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Adult Migration</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow</t>
+          <t>Cover- Wood</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -9791,14 +9816,14 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
+          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 04</t>
+          <t>Wenatchee River Tumwater 03</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9845,7 +9870,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 05</t>
+          <t>Wenatchee River Tumwater 04</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9892,7 +9917,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 06</t>
+          <t>Wenatchee River Tumwater 05</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9939,7 +9964,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 07</t>
+          <t>Wenatchee River Tumwater 06</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9986,7 +10011,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Mission Creek 01</t>
+          <t>Wenatchee River Tumwater 07</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9996,49 +10021,44 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Restore Fish Passage</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>Address Limiting Factors</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>multiple (barrier pathway)</t>
+          <t>Adult Migration</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
+          <t>Flow- Summer Base Flow</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Fish Passage Restoration</t>
+          <t>Channel Modification,Instream Flow Enhancement,Upland Management</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Mission Creek 02</t>
+          <t>Mission Creek 01</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -10090,17 +10110,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Aeneas 16-1</t>
+          <t>Mission Creek 02</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Aeneas Creek Okanogan</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -10115,7 +10135,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Steelhead</t>
+          <t>Spring Chinook,Steelhead,Bull Trout</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -10142,45 +10162,97 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
+          <t>Aeneas 16-1</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Aeneas Creek Okanogan</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Restore Fish Passage</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>multiple (barrier pathway)</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
           <t>Johnson 16-3</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Okanogan</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>Johnson Creek</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>Restore Fish Passage</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>multiple (barrier pathway)</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
+      <c r="I193" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>Fish Passage Restoration</t>
         </is>

--- a/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
+++ b/Output/Restoration_Prioritization_Output_for_WebMap_Table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,7 +442,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,WaterQualityImprovement,EnhanceFoodResources</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,EnhanceFoodResources</t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,EnhanceFoodResources</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway), multiple (barrier pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources,Fish Passage Restoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,EnhanceFoodResources,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway), multiple (barrier pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -707,12 +707,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain</t>
+          <t>Flow- Summer Base Flow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Bank Restoration,Side Channel and Off-Channel Habitat Restoration,Fish Passage Restoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Bank Restoration,Side Channel and Off-Channel Habitat Restoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -848,12 +848,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -863,12 +863,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -915,12 +915,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -952,12 +952,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,FloodplainConnectivity,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1160,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1175,12 +1175,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,FloodplainConnectivity,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement</t>
         </is>
       </c>
     </row>
@@ -1212,27 +1212,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
+          <t>Stability,Flow- Summer Base Flow,FloodplainConnectivity,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1306,22 +1306,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian</t>
+          <t>Coarse Substrate,Flow- Summer Base Flow,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Bank Restoration,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1368,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1472,12 +1472,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1524,12 +1524,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1571,32 +1571,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Temperature- Rearing</t>
+          <t>Cover- Wood,FloodplainConnectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1623,17 +1623,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1680,27 +1680,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Temperature- Rearing</t>
+          <t>Cover- Wood,FloodplainConnectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1732,27 +1732,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Temperature- Rearing</t>
+          <t>Cover- Wood,FloodplainConnectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1784,27 +1784,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Temperature- Rearing</t>
+          <t>Cover- Wood,FloodplainConnectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels</t>
+          <t>Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowEnhancement,,RiparianRestorationandManagement</t>
         </is>
       </c>
     </row>
@@ -1888,12 +1888,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Instream Flow Enhancement,Riparian Restoration and Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowEnhancement,RiparianRestorationandManagement</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fry, multiple (HQ pathway)</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain</t>
+          <t>Stability,FloodplainConnectivity,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,,WaterQualityImprovement,FineSedimentManagement,UplandManagement</t>
         </is>
       </c>
     </row>
@@ -1992,17 +1992,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2044,17 +2044,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2143,22 +2143,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2195,22 +2195,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,,FineSedimentManagement</t>
         </is>
       </c>
     </row>
@@ -2252,27 +2252,27 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Temperature- Rearing</t>
+          <t>Cover- Wood,FloodplainConnectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Off-Channel/Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2294,37 +2294,37 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook,Bull_Trout</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain</t>
+          <t>Cover- Wood,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian,Cover- Boulders,Temperature- Adult Holding</t>
+          <t>Stability,Flow- Summer Base Flow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement</t>
         </is>
       </c>
     </row>
@@ -2346,22 +2346,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spring Chinook,Bull Trout</t>
+          <t>Spring_Chinook,Bull_Trout</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Adult Migration,Holding and Maturation, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2371,12 +2371,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Temperature- Adult Holding</t>
+          <t>Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2413,22 +2413,22 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Smolt Outmigration, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian,Temperature- Rearing,Predators-Juveniles</t>
+          <t>Temperature- Rearing</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement,Predator Management</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2465,22 +2465,22 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian,Temperature- Rearing</t>
+          <t>Temperature- Rearing</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2517,22 +2517,22 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Riparian</t>
+          <t>Cover- Wood</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2569,22 +2569,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2621,22 +2621,22 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2668,27 +2668,27 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Boulders</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2735,12 +2735,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,UplandManagement,,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2772,27 +2772,27 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover- Boulders</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2824,12 +2824,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Instream Flow Enhancement,Upland Management,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,UplandManagement,,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2876,12 +2876,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2891,12 +2891,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity and Quality,Riparian,Cover- Boulders</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
     </row>
@@ -2928,12 +2928,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
+          <t>Flow- Summer Base Flow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
     </row>
@@ -2985,12 +2985,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Bank Stability,Channel Stability,Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
+          <t>Bank Stability,Channel Stability,Stability,Cover- Wood,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,WaterQualityImprovement,EnhanceFoodResources</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Pool Quantity and Quality</t>
+          <t>Coarse Substrate,Pool Quantity and Quality,Coarse Substrate,,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,EnhanceFoodResources</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway), multiple (barrier pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Fish Passage Restoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,Fish Passage Restoration</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Cover- Wood</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Enhance Food Resources</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,EnhanceFoodResources</t>
         </is>
       </c>
     </row>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3193,22 +3193,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Holding and Maturation, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks,Pools- Deep Pools,Temperature- Adult Holding</t>
+          <t>Stability,Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Cover- Boulders</t>
+          <t>Coarse Substrate,Riparian</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement</t>
         </is>
       </c>
     </row>
@@ -3245,22 +3245,22 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -3297,22 +3297,22 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Stability,Coarse Substrate,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -3349,22 +3349,22 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Stability,Coarse Substrate,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3401,22 +3401,22 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -3448,12 +3448,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3463,12 +3463,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
+          <t>FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Riparian Restoration and Management,Water Quality Improvement</t>
+          <t>ChannelModification,InstreamFlowEnhancement,UplandManagement,,BankRestoration,FloodplainReconnection,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -3500,12 +3500,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3515,12 +3515,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -3552,27 +3552,27 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain,Temperature- Rearing</t>
+          <t>FloodplainConnectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -3604,12 +3604,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3619,12 +3619,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -3656,27 +3656,27 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Stability</t>
+          <t>Stability,Riparian</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement</t>
         </is>
       </c>
     </row>
@@ -3708,17 +3708,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement</t>
         </is>
       </c>
     </row>
@@ -3760,17 +3760,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement</t>
         </is>
       </c>
     </row>
@@ -3812,27 +3812,27 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Side-Channels,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Floodplain,Pool Quantity and Quality</t>
+          <t>Stability,FloodplainConnectivity,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement</t>
         </is>
       </c>
     </row>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3864,27 +3864,27 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Fry</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Side-Channels</t>
+          <t>Stability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement</t>
         </is>
       </c>
     </row>
@@ -3916,27 +3916,27 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Side-Channels</t>
+          <t>Stability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement</t>
         </is>
       </c>
     </row>
@@ -3973,22 +3973,22 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4025,22 +4025,22 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4077,22 +4077,22 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Fry, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4129,22 +4129,22 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4181,22 +4181,22 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
+          <t>Cover- Wood,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing</t>
+          <t>Stability,Coarse Substrate,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4280,12 +4280,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4295,12 +4295,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Off-Channel- Floodplain,Riparian</t>
+          <t>Stability,Cover- Wood,FloodplainConnectivity,Riparian</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement</t>
         </is>
       </c>
     </row>
@@ -4332,27 +4332,27 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Riparian</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Side-Channels</t>
+          <t>Stability,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement</t>
         </is>
       </c>
     </row>
@@ -4384,27 +4384,27 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain</t>
+          <t>Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel- Side-Channels,Riparian,Temperature- Rearing</t>
+          <t>Stability,Off-Channel/Side-Channels,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Water Quality Improvement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Spring Chinook</t>
+          <t>Spring_Chinook</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
+          <t>Off-Channel/Side-Channels,Pool Quantity and Quality,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Bank Restoration,Floodplain Reconnection,Water Quality Improvement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4488,27 +4488,27 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Holding and Maturation,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Temperature- Rearing,Temperature- Adult Holding,Brook Trout</t>
+          <t>Temperature- Rearing</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,Cover- Undercut Banks</t>
+          <t>Flow- Summer Base Flow,FloodplainConnectivity</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Channel Modification,Instream Flow Enhancement,Upland Management,Floodplain Reconnection,Bank Restoration,Riparian Restoration and Management,Side Channel and Off-Channel Habitat Restoration,Water Quality Improvement,Brook Trout Management</t>
+          <t>ChannelModification,InstreamFlowEnhancement,UplandManagement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4540,27 +4540,27 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Holding and Maturation,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Holding,Brook Trout</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks,Pools- Deep Pools</t>
+          <t>Stability,Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4592,27 +4592,27 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Holding and Maturation,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Holding,Brook Trout</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks,Pools- Deep Pools</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4644,27 +4644,27 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Holding,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks,Pools- Deep Pools,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
@@ -4686,44 +4686,44 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Holding and Maturation,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Holding,Brook Trout</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Cover- Undercut Banks,Pools- Deep Pools</t>
+          <t>Stability,Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4743,39 +4743,39 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Holding and Maturation, multiple (HQ pathway)</t>
+          <t>Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Contaminants,Temperature- Adult Spawning,Pools- Deep Pools,Temperature- Adult Holding,Brook Trout</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Stability,Cover- Wood,Flow- Summer Base Flow,Riparian</t>
+          <t>Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Cover- Boulders</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4800,34 +4800,34 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,Fry,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Temperature- Rearing,Cover- Undercut Banks,Temperature- Adult Holding,PRCNT Fines and Embeddedness,Contaminants,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Temperature- Rearing,PRCNT Fines and Embeddedness,Cover- Boulders</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian,Cover- Boulders,Pools- Deep Pools</t>
+          <t>Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4852,34 +4852,34 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Riparian,Temperature- Rearing,Cover- Boulders,Cover- Undercut Banks,Temperature- Adult Holding,PRCNT Fines and Embeddedness,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Pool Quantity and Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Stability,Flow- Summer Base Flow,Pool Quantity and Quality,Pools- Deep Pools</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Riparian Restoration and Management,Instream Flow Enhancement,Upland Management,Fine Sediment Management,Water Quality Improvement,Brook Trout Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4904,34 +4904,34 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Holding and Maturation, multiple (HQ pathway)</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Off-Channel- Side-Channels,Pool Quantity and Quality,Temperature- Rearing,Temperature- Adult Spawning,Temperature- Adult Holding,Brook Trout</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Riparian,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4951,39 +4951,39 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Holding,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Cover- Wood,Riparian,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Cover- Undercut Banks,Pools- Deep Pools,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5003,49 +5003,49 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Holding,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Temperature- Rearing</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Cover- Undercut Banks,Pools- Deep Pools,PRCNT Fines and Embeddedness</t>
+          <t>Stability,Coarse Substrate,Cover- Wood,FloodplainConnectivity,Off-Channel/Side-Channels,Pool Quantity and Quality,Riparian,PRCNT Fines and Embeddedness</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -5053,51 +5053,46 @@
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Cover- Wood,Riparian,Temperature- Rearing,Temperature- Adult Holding,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Cover- Boulders,Cover- Undercut Banks,Pools- Deep Pools,PRCNT Fines and Embeddedness</t>
+          <t>Coarse Substrate,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>EnhanceFoodResources</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -5105,41 +5100,36 @@
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Spring Chinook,Steelhead,Bull Trout</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Spawning and Incubation,BT Natal Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Temperature- Rearing,Temperature- Adult Holding,Temperature- Adult Spawning,Brook Trout</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Stability,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity and Quality,Riparian,Cover- Undercut Banks,Pools- Deep Pools,PRCNT Fines and Embeddedness</t>
+          <t>Coarse Substrate,Temperature- Adult Holding,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Bank Restoration,Channel Complexity Restoration,Channel Modification,Floodplain Reconnection,Side Channel and Off-Channel Habitat Restoration,Fine Sediment Management,Upland Management,Riparian Restoration and Management,Instream Flow Enhancement,Water Quality Improvement,Brook Trout Management</t>
+          <t>WaterQualityImprovement,EnhanceFoodResources</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5149,7 +5139,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -5157,11 +5147,6 @@
           <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>Steelhead</t>
@@ -5169,29 +5154,29 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Off-Channel- Floodplain,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Temperature- Adult Holding,Food- Food Web Resources,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Food- Food Web Resources</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Enhance Food Resources</t>
+          <t>WaterQualityImprovement,EnhanceFoodResources</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Omak 16-4</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5201,17 +5186,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5221,29 +5201,24 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Temperature- Adult Holding,Temperature- Rearing</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Water Quality Improvement,Enhance Food Resources</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5253,7 +5228,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -5273,29 +5248,29 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing, multiple (HQ pathway)</t>
+          <t>Holding and Maturation,Summer Rearing</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Temperature- Adult Holding,Food- Food Web Resources,Temperature- Rearing</t>
+          <t>Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Coarse Substrate</t>
+          <t>Coarse Substrate,Pool Quantity and Quality,Temperature- Adult Holding,Food- Food Web Resources,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Water Quality Improvement,Enhance Food Resources</t>
+          <t>WaterQualityImprovement,EnhanceFoodResources</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Omak 16-4</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5305,17 +5280,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5325,24 +5300,29 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Coarse Substrate</t>
+          <t>Coarse Substrate,Food- Food Web Resources</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>EnhanceFoodResources</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5362,7 +5342,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5372,29 +5352,29 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Holding and Maturation,Summer Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Pool Quantity and Quality,Temperature- Adult Holding,Food- Food Web Resources,Temperature- Rearing</t>
+          <t>Coarse Substrate,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Water Quality Improvement,Enhance Food Resources</t>
+          <t>EnhanceFoodResources</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5414,7 +5394,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5424,29 +5404,29 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Food- Food Web Resources</t>
+          <t>Coarse Substrate,Pool Quantity and Quality,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Enhance Food Resources</t>
+          <t>EnhanceFoodResources</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5476,12 +5456,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5491,14 +5471,14 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Enhance Food Resources</t>
+          <t>EnhanceFoodResources</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Salmon 16-1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5508,12 +5488,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Restore Reach Function, Address Limiting Factors</t>
+          <t>Restore Reach Function</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5528,29 +5508,24 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Pool Quantity and Quality,Food- Food Web Resources</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Enhance Food Resources</t>
+          <t>Coarse Substrate</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5560,7 +5535,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5580,29 +5555,29 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Summer Rearing, multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Food- Food Web Resources</t>
+          <t>Coarse Substrate,Cover- Wood,Riparian-Disturbance,Riparian Mean,Cover- Wood,Temperature- Adult Holding,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Enhance Food Resources</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,WaterQualityImprovement,EnhanceFoodResources</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Salmon 16-1</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5632,12 +5607,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5649,7 +5624,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5669,7 +5644,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5679,29 +5654,29 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing, multiple (HQ pathway)</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing,Food- Food Web Resources</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Riparian-Disturbance,Riparian Mean,Cover- Wood,Temperature- Adult Holding,Temperature- Rearing</t>
+          <t>Coarse Substrate,Pool Quantity and Quality</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Channel Complexity Restoration,Channel Modification,Riparian Restoration and Management,Water Quality Improvement,Enhance Food Resources</t>
+          <t>EnhanceFoodResources</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Salmon 16-13</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5716,7 +5691,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Restore Reach Function</t>
+          <t>Restore Reach Function, Address Limiting Factors, Restore Fish Passage</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5731,19 +5706,29 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>multiple (HQ pathway)</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Flow- Summer Base Flow,Pool Quantity and Quality,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Riparian-Disturbance,Riparian Mean,Temperature- Rearing</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,EnhanceFoodResources,Fi